--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF36B878-BCF5-4551-8D94-F5290819DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1AFE96-4F5A-45CE-AD50-70C3A3720456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
+    <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$314</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="441">
   <si>
     <t>opt</t>
   </si>
@@ -561,9 +561,6 @@
     <t>number fonts</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>paras</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
   </si>
   <si>
     <t>spacyTknAttrLikeUrl</t>
+  </si>
+  <si>
+    <t>TET, TL</t>
   </si>
 </sst>
 </file>
@@ -1424,18 +1424,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1447,6 +1435,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1483,7 +1486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1518,38 +1521,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1873,7 +1870,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="C307" sqref="C302:C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,35 +1886,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10"/>
@@ -1931,22 +1928,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>263</v>
+      <c r="C3" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -1959,18 +1956,18 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>216</v>
+      <c r="C4" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,29 +1977,29 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>217</v>
+      <c r="C5" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>261</v>
+      <c r="C6" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
@@ -2022,20 +2019,20 @@
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>220</v>
+      <c r="C7" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,20 +2042,20 @@
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>221</v>
+      <c r="C8" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,7 +2065,7 @@
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>172</v>
       </c>
       <c r="D9" s="11"/>
@@ -2089,12 +2086,12 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
@@ -2110,11 +2107,11 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -2133,11 +2130,11 @@
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -2156,11 +2153,11 @@
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -2179,11 +2176,11 @@
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -2202,11 +2199,11 @@
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
@@ -2225,7 +2222,7 @@
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="11"/>
@@ -2246,7 +2243,7 @@
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="11"/>
@@ -2267,11 +2264,11 @@
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>164</v>
@@ -2290,11 +2287,11 @@
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>28</v>
@@ -2313,12 +2310,12 @@
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
@@ -2327,15 +2324,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>262</v>
+      <c r="C21" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="3" t="s">
@@ -2348,22 +2345,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>437</v>
+      <c r="C22" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -2373,10 +2370,10 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="10"/>
@@ -2397,7 +2394,7 @@
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="11"/>
@@ -2418,7 +2415,7 @@
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>170</v>
       </c>
       <c r="D25" s="11"/>
@@ -2439,7 +2436,7 @@
       <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="11"/>
@@ -2460,7 +2457,7 @@
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="11"/>
@@ -2481,7 +2478,7 @@
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="11"/>
@@ -2502,7 +2499,7 @@
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="11"/>
@@ -2523,7 +2520,7 @@
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="11"/>
@@ -2544,7 +2541,7 @@
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="11"/>
@@ -2562,15 +2559,15 @@
       <c r="A32" s="7">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>437</v>
+      <c r="B32" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>3</v>
@@ -2584,14 +2581,14 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>226</v>
+        <v>436</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
@@ -2605,13 +2602,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>227</v>
+        <v>436</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
@@ -2628,13 +2625,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>228</v>
+        <v>436</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2648,13 +2645,13 @@
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>229</v>
+        <v>436</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2668,13 +2665,13 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>230</v>
+        <v>436</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -2688,13 +2685,13 @@
         <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>231</v>
+        <v>436</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2708,13 +2705,13 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>232</v>
+        <v>436</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
@@ -2728,13 +2725,13 @@
         <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>233</v>
+        <v>436</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
         <v>33</v>
@@ -2748,13 +2745,13 @@
         <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>234</v>
+        <v>436</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -2768,13 +2765,13 @@
         <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>243</v>
+        <v>436</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
         <v>33</v>
@@ -2788,13 +2785,13 @@
         <v>24</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>244</v>
+        <v>436</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" t="s">
         <v>33</v>
@@ -2808,13 +2805,13 @@
         <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>235</v>
+        <v>436</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" t="s">
         <v>33</v>
@@ -2828,13 +2825,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>236</v>
+        <v>436</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45" t="s">
         <v>33</v>
@@ -2848,13 +2845,13 @@
         <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C46" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2867,17 +2864,17 @@
       <c r="A47" s="7">
         <v>25</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>265</v>
+      <c r="B47" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>3</v>
@@ -2887,1869 +2884,1869 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
-        <v>26</v>
-      </c>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="14">
+        <v>26</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>26</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
-        <v>26</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C49" s="23" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>26</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
-        <v>26</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="23" t="s">
+      <c r="F50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>26</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <v>26</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" s="23" t="s">
+      <c r="F51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>26</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
-        <v>26</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="23" t="s">
+      <c r="F52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>26</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
+      <c r="D53" s="17"/>
+      <c r="E53" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
-        <v>26</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="23" t="s">
+      <c r="F53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>26</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22" t="s">
+      <c r="D54" s="17"/>
+      <c r="E54" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
-        <v>26</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C54" s="23" t="s">
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>26</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>26</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
-        <v>26</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
-        <v>26</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C56" s="23" t="s">
+      <c r="F56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>26</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>26</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="23" t="s">
+      <c r="F57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>26</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
-        <v>26</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="23" t="s">
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>26</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
-        <v>26</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="23" t="s">
+      <c r="F59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>26</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22" t="s">
+      <c r="D60" s="17"/>
+      <c r="E60" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
-        <v>26</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="23" t="s">
+      <c r="F60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>26</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
-        <v>26</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="23" t="s">
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>26</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>26</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
-        <v>26</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="23" t="s">
+      <c r="F63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>26</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
-        <v>26</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" s="23" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>26</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>26</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>26</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
-        <v>26</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
-        <v>26</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22" t="s">
+      <c r="D67" s="17"/>
+      <c r="E67" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
-        <v>26</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>26</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
-        <v>26</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67" s="23" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>26</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>26</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>26</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>26</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>26</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>26</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
-        <v>26</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
-        <v>26</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
-        <v>26</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>26</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>26</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>26</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>26</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>26</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>26</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>26</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>26</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>26</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>26</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>26</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>26</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
-        <v>26</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>26</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
-        <v>26</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
-        <v>26</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>26</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>26</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>26</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>26</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>26</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>26</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>26</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>26</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>26</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>26</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>26</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>26</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>26</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>26</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>26</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>26</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>26</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
+        <v>26</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>26</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>26</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>26</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>26</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>26</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>26</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>26</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>26</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>26</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>26</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>26</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="17"/>
+      <c r="E114" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>26</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>26</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>26</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>26</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>26</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>26</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>26</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>26</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>26</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>26</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>26</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>26</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>26</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>26</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D128" s="17"/>
+      <c r="E128" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>26</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>26</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>26</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>26</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D132" s="17"/>
+      <c r="E132" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
-        <v>26</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
-        <v>26</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>26</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
-        <v>26</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
-        <v>26</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
-        <v>26</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
-        <v>26</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
-        <v>26</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>26</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>26</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>26</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>26</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>26</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>26</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>26</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>26</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>26</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" s="15"/>
-      <c r="E92" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>26</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>26</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>26</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>26</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>26</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>26</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>26</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>26</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>26</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
-        <v>26</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
-        <v>26</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>26</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="15"/>
-      <c r="E104" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>26</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
-        <v>26</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
-        <v>26</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
-        <v>26</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
-        <v>26</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
-        <v>26</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
-        <v>26</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="D111" s="15"/>
-      <c r="E111" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
-        <v>26</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
-        <v>26</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
-        <v>26</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
-        <v>26</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
-        <v>26</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
-        <v>26</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
-        <v>26</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="D118" s="15"/>
-      <c r="E118" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
-        <v>26</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
-        <v>26</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16" t="s">
+      <c r="F132" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>26</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="F120" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
-        <v>26</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
-        <v>26</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
-        <v>26</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
-        <v>26</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
-        <v>26</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
-        <v>26</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
-        <v>26</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>26</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
-        <v>26</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
-        <v>26</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
-        <v>26</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D131" s="15"/>
-      <c r="E131" s="16" t="s">
+      <c r="F133" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>26</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D134" s="17"/>
+      <c r="E134" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="F131" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
-        <v>26</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D132" s="15"/>
-      <c r="E132" s="16" t="s">
+      <c r="F134" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>26</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F132" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
-        <v>26</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
-        <v>26</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="16" t="s">
+      <c r="F135" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>26</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D136" s="17"/>
+      <c r="E136" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F134" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="13">
-        <v>26</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="D135" s="15"/>
-      <c r="E135" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
-        <v>26</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" s="14" t="s">
+      <c r="F136" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4757,10 +4754,10 @@
       <c r="A137" s="7">
         <v>30</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D137" s="10"/>
@@ -4781,12 +4778,12 @@
       <c r="B138" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="24" t="s">
-        <v>188</v>
+      <c r="C138" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>11</v>
@@ -4802,12 +4799,12 @@
       <c r="B139" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>189</v>
+      <c r="C139" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>11</v>
@@ -4816,15 +4813,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>31</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>176</v>
+      <c r="C140" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="3" t="s">
@@ -4844,7 +4841,7 @@
       <c r="B141" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D141" s="11"/>
@@ -4865,12 +4862,12 @@
       <c r="B142" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>204</v>
+      <c r="C142" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>11</v>
@@ -4886,12 +4883,12 @@
       <c r="B143" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="24" t="s">
-        <v>205</v>
+      <c r="C143" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>11</v>
@@ -4900,15 +4897,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>31</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C144" s="24" t="s">
-        <v>175</v>
+      <c r="C144" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="3" t="s">
@@ -4928,12 +4925,12 @@
       <c r="B145" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>195</v>
+      <c r="C145" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>11</v>
@@ -4949,12 +4946,12 @@
       <c r="B146" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C146" s="24" t="s">
-        <v>190</v>
+      <c r="C146" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>11</v>
@@ -4963,14 +4960,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>31</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="23" t="s">
         <v>163</v>
       </c>
       <c r="D147" s="11"/>
@@ -4991,12 +4988,12 @@
       <c r="B148" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C148" s="24" t="s">
-        <v>184</v>
+      <c r="C148" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>11</v>
@@ -5012,12 +5009,12 @@
       <c r="B149" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C149" s="24" t="s">
-        <v>186</v>
+      <c r="C149" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>11</v>
@@ -5030,10 +5027,10 @@
       <c r="A150" s="7">
         <v>40</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D150" s="10"/>
@@ -5054,7 +5051,7 @@
       <c r="B151" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="11"/>
@@ -5075,7 +5072,7 @@
       <c r="B152" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D152" s="11"/>
@@ -5096,7 +5093,7 @@
       <c r="B153" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C153" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D153" s="11"/>
@@ -5117,7 +5114,7 @@
       <c r="B154" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C154" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D154" s="11"/>
@@ -5138,7 +5135,7 @@
       <c r="B155" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="11"/>
@@ -5159,7 +5156,7 @@
       <c r="B156" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D156" s="11"/>
@@ -5180,12 +5177,12 @@
       <c r="B157" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C157" s="24" t="s">
-        <v>208</v>
+      <c r="C157" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>11</v>
@@ -5201,7 +5198,7 @@
       <c r="B158" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D158" s="11"/>
@@ -5222,7 +5219,7 @@
       <c r="B159" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D159" s="11"/>
@@ -5233,7 +5230,7 @@
         <v>8</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>174</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5243,7 +5240,7 @@
       <c r="B160" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D160" s="11"/>
@@ -5264,12 +5261,12 @@
       <c r="B161" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C161" s="24" t="s">
-        <v>184</v>
+      <c r="C161" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>11</v>
@@ -5285,12 +5282,12 @@
       <c r="B162" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C162" s="24" t="s">
-        <v>186</v>
+      <c r="C162" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>11</v>
@@ -5303,10 +5300,10 @@
       <c r="A163" s="7">
         <v>50</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D163" s="10"/>
@@ -5327,12 +5324,12 @@
       <c r="B164" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C164" s="24" t="s">
-        <v>188</v>
+      <c r="C164" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>11</v>
@@ -5348,12 +5345,12 @@
       <c r="B165" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>189</v>
+      <c r="C165" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>11</v>
@@ -5369,7 +5366,7 @@
       <c r="B166" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C166" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D166" s="11"/>
@@ -5390,7 +5387,7 @@
       <c r="B167" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C167" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D167" s="11"/>
@@ -5411,7 +5408,7 @@
       <c r="B168" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D168" s="11"/>
@@ -5432,12 +5429,12 @@
       <c r="B169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="24" t="s">
-        <v>195</v>
+      <c r="C169" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>11</v>
@@ -5453,12 +5450,12 @@
       <c r="B170" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C170" s="24" t="s">
-        <v>190</v>
+      <c r="C170" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>11</v>
@@ -5474,7 +5471,7 @@
       <c r="B171" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C171" s="24" t="s">
+      <c r="C171" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D171" s="11"/>
@@ -5485,7 +5482,7 @@
         <v>8</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5495,12 +5492,12 @@
       <c r="B172" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C172" s="24" t="s">
-        <v>184</v>
+      <c r="C172" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
@@ -5516,12 +5513,12 @@
       <c r="B173" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C173" s="24" t="s">
-        <v>186</v>
+      <c r="C173" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>11</v>
@@ -5530,15 +5527,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>51</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="24" t="s">
-        <v>177</v>
+      <c r="C174" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="3" t="s">
@@ -5555,10 +5552,10 @@
       <c r="A175" s="7">
         <v>60</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="22" t="s">
         <v>166</v>
       </c>
       <c r="D175" s="10"/>
@@ -5579,12 +5576,12 @@
       <c r="B176" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C176" s="24" t="s">
-        <v>208</v>
+      <c r="C176" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>11</v>
@@ -5600,12 +5597,12 @@
       <c r="B177" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C177" s="24" t="s">
-        <v>210</v>
+      <c r="C177" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>11</v>
@@ -5621,12 +5618,12 @@
       <c r="B178" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="24" t="s">
-        <v>212</v>
+      <c r="C178" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>11</v>
@@ -5642,7 +5639,7 @@
       <c r="B179" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D179" s="11"/>
@@ -5663,12 +5660,12 @@
       <c r="B180" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C180" s="24" t="s">
-        <v>184</v>
+      <c r="C180" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>11</v>
@@ -5684,12 +5681,12 @@
       <c r="B181" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C181" s="24" t="s">
-        <v>186</v>
+      <c r="C181" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
@@ -5702,10 +5699,10 @@
       <c r="A182" s="7">
         <v>70</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D182" s="10"/>
@@ -5726,7 +5723,7 @@
       <c r="B183" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D183" s="11"/>
@@ -5747,7 +5744,7 @@
       <c r="B184" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D184" s="11"/>
@@ -5768,7 +5765,7 @@
       <c r="B185" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D185" s="11"/>
@@ -5789,7 +5786,7 @@
       <c r="B186" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D186" s="11"/>
@@ -5810,12 +5807,12 @@
       <c r="B187" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="24" t="s">
-        <v>208</v>
+      <c r="C187" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>11</v>
@@ -5831,7 +5828,7 @@
       <c r="B188" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D188" s="11"/>
@@ -5852,11 +5849,11 @@
       <c r="B189" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C189" s="24" t="s">
-        <v>428</v>
+      <c r="C189" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>8</v>
@@ -5865,19 +5862,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>71</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C190" s="24" t="s">
-        <v>378</v>
+      <c r="C190" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="D190" s="12"/>
       <c r="E190" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>8</v>
@@ -5886,19 +5883,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>71</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C191" s="24" t="s">
-        <v>379</v>
+      <c r="C191" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="D191" s="12"/>
       <c r="E191" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>8</v>
@@ -5907,19 +5904,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>71</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C192" s="24" t="s">
-        <v>380</v>
+      <c r="C192" s="20" t="s">
+        <v>379</v>
       </c>
       <c r="D192" s="12"/>
       <c r="E192" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>8</v>
@@ -5928,19 +5925,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>71</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="24" t="s">
-        <v>381</v>
+      <c r="C193" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="D193" s="12"/>
       <c r="E193" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>8</v>
@@ -5949,19 +5946,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>71</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C194" s="24" t="s">
-        <v>382</v>
+      <c r="C194" s="20" t="s">
+        <v>381</v>
       </c>
       <c r="D194" s="12"/>
       <c r="E194" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>8</v>
@@ -5970,19 +5967,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>71</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C195" s="24" t="s">
-        <v>383</v>
+      <c r="C195" s="20" t="s">
+        <v>382</v>
       </c>
       <c r="D195" s="12"/>
       <c r="E195" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>8</v>
@@ -5991,19 +5988,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>71</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C196" s="24" t="s">
-        <v>384</v>
+      <c r="C196" s="20" t="s">
+        <v>383</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>8</v>
@@ -6012,19 +6009,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>71</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C197" s="24" t="s">
-        <v>385</v>
+      <c r="C197" s="20" t="s">
+        <v>384</v>
       </c>
       <c r="D197" s="12"/>
       <c r="E197" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>8</v>
@@ -6033,19 +6030,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>71</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C198" s="24" t="s">
-        <v>386</v>
+      <c r="C198" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>33</v>
@@ -6054,19 +6051,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>71</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C199" s="24" t="s">
-        <v>387</v>
+      <c r="C199" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="D199" s="12"/>
       <c r="E199" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>33</v>
@@ -6075,19 +6072,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>71</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C200" s="24" t="s">
-        <v>388</v>
+      <c r="C200" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>33</v>
@@ -6096,19 +6093,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>71</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C201" s="24" t="s">
-        <v>389</v>
+      <c r="C201" s="20" t="s">
+        <v>388</v>
       </c>
       <c r="D201" s="12"/>
       <c r="E201" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>33</v>
@@ -6117,19 +6114,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>71</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C202" s="24" t="s">
-        <v>390</v>
+      <c r="C202" s="20" t="s">
+        <v>389</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>33</v>
@@ -6138,19 +6135,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>71</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C203" s="24" t="s">
-        <v>391</v>
+      <c r="C203" s="20" t="s">
+        <v>390</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>33</v>
@@ -6159,19 +6156,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>71</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C204" s="24" t="s">
-        <v>392</v>
+      <c r="C204" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="D204" s="12"/>
       <c r="E204" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>33</v>
@@ -6180,19 +6177,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>71</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C205" s="24" t="s">
-        <v>393</v>
+      <c r="C205" s="20" t="s">
+        <v>392</v>
       </c>
       <c r="D205" s="12"/>
       <c r="E205" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>33</v>
@@ -6201,19 +6198,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>71</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C206" s="24" t="s">
-        <v>394</v>
+      <c r="C206" s="20" t="s">
+        <v>393</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>33</v>
@@ -6222,19 +6219,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>71</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C207" s="24" t="s">
-        <v>395</v>
+      <c r="C207" s="20" t="s">
+        <v>394</v>
       </c>
       <c r="D207" s="12"/>
       <c r="E207" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>33</v>
@@ -6243,19 +6240,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>71</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C208" s="24" t="s">
-        <v>396</v>
+      <c r="C208" s="20" t="s">
+        <v>395</v>
       </c>
       <c r="D208" s="12"/>
       <c r="E208" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>33</v>
@@ -6271,12 +6268,12 @@
       <c r="B209" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C209" s="24" t="s">
-        <v>397</v>
+      <c r="C209" s="20" t="s">
+        <v>396</v>
       </c>
       <c r="D209" s="12"/>
       <c r="E209" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>33</v>
@@ -6292,12 +6289,12 @@
       <c r="B210" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C210" s="24" t="s">
-        <v>398</v>
+      <c r="C210" s="20" t="s">
+        <v>397</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>33</v>
@@ -6313,12 +6310,12 @@
       <c r="B211" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C211" s="24" t="s">
-        <v>399</v>
+      <c r="C211" s="20" t="s">
+        <v>398</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>33</v>
@@ -6334,12 +6331,12 @@
       <c r="B212" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C212" s="24" t="s">
-        <v>400</v>
+      <c r="C212" s="20" t="s">
+        <v>399</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>33</v>
@@ -6355,12 +6352,12 @@
       <c r="B213" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C213" s="24" t="s">
-        <v>401</v>
+      <c r="C213" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>33</v>
@@ -6376,14 +6373,14 @@
       <c r="B214" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C214" s="24" t="s">
+      <c r="C214" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D214" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D214" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="E214" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>33</v>
@@ -6399,12 +6396,12 @@
       <c r="B215" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="24" t="s">
-        <v>402</v>
+      <c r="C215" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>8</v>
@@ -6420,12 +6417,12 @@
       <c r="B216" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C216" s="24" t="s">
-        <v>403</v>
+      <c r="C216" s="20" t="s">
+        <v>402</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>8</v>
@@ -6441,12 +6438,12 @@
       <c r="B217" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C217" s="24" t="s">
-        <v>404</v>
+      <c r="C217" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>8</v>
@@ -6462,12 +6459,12 @@
       <c r="B218" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C218" s="24" t="s">
-        <v>405</v>
+      <c r="C218" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>8</v>
@@ -6483,12 +6480,12 @@
       <c r="B219" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C219" s="24" t="s">
-        <v>406</v>
+      <c r="C219" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>8</v>
@@ -6504,12 +6501,12 @@
       <c r="B220" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C220" s="24" t="s">
-        <v>407</v>
+      <c r="C220" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>33</v>
@@ -6525,12 +6522,12 @@
       <c r="B221" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C221" s="24" t="s">
-        <v>408</v>
+      <c r="C221" s="20" t="s">
+        <v>407</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>33</v>
@@ -6546,12 +6543,12 @@
       <c r="B222" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C222" s="24" t="s">
-        <v>440</v>
+      <c r="C222" s="20" t="s">
+        <v>439</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>33</v>
@@ -6567,12 +6564,12 @@
       <c r="B223" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C223" s="24" t="s">
-        <v>409</v>
+      <c r="C223" s="20" t="s">
+        <v>408</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>8</v>
@@ -6588,12 +6585,12 @@
       <c r="B224" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C224" s="24" t="s">
-        <v>410</v>
+      <c r="C224" s="20" t="s">
+        <v>409</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>8</v>
@@ -6609,12 +6606,12 @@
       <c r="B225" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C225" s="24" t="s">
-        <v>411</v>
+      <c r="C225" s="20" t="s">
+        <v>410</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>8</v>
@@ -6630,12 +6627,12 @@
       <c r="B226" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C226" s="24" t="s">
-        <v>412</v>
+      <c r="C226" s="20" t="s">
+        <v>411</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>8</v>
@@ -6651,12 +6648,12 @@
       <c r="B227" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C227" s="24" t="s">
-        <v>413</v>
+      <c r="C227" s="20" t="s">
+        <v>412</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>8</v>
@@ -6672,12 +6669,12 @@
       <c r="B228" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C228" s="24" t="s">
-        <v>414</v>
+      <c r="C228" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>8</v>
@@ -6693,12 +6690,12 @@
       <c r="B229" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C229" s="24" t="s">
-        <v>415</v>
+      <c r="C229" s="20" t="s">
+        <v>414</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>8</v>
@@ -6714,12 +6711,12 @@
       <c r="B230" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C230" s="24" t="s">
-        <v>416</v>
+      <c r="C230" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>8</v>
@@ -6735,12 +6732,12 @@
       <c r="B231" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C231" s="24" t="s">
-        <v>417</v>
+      <c r="C231" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>8</v>
@@ -6756,12 +6753,12 @@
       <c r="B232" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C232" s="24" t="s">
-        <v>418</v>
+      <c r="C232" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>8</v>
@@ -6777,12 +6774,12 @@
       <c r="B233" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C233" s="24" t="s">
-        <v>419</v>
+      <c r="C233" s="20" t="s">
+        <v>418</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>8</v>
@@ -6798,12 +6795,12 @@
       <c r="B234" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C234" s="24" t="s">
-        <v>420</v>
+      <c r="C234" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>8</v>
@@ -6819,12 +6816,12 @@
       <c r="B235" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C235" s="24" t="s">
-        <v>421</v>
+      <c r="C235" s="20" t="s">
+        <v>420</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>8</v>
@@ -6840,12 +6837,12 @@
       <c r="B236" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C236" s="24" t="s">
-        <v>422</v>
+      <c r="C236" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>8</v>
@@ -6861,12 +6858,12 @@
       <c r="B237" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C237" s="24" t="s">
-        <v>423</v>
+      <c r="C237" s="20" t="s">
+        <v>422</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
@@ -6882,12 +6879,12 @@
       <c r="B238" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C238" s="24" t="s">
-        <v>424</v>
+      <c r="C238" s="20" t="s">
+        <v>423</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
@@ -6903,12 +6900,12 @@
       <c r="B239" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C239" s="24" t="s">
-        <v>425</v>
+      <c r="C239" s="20" t="s">
+        <v>424</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -6924,12 +6921,12 @@
       <c r="B240" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C240" s="24" t="s">
-        <v>426</v>
+      <c r="C240" s="20" t="s">
+        <v>425</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>8</v>
@@ -6945,12 +6942,12 @@
       <c r="B241" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C241" s="24" t="s">
-        <v>427</v>
+      <c r="C241" s="20" t="s">
+        <v>426</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>8</v>
@@ -6966,7 +6963,7 @@
       <c r="B242" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C242" s="24" t="s">
+      <c r="C242" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D242" s="11"/>
@@ -6987,18 +6984,18 @@
       <c r="B243" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C243" s="24" t="s">
-        <v>74</v>
+      <c r="C243" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="3" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>4</v>
+        <v>440</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7008,12 +7005,12 @@
       <c r="B244" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C244" s="24" t="s">
-        <v>76</v>
+      <c r="C244" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="D244" s="11"/>
       <c r="E244" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>11</v>
@@ -7029,12 +7026,12 @@
       <c r="B245" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C245" s="24" t="s">
-        <v>78</v>
+      <c r="C245" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>11</v>
@@ -7050,101 +7047,101 @@
       <c r="B246" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C246" s="24" t="s">
-        <v>80</v>
+      <c r="C246" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="D246" s="11"/>
       <c r="E246" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>71</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7">
+      <c r="F247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7">
         <v>100</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B248" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C247" s="8" t="s">
+      <c r="C248" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D247" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E247" s="8" t="s">
+      <c r="D248" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="F248" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G247" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>101</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C248" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D248" s="11"/>
-      <c r="E248" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G248" s="3" t="s">
+      <c r="G248" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="C249" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D249" s="11"/>
       <c r="E249" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>111</v>
-      </c>
-      <c r="B250" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C250" s="24" t="s">
-        <v>144</v>
+      <c r="C250" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D250" s="11"/>
       <c r="E250" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>168</v>
@@ -7157,12 +7154,12 @@
       <c r="B251" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C251" s="24" t="s">
-        <v>146</v>
+      <c r="C251" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="D251" s="11"/>
       <c r="E251" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>8</v>
@@ -7178,12 +7175,12 @@
       <c r="B252" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C252" s="24" t="s">
-        <v>145</v>
+      <c r="C252" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="D252" s="11"/>
       <c r="E252" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>8</v>
@@ -7199,15 +7196,15 @@
       <c r="B253" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C253" s="24" t="s">
-        <v>140</v>
+      <c r="C253" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>168</v>
@@ -7220,12 +7217,12 @@
       <c r="B254" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C254" s="24" t="s">
-        <v>62</v>
+      <c r="C254" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="3" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>11</v>
@@ -7241,12 +7238,12 @@
       <c r="B255" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C255" s="24" t="s">
-        <v>48</v>
+      <c r="C255" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>11</v>
@@ -7262,17 +7259,15 @@
       <c r="B256" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C256" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="C256" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="11"/>
       <c r="E256" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>168</v>
@@ -7285,12 +7280,14 @@
       <c r="B257" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C257" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D257" s="11"/>
+      <c r="C257" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E257" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>8</v>
@@ -7300,107 +7297,107 @@
       </c>
     </row>
     <row r="258" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="A258">
+        <v>111</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" s="11"/>
+      <c r="E258" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
         <v>200</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B259" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C259" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D258" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E258" s="8" t="s">
+      <c r="D259" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E259" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="F259" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G258" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>201</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C259" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D259" s="11"/>
-      <c r="E259" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G259" s="3" t="s">
+      <c r="G259" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C260" s="25" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>211</v>
-      </c>
-      <c r="B261" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C261" s="24" t="s">
-        <v>180</v>
+      <c r="C261" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>211</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="24" t="s">
-        <v>87</v>
+      <c r="C262" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>168</v>
@@ -7413,15 +7410,15 @@
       <c r="B263" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C263" s="24" t="s">
-        <v>89</v>
+      <c r="C263" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>168</v>
@@ -7434,12 +7431,12 @@
       <c r="B264" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C264" s="24" t="s">
-        <v>91</v>
+      <c r="C264" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>11</v>
@@ -7455,12 +7452,12 @@
       <c r="B265" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C265" s="24" t="s">
-        <v>93</v>
+      <c r="C265" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>11</v>
@@ -7476,12 +7473,12 @@
       <c r="B266" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="24" t="s">
-        <v>95</v>
+      <c r="C266" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>11</v>
@@ -7490,43 +7487,43 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>220</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C267" s="25" t="s">
-        <v>97</v>
+        <v>211</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>221</v>
-      </c>
-      <c r="B268" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C268" s="24" t="s">
-        <v>98</v>
+      <c r="C268" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="3" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>168</v>
@@ -7539,12 +7536,12 @@
       <c r="B269" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C269" s="24" t="s">
-        <v>100</v>
+      <c r="C269" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>11</v>
@@ -7560,12 +7557,12 @@
       <c r="B270" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C270" s="24" t="s">
-        <v>102</v>
+      <c r="C270" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>11</v>
@@ -7581,12 +7578,12 @@
       <c r="B271" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C271" s="24" t="s">
-        <v>48</v>
+      <c r="C271" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>11</v>
@@ -7602,12 +7599,12 @@
       <c r="B272" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C272" s="24" t="s">
-        <v>53</v>
+      <c r="C272" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>11</v>
@@ -7623,101 +7620,101 @@
       <c r="B273" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C273" s="24" t="s">
-        <v>57</v>
+      <c r="C273" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="3" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="7">
+      <c r="A274">
+        <v>221</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C274" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
         <v>300</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B275" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="C275" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D274" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E274" s="8" t="s">
+      <c r="D275" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E275" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="F275" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G274" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>301</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C275" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D275" s="11"/>
-      <c r="E275" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G275" s="3" t="s">
+      <c r="G275" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" s="25" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>311</v>
-      </c>
-      <c r="B277" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="24" t="s">
-        <v>87</v>
+      <c r="C277" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="3" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>168</v>
@@ -7730,15 +7727,15 @@
       <c r="B278" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C278" s="24" t="s">
-        <v>89</v>
+      <c r="C278" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>168</v>
@@ -7751,12 +7748,12 @@
       <c r="B279" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C279" s="24" t="s">
-        <v>91</v>
+      <c r="C279" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>11</v>
@@ -7772,12 +7769,12 @@
       <c r="B280" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C280" s="24" t="s">
-        <v>93</v>
+      <c r="C280" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>11</v>
@@ -7793,12 +7790,12 @@
       <c r="B281" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C281" s="24" t="s">
-        <v>95</v>
+      <c r="C281" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>11</v>
@@ -7814,17 +7811,15 @@
       <c r="B282" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C282" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="C282" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>168</v>
@@ -7832,62 +7827,64 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C283" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D283" s="11"/>
+      <c r="C283" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E283" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C284" s="25" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>321</v>
-      </c>
-      <c r="B285" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C285" s="24" t="s">
-        <v>98</v>
+      <c r="C285" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>168</v>
@@ -7900,12 +7897,12 @@
       <c r="B286" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C286" s="24" t="s">
-        <v>100</v>
+      <c r="C286" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>11</v>
@@ -7921,12 +7918,12 @@
       <c r="B287" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C287" s="24" t="s">
-        <v>102</v>
+      <c r="C287" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>11</v>
@@ -7942,12 +7939,12 @@
       <c r="B288" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C288" s="24" t="s">
-        <v>48</v>
+      <c r="C288" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>11</v>
@@ -7963,12 +7960,12 @@
       <c r="B289" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C289" s="24" t="s">
-        <v>53</v>
+      <c r="C289" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>11</v>
@@ -7984,122 +7981,122 @@
       <c r="B290" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C290" s="24" t="s">
-        <v>57</v>
+      <c r="C290" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>321</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D291" s="11"/>
+      <c r="E291" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
         <v>400</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B292" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C291" s="8" t="s">
+      <c r="C292" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D291" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E291" s="8" t="s">
+      <c r="D292" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E292" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F292" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G291" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>401</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C292" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D292" s="11"/>
-      <c r="E292" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G292" s="3" t="s">
+      <c r="G292" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C293" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>411</v>
-      </c>
-      <c r="B294" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C294" s="24" t="s">
-        <v>114</v>
+      <c r="C294" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>39</v>
+        <v>112</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>411</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C295" s="24" t="s">
-        <v>116</v>
+      <c r="C295" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>168</v>
@@ -8112,12 +8109,12 @@
       <c r="B296" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C296" s="24" t="s">
-        <v>118</v>
+      <c r="C296" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>11</v>
@@ -8133,12 +8130,12 @@
       <c r="B297" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C297" s="24" t="s">
-        <v>93</v>
+      <c r="C297" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>11</v>
@@ -8154,12 +8151,12 @@
       <c r="B298" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C298" s="24" t="s">
-        <v>95</v>
+      <c r="C298" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D298" s="11"/>
       <c r="E298" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>11</v>
@@ -8175,12 +8172,12 @@
       <c r="B299" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C299" s="24" t="s">
-        <v>122</v>
+      <c r="C299" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>11</v>
@@ -8189,43 +8186,43 @@
         <v>168</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>411</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C300" s="24" t="s">
-        <v>124</v>
+      <c r="C300" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C301" s="24" t="s">
-        <v>179</v>
+      <c r="C301" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="D301" s="11"/>
       <c r="E301" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>168</v>
@@ -8233,104 +8230,104 @@
     </row>
     <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F302" s="3" t="s">
-        <v>3</v>
+      <c r="F302" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>421</v>
-      </c>
-      <c r="B303" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C303" s="24" t="s">
-        <v>128</v>
+      <c r="C303" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>39</v>
+        <v>113</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>421</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C304" s="24" t="s">
-        <v>130</v>
+      <c r="C304" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>11</v>
+        <v>129</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>421</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C305" s="24" t="s">
-        <v>132</v>
+      <c r="C305" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>39</v>
+        <v>131</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C306" s="24" t="s">
-        <v>178</v>
+      <c r="C306" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>168</v>
@@ -8338,41 +8335,41 @@
     </row>
     <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="C307" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>431</v>
-      </c>
-      <c r="B308" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C308" s="24" t="s">
-        <v>136</v>
+      <c r="C308" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D308" s="11"/>
       <c r="E308" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>168</v>
@@ -8385,12 +8382,12 @@
       <c r="B309" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C309" s="24" t="s">
-        <v>62</v>
+      <c r="C309" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D309" s="11"/>
       <c r="E309" s="3" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>11</v>
@@ -8399,43 +8396,43 @@
         <v>168</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>431</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C310" s="24" t="s">
-        <v>66</v>
+      <c r="C310" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>431</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C311" s="24" t="s">
-        <v>53</v>
+      <c r="C311" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>168</v>
@@ -8448,159 +8445,177 @@
       <c r="B312" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C312" s="24" t="s">
-        <v>57</v>
+      <c r="C312" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>431</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C313" s="24" t="s">
-        <v>68</v>
+      <c r="C313" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C314" s="24"/>
+    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>431</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C314" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" s="11"/>
+      <c r="E314" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C315" s="24"/>
+      <c r="C315" s="20"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C316" s="24"/>
+      <c r="C316" s="20"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C317" s="24"/>
+      <c r="C317" s="20"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C318" s="24"/>
+      <c r="C318" s="20"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C319" s="24"/>
+      <c r="C319" s="20"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C320" s="24"/>
+      <c r="C320" s="20"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="24"/>
+      <c r="C321" s="20"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="24"/>
+      <c r="C322" s="20"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="24"/>
+      <c r="C323" s="20"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="24"/>
+      <c r="C324" s="20"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="24"/>
+      <c r="C325" s="20"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="24"/>
+      <c r="C326" s="20"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="24"/>
+      <c r="C327" s="20"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="24"/>
+      <c r="C328" s="20"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="24"/>
+      <c r="C329" s="20"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="24"/>
+      <c r="C330" s="20"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="24"/>
+      <c r="C331" s="20"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="24"/>
+      <c r="C332" s="20"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="24"/>
+      <c r="C333" s="20"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="24"/>
+      <c r="C334" s="20"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="24"/>
+      <c r="C335" s="20"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="24"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="24"/>
+      <c r="C337" s="20"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="24"/>
+      <c r="C338" s="20"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="24"/>
+      <c r="C339" s="20"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="24"/>
+      <c r="C340" s="20"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="24"/>
+      <c r="C341" s="20"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="24"/>
+      <c r="C342" s="20"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="24"/>
+      <c r="C343" s="20"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="24"/>
+      <c r="C344" s="20"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="24"/>
+      <c r="C345" s="20"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="24"/>
+      <c r="C346" s="20"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="24"/>
+      <c r="C347" s="20"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="24"/>
+      <c r="C348" s="20"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="24"/>
+      <c r="C349" s="20"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="24"/>
+      <c r="C350" s="20"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="24"/>
+      <c r="C351" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G387">
-    <sortCondition ref="A2:A387"/>
-    <sortCondition ref="C2:C387"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G351">
+    <sortCondition ref="A2:A351"/>
+    <sortCondition ref="C2:C351"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1AFE96-4F5A-45CE-AD50-70C3A3720456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A7659-E537-48F4-97F1-9E229CC2FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$355</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="446">
   <si>
     <t>opt</t>
   </si>
@@ -825,9 +825,6 @@
     <t>pages</t>
   </si>
   <si>
-    <t>configuration</t>
-  </si>
-  <si>
     <t>container for configuration</t>
   </si>
   <si>
@@ -1360,6 +1357,24 @@
   </si>
   <si>
     <t>TET, TL</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>parser</t>
+  </si>
+  <si>
+    <t>tokenizer</t>
+  </si>
+  <si>
+    <t>container for module parser</t>
+  </si>
+  <si>
+    <t>container for module tokenizer</t>
+  </si>
+  <si>
+    <t>Improves the readability of the JSON file</t>
   </si>
 </sst>
 </file>
@@ -1864,13 +1879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C307" sqref="C302:C307"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,14 +1951,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -2001,7 +2018,9 @@
       <c r="C6" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2353,14 +2372,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>435</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>224</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -2371,14 +2392,14 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>3</v>
@@ -2388,533 +2409,543 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B24" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="B25" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>22</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>23</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="A29" s="14">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>22</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>24</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>24</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="A33" s="14">
+        <v>22</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>22</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>22</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>22</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>22</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>24</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="A39" s="14">
+        <v>22</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>24</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="A40" s="14">
+        <v>22</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>22</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>22</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="A43" s="14">
+        <v>22</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>25</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>22</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>22</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>22</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>22</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
+        <v>375</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="F48" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="18" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>33</v>
@@ -2925,41 +2956,41 @@
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="18" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="18" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>4</v>
@@ -2967,20 +2998,20 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>4</v>
@@ -2988,38 +3019,38 @@
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="18" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>271</v>
+        <v>433</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="18" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>33</v>
@@ -3028,19 +3059,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="18" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>33</v>
@@ -3051,20 +3082,20 @@
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="18" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>4</v>
@@ -3072,20 +3103,20 @@
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="18" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>4</v>
@@ -3093,17 +3124,17 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="18" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>33</v>
@@ -3112,43 +3143,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="18" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="18" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>4</v>
@@ -3156,17 +3187,17 @@
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="18" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>33</v>
@@ -3175,19 +3206,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="18" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>33</v>
@@ -3196,19 +3227,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>33</v>
@@ -3217,19 +3248,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="18" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>33</v>
@@ -3238,19 +3269,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="18" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>33</v>
@@ -3259,19 +3290,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="18" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>33</v>
@@ -3280,19 +3311,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="18" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>33</v>
@@ -3301,19 +3332,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="18" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>33</v>
@@ -3324,17 +3355,17 @@
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="18" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>33</v>
@@ -3343,19 +3374,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="18" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>33</v>
@@ -3364,19 +3395,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="18" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>33</v>
@@ -3387,17 +3418,17 @@
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="18" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>33</v>
@@ -3408,17 +3439,17 @@
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="18" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>33</v>
@@ -3429,17 +3460,17 @@
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="18" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>33</v>
@@ -3450,17 +3481,17 @@
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>33</v>
@@ -3471,17 +3502,17 @@
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="18" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>33</v>
@@ -3490,19 +3521,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="18" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>33</v>
@@ -3513,17 +3544,17 @@
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="18" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>33</v>
@@ -3532,19 +3563,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="18" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>33</v>
@@ -3555,17 +3586,17 @@
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="18" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>33</v>
@@ -3574,19 +3605,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="18" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>33</v>
@@ -3595,19 +3626,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="18" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>33</v>
@@ -3618,17 +3649,17 @@
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="18" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>33</v>
@@ -3637,19 +3668,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="18" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>33</v>
@@ -3658,19 +3689,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="18" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>33</v>
@@ -3681,17 +3712,17 @@
     </row>
     <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="18" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>33</v>
@@ -3702,17 +3733,17 @@
     </row>
     <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="18" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>33</v>
@@ -3721,19 +3752,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="18" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>33</v>
@@ -3742,19 +3773,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="18" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>33</v>
@@ -3765,17 +3796,17 @@
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="18" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>33</v>
@@ -3784,19 +3815,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="18" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>33</v>
@@ -3805,19 +3836,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="18" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>33</v>
@@ -3828,17 +3859,17 @@
     </row>
     <row r="93" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="18" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>33</v>
@@ -3849,17 +3880,17 @@
     </row>
     <row r="94" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="18" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>33</v>
@@ -3870,17 +3901,17 @@
     </row>
     <row r="95" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="18" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>33</v>
@@ -3891,17 +3922,17 @@
     </row>
     <row r="96" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="18" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>33</v>
@@ -3910,19 +3941,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="18" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>33</v>
@@ -3931,19 +3962,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="18" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>33</v>
@@ -3954,17 +3985,17 @@
     </row>
     <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="18" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>33</v>
@@ -3973,19 +4004,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="18" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>33</v>
@@ -3994,19 +4025,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="18" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>33</v>
@@ -4015,19 +4046,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="18" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>33</v>
@@ -4036,19 +4067,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="18" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>33</v>
@@ -4057,19 +4088,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="18" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>33</v>
@@ -4080,17 +4111,17 @@
     </row>
     <row r="105" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="18" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>33</v>
@@ -4099,19 +4130,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="18" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>33</v>
@@ -4120,19 +4151,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="18" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>33</v>
@@ -4141,19 +4172,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="18" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>33</v>
@@ -4164,17 +4195,17 @@
     </row>
     <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="18" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>33</v>
@@ -4185,17 +4216,17 @@
     </row>
     <row r="110" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="18" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>33</v>
@@ -4204,19 +4235,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="18" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>33</v>
@@ -4227,17 +4258,17 @@
     </row>
     <row r="112" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="18" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>33</v>
@@ -4246,19 +4277,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="18" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>33</v>
@@ -4267,19 +4298,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="18" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>33</v>
@@ -4288,481 +4319,481 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
-        <v>26</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
-        <v>26</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D116" s="17"/>
-      <c r="E116" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
-        <v>26</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
-        <v>26</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" s="15" t="s">
+    <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>30</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>31</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>31</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>31</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
-        <v>26</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
-        <v>26</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" s="15" t="s">
+      <c r="A119">
+        <v>31</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>31</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
-        <v>26</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
-        <v>26</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
-        <v>26</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
-        <v>26</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
-        <v>26</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
-        <v>26</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
-        <v>26</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
-        <v>26</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
-        <v>26</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G129" s="15" t="s">
+      <c r="A121">
+        <v>31</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>31</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>31</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>40</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>41</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>41</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>41</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
-        <v>26</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
-        <v>26</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G131" s="15" t="s">
+      <c r="A130">
+        <v>41</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>41</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
-        <v>26</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
-        <v>26</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
-        <v>26</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="D134" s="17"/>
-      <c r="E134" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
-        <v>26</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="D135" s="17"/>
-      <c r="E135" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
-        <v>26</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>41</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>41</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>41</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>41</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>41</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="8" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>3</v>
@@ -4772,63 +4803,65 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>31</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D138" s="11"/>
-      <c r="E138" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>51</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>11</v>
+        <v>251</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>31</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D140" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E140" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>4</v>
@@ -4836,377 +4869,365 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="11"/>
-      <c r="E141" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>31</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D145" s="11"/>
-      <c r="E145" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>162</v>
+        <v>231</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F145" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>31</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D147" s="11"/>
-      <c r="E147" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D149" s="11"/>
-      <c r="E149" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
-        <v>40</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D150" s="10"/>
-      <c r="E150" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>52</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="8" t="s">
+      <c r="B150" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" s="11"/>
-      <c r="E151" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>53</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>100</v>
+      </c>
+      <c r="B154" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D152" s="11"/>
-      <c r="E152" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>41</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C154" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D153" s="11"/>
-      <c r="E153" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>41</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D154" s="11"/>
-      <c r="E154" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="D154" s="10"/>
+      <c r="E154" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F155" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F156" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F157" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="3" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>4</v>
@@ -5214,41 +5235,41 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>4</v>
@@ -5256,83 +5277,83 @@
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F161" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="7">
-        <v>50</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D163" s="10"/>
-      <c r="E163" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>4</v>
+      <c r="A163">
+        <v>101</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="3" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>4</v>
@@ -5340,17 +5361,17 @@
     </row>
     <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>11</v>
@@ -5359,61 +5380,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F166" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>110</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D167" s="11"/>
-      <c r="E167" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F167" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="3" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>11</v>
@@ -5424,80 +5445,80 @@
     </row>
     <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F170" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="3" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
@@ -5508,80 +5529,80 @@
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>51</v>
-      </c>
-      <c r="B174" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="23" t="s">
-        <v>176</v>
+      <c r="C174" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="3" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
-        <v>60</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>4</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>111</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>11</v>
@@ -5590,19 +5611,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>11</v>
@@ -5611,61 +5632,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>61</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>211</v>
+        <v>111</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="3" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>61</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="A179" s="7">
+        <v>120</v>
+      </c>
+      <c r="B179" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C179" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D179" s="11"/>
-      <c r="E179" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179" s="3" t="s">
+      <c r="C179" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D179" s="10"/>
+      <c r="E179" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>11</v>
@@ -5674,19 +5695,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
@@ -5695,40 +5716,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
-        <v>70</v>
-      </c>
-      <c r="B182" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D182" s="10"/>
-      <c r="E182" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G182" s="8" t="s">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>121</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D182" s="11"/>
+      <c r="E182" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="3" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>8</v>
@@ -5737,106 +5758,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F184" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F185" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>200</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" s="10"/>
+      <c r="E186" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F186" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D187" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E187" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>4</v>
@@ -5844,100 +5867,102 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>317</v>
+        <v>48</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D190" s="12"/>
-      <c r="E190" s="5" t="s">
-        <v>318</v>
+        <v>53</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D191" s="12"/>
-      <c r="E191" s="5" t="s">
-        <v>319</v>
+        <v>207</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="D193" s="12"/>
+        <v>426</v>
+      </c>
       <c r="E193" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>8</v>
@@ -5948,17 +5973,17 @@
     </row>
     <row r="194" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D194" s="12"/>
       <c r="E194" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>8</v>
@@ -5967,19 +5992,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D195" s="12"/>
       <c r="E195" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>8</v>
@@ -5988,19 +6013,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>8</v>
@@ -6011,17 +6036,17 @@
     </row>
     <row r="197" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D197" s="12"/>
       <c r="E197" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>8</v>
@@ -6032,20 +6057,20 @@
     </row>
     <row r="198" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>162</v>
@@ -6053,20 +6078,20 @@
     </row>
     <row r="199" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D199" s="12"/>
       <c r="E199" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>162</v>
@@ -6074,41 +6099,41 @@
     </row>
     <row r="200" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D201" s="12"/>
       <c r="E201" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>162</v>
@@ -6116,17 +6141,17 @@
     </row>
     <row r="202" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>33</v>
@@ -6137,17 +6162,17 @@
     </row>
     <row r="203" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>33</v>
@@ -6156,19 +6181,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D204" s="12"/>
       <c r="E204" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>33</v>
@@ -6179,17 +6204,17 @@
     </row>
     <row r="205" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D205" s="12"/>
       <c r="E205" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>33</v>
@@ -6198,19 +6223,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>33</v>
@@ -6221,17 +6246,17 @@
     </row>
     <row r="207" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D207" s="12"/>
       <c r="E207" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>33</v>
@@ -6240,19 +6265,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D208" s="12"/>
       <c r="E208" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>33</v>
@@ -6261,19 +6286,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D209" s="12"/>
       <c r="E209" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>33</v>
@@ -6282,19 +6307,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>33</v>
@@ -6303,19 +6328,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>33</v>
@@ -6324,19 +6349,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>33</v>
@@ -6345,19 +6370,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>33</v>
@@ -6366,21 +6391,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>438</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D214" s="12"/>
       <c r="E214" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>33</v>
@@ -6391,62 +6414,62 @@
     </row>
     <row r="215" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>162</v>
@@ -6454,38 +6477,40 @@
     </row>
     <row r="218" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D218" s="12"/>
+        <v>436</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="E218" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>8</v>
@@ -6494,22 +6519,22 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>162</v>
@@ -6517,59 +6542,59 @@
     </row>
     <row r="221" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>8</v>
@@ -6578,82 +6603,82 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>8</v>
@@ -6662,19 +6687,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>8</v>
@@ -6685,17 +6710,17 @@
     </row>
     <row r="229" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>8</v>
@@ -6704,19 +6729,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>8</v>
@@ -6727,17 +6752,17 @@
     </row>
     <row r="231" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>8</v>
@@ -6748,17 +6773,17 @@
     </row>
     <row r="232" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>8</v>
@@ -6769,17 +6794,17 @@
     </row>
     <row r="233" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>8</v>
@@ -6788,19 +6813,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="5" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>8</v>
@@ -6809,19 +6834,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>8</v>
@@ -6830,19 +6855,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>8</v>
@@ -6851,19 +6876,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
@@ -6872,19 +6897,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
@@ -6895,17 +6920,17 @@
     </row>
     <row r="239" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -6914,19 +6939,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>8</v>
@@ -6937,17 +6962,17 @@
     </row>
     <row r="241" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>8</v>
@@ -6958,104 +6983,104 @@
     </row>
     <row r="242" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D242" s="11"/>
-      <c r="E242" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F242" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D242" s="12"/>
+      <c r="E242" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F242" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D243" s="11"/>
-      <c r="E243" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F243" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D243" s="12"/>
+      <c r="E243" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G243" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D244" s="11"/>
-      <c r="E244" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="D244" s="12"/>
+      <c r="E244" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D245" s="11"/>
-      <c r="E245" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>4</v>
+        <v>425</v>
+      </c>
+      <c r="D245" s="12"/>
+      <c r="E245" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D246" s="11"/>
       <c r="E246" s="3" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>4</v>
@@ -7063,169 +7088,169 @@
     </row>
     <row r="247" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D247" s="11"/>
       <c r="E247" s="3" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
-        <v>100</v>
-      </c>
-      <c r="B248" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C248" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E248" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G248" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>201</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C248" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D248" s="11"/>
+      <c r="E248" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>101</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C249" s="23" t="s">
-        <v>179</v>
+        <v>201</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C249" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D249" s="11"/>
       <c r="E249" s="3" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>110</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C250" s="21" t="s">
-        <v>97</v>
+        <v>201</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="D250" s="11"/>
       <c r="E250" s="3" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D251" s="11"/>
       <c r="E251" s="3" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G251" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7">
+        <v>320</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G252" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>111</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C252" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D252" s="11"/>
-      <c r="E252" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>111</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>145</v>
+        <v>321</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="3" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>111</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>140</v>
+        <v>322</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>168</v>
@@ -7233,41 +7258,41 @@
     </row>
     <row r="255" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>111</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C256" s="20" t="s">
-        <v>48</v>
+        <v>322</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>168</v>
@@ -7275,22 +7300,20 @@
     </row>
     <row r="257" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D257" s="11"/>
       <c r="E257" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>168</v>
@@ -7298,82 +7321,80 @@
     </row>
     <row r="258" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D258" s="11"/>
       <c r="E258" s="3" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
-        <v>200</v>
-      </c>
-      <c r="B259" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" s="8" t="s">
+      <c r="A259">
+        <v>322</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D259" s="11"/>
+      <c r="E259" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>201</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>180</v>
+        <v>322</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" s="13" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="3" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>3</v>
@@ -7382,61 +7403,61 @@
         <v>168</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>211</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>179</v>
+        <v>323</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>11</v>
@@ -7445,19 +7466,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>11</v>
@@ -7468,17 +7489,17 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>11</v>
@@ -7489,83 +7510,85 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>220</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C268" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D268" s="11"/>
-      <c r="E268" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F268" s="4" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
+        <v>330</v>
+      </c>
+      <c r="B268" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F268" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="G268" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>221</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>98</v>
+        <v>331</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>221</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>100</v>
+        <v>332</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>168</v>
@@ -7573,41 +7596,41 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>221</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>48</v>
+        <v>332</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>168</v>
@@ -7615,17 +7638,17 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>11</v>
@@ -7636,106 +7659,106 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="7">
-        <v>300</v>
-      </c>
-      <c r="B275" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D275" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E275" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G275" s="8" t="s">
+      <c r="A275">
+        <v>332</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D275" s="11"/>
+      <c r="E275" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G275" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>301</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>180</v>
+        <v>332</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>310</v>
-      </c>
-      <c r="B277" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277" s="11"/>
+      <c r="C277" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E277" s="3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>311</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>87</v>
+        <v>333</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>168</v>
@@ -7743,17 +7766,17 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>11</v>
@@ -7764,17 +7787,17 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>11</v>
@@ -7785,17 +7808,17 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>11</v>
@@ -7806,17 +7829,17 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>11</v>
@@ -7827,127 +7850,127 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D283" s="11"/>
       <c r="E283" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>319</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>179</v>
+        <v>333</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C284" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>320</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D285" s="11"/>
-      <c r="E285" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F285" s="4" t="s">
+    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
+        <v>340</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F285" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G285" s="3" t="s">
+      <c r="G285" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>321</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C286" s="20" t="s">
-        <v>98</v>
+        <v>341</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>321</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C287" s="20" t="s">
-        <v>100</v>
+        <v>342</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C287" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F287" s="4" t="s">
-        <v>11</v>
+        <v>112</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>168</v>
@@ -7955,17 +7978,17 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>11</v>
@@ -7976,17 +7999,17 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>11</v>
@@ -7997,61 +8020,59 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="7">
-        <v>400</v>
-      </c>
-      <c r="B292" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D292" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E292" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G292" s="8" t="s">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>343</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" s="11"/>
+      <c r="E292" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G292" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>6</v>
@@ -8060,22 +8081,22 @@
         <v>168</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>410</v>
-      </c>
-      <c r="B294" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C294" s="21" t="s">
-        <v>111</v>
+      <c r="C294" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>3</v>
+        <v>123</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>168</v>
@@ -8083,17 +8104,17 @@
     </row>
     <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>39</v>
@@ -8102,64 +8123,64 @@
         <v>168</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>411</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>116</v>
+        <v>344</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C296" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>411</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C297" s="20" t="s">
-        <v>118</v>
+        <v>345</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>11</v>
+        <v>127</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D298" s="11"/>
       <c r="E298" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>168</v>
@@ -8167,104 +8188,104 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F299" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F299" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>411</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C301" s="20" t="s">
-        <v>124</v>
+        <v>346</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C301" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D301" s="11"/>
       <c r="E301" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>39</v>
+        <v>135</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>419</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>178</v>
+        <v>347</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F302" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>420</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C303" s="21" t="s">
-        <v>126</v>
+        <v>347</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>168</v>
@@ -8272,19 +8293,19 @@
     </row>
     <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F304" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F304" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G304" s="3" t="s">
@@ -8293,17 +8314,17 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>11</v>
@@ -8312,85 +8333,87 @@
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>39</v>
+        <v>159</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>429</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C307" s="23" t="s">
-        <v>177</v>
+        <v>347</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>430</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C308" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D308" s="11"/>
-      <c r="E308" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F308" s="3" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="7">
+        <v>350</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F308" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G308" s="3" t="s">
+      <c r="G308" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>431</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C309" s="20" t="s">
-        <v>136</v>
+        <v>351</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C309" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D309" s="11"/>
       <c r="E309" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>11</v>
+        <v>147</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>168</v>
@@ -8398,41 +8421,41 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F310" s="3" t="s">
-        <v>11</v>
+        <v>148</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>39</v>
+        <v>149</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>168</v>
@@ -8440,78 +8463,152 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>431</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C313" s="20" t="s">
-        <v>57</v>
+        <v>352</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>8</v>
+        <v>151</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>431</v>
+        <v>352</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D314" s="11"/>
       <c r="E314" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>39</v>
+        <v>141</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C315" s="20"/>
+      <c r="A315">
+        <v>352</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C315" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D315" s="11"/>
+      <c r="E315" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C316" s="20"/>
+      <c r="A316">
+        <v>352</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D316" s="11"/>
+      <c r="E316" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C317" s="20"/>
+      <c r="A317">
+        <v>352</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C318" s="20"/>
+      <c r="A318">
+        <v>352</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="11"/>
+      <c r="E318" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C319" s="20"/>
@@ -8612,10 +8709,22 @@
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="20"/>
     </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="20"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="20"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="20"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="20"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G351">
-    <sortCondition ref="A2:A351"/>
-    <sortCondition ref="C2:C351"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G357">
+    <sortCondition ref="A2:A357"/>
+    <sortCondition ref="C2:C357"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A7659-E537-48F4-97F1-9E229CC2FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFA9EC-8CC7-46BB-A7BD-DEC493A279C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$362</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="462">
   <si>
     <t>opt</t>
   </si>
@@ -1375,6 +1375,54 @@
   </si>
   <si>
     <t>Improves the readability of the JSON file</t>
+  </si>
+  <si>
+    <t>container for headings</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>jsonInclFonts</t>
+  </si>
+  <si>
+    <t>jsonInclConfig</t>
+  </si>
+  <si>
+    <t>jsonInclParams</t>
+  </si>
+  <si>
+    <t>jsonInclHeading</t>
+  </si>
+  <si>
+    <t>jsonInclListBullet</t>
+  </si>
+  <si>
+    <t>jsonInclListNumber</t>
+  </si>
+  <si>
+    <t>jsonInclTable</t>
+  </si>
+  <si>
+    <t>include the configuration data in the JSON file</t>
+  </si>
+  <si>
+    <t>include the table data in the JSON file</t>
+  </si>
+  <si>
+    <t>include the parameters in the JSON file</t>
+  </si>
+  <si>
+    <t>include the numbered list data in the JSON file</t>
+  </si>
+  <si>
+    <t>include the bulleted list data in the JSON file</t>
+  </si>
+  <si>
+    <t>include the heading data in the JSON file</t>
+  </si>
+  <si>
+    <t>include the font data in the JSON file</t>
   </si>
 </sst>
 </file>
@@ -1879,13 +1927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2135,9 @@
       <c r="C9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>173</v>
       </c>
@@ -2397,7 +2447,9 @@
       <c r="C23" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>254</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>262</v>
       </c>
@@ -2408,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -2416,17 +2468,17 @@
         <v>263</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="15" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2437,14 +2489,14 @@
         <v>263</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="15" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>4</v>
@@ -2452,20 +2504,20 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>264</v>
+        <v>451</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="15" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>4</v>
@@ -2473,17 +2525,17 @@
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18" t="s">
-        <v>284</v>
+        <v>452</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
+        <v>459</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>33</v>
@@ -2494,41 +2546,41 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18" t="s">
-        <v>285</v>
+        <v>453</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18" t="s">
-        <v>286</v>
+        <v>450</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>4</v>
@@ -2536,68 +2588,68 @@
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18" t="s">
-        <v>287</v>
+        <v>454</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>456</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18" t="s">
-        <v>288</v>
+        <v>441</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15" t="s">
+        <v>443</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18" t="s">
-        <v>289</v>
+        <v>442</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>22</v>
       </c>
@@ -2605,14 +2657,14 @@
         <v>263</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
-        <v>289</v>
+        <v>264</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>4</v>
@@ -2626,14 +2678,14 @@
         <v>263</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="18" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>4</v>
@@ -2647,11 +2699,11 @@
         <v>263</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="18" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>11</v>
@@ -2660,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>22</v>
       </c>
@@ -2668,14 +2720,14 @@
         <v>263</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="18" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>4</v>
@@ -2689,11 +2741,11 @@
         <v>263</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="18" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -2710,11 +2762,11 @@
         <v>263</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="18" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -2723,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>22</v>
       </c>
@@ -2731,11 +2783,11 @@
         <v>263</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="18" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>33</v>
@@ -2744,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>22</v>
       </c>
@@ -2752,11 +2804,11 @@
         <v>263</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>33</v>
@@ -2765,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>22</v>
       </c>
@@ -2773,20 +2825,20 @@
         <v>263</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>22</v>
       </c>
@@ -2794,14 +2846,14 @@
         <v>263</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="18" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>4</v>
@@ -2815,11 +2867,11 @@
         <v>263</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="18" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>33</v>
@@ -2836,20 +2888,20 @@
         <v>263</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="18" t="s">
         <v>293</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>22</v>
       </c>
@@ -2857,20 +2909,20 @@
         <v>263</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>22</v>
       </c>
@@ -2878,11 +2930,11 @@
         <v>263</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>33</v>
@@ -2899,11 +2951,11 @@
         <v>263</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>33</v>
@@ -2912,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>22</v>
       </c>
@@ -2920,11 +2972,11 @@
         <v>263</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="18" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>33</v>
@@ -2941,11 +2993,11 @@
         <v>263</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="18" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>33</v>
@@ -2962,11 +3014,11 @@
         <v>263</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>33</v>
@@ -2983,11 +3035,11 @@
         <v>263</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="18" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>33</v>
@@ -2996,7 +3048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>22</v>
       </c>
@@ -3004,11 +3056,11 @@
         <v>263</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>33</v>
@@ -3017,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>22</v>
       </c>
@@ -3025,11 +3077,11 @@
         <v>263</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="18" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>33</v>
@@ -3046,11 +3098,11 @@
         <v>263</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="18" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>33</v>
@@ -3067,11 +3119,11 @@
         <v>263</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>33</v>
@@ -3080,7 +3132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>22</v>
       </c>
@@ -3088,11 +3140,11 @@
         <v>263</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="18" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>33</v>
@@ -3109,11 +3161,11 @@
         <v>263</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="18" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>33</v>
@@ -3130,11 +3182,11 @@
         <v>263</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>33</v>
@@ -3143,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>22</v>
       </c>
@@ -3151,11 +3203,11 @@
         <v>263</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="18" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>33</v>
@@ -3164,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>22</v>
       </c>
@@ -3172,11 +3224,11 @@
         <v>263</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="18" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>33</v>
@@ -3193,11 +3245,11 @@
         <v>263</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="18" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>33</v>
@@ -3206,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>22</v>
       </c>
@@ -3214,11 +3266,11 @@
         <v>263</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="18" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>33</v>
@@ -3235,11 +3287,11 @@
         <v>263</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>33</v>
@@ -3248,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>22</v>
       </c>
@@ -3256,11 +3308,11 @@
         <v>263</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="18" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>33</v>
@@ -3269,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>22</v>
       </c>
@@ -3277,11 +3329,11 @@
         <v>263</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="18" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>33</v>
@@ -3298,11 +3350,11 @@
         <v>263</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="18" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>33</v>
@@ -3311,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>22</v>
       </c>
@@ -3319,11 +3371,11 @@
         <v>263</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="18" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>33</v>
@@ -3340,11 +3392,11 @@
         <v>263</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="18" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>33</v>
@@ -3353,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>22</v>
       </c>
@@ -3361,11 +3413,11 @@
         <v>263</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="18" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>33</v>
@@ -3374,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>22</v>
       </c>
@@ -3382,11 +3434,11 @@
         <v>263</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="18" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>33</v>
@@ -3395,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>22</v>
       </c>
@@ -3403,11 +3455,11 @@
         <v>263</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="18" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>33</v>
@@ -3416,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>22</v>
       </c>
@@ -3424,11 +3476,11 @@
         <v>263</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="18" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>33</v>
@@ -3437,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>22</v>
       </c>
@@ -3445,11 +3497,11 @@
         <v>263</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="18" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>33</v>
@@ -3466,11 +3518,11 @@
         <v>263</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="18" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>33</v>
@@ -3487,11 +3539,11 @@
         <v>263</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="18" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>33</v>
@@ -3508,11 +3560,11 @@
         <v>263</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="18" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>33</v>
@@ -3521,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>22</v>
       </c>
@@ -3529,11 +3581,11 @@
         <v>263</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>33</v>
@@ -3550,11 +3602,11 @@
         <v>263</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="18" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>33</v>
@@ -3563,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>22</v>
       </c>
@@ -3571,11 +3623,11 @@
         <v>263</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="18" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>33</v>
@@ -3592,11 +3644,11 @@
         <v>263</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="18" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>33</v>
@@ -3613,11 +3665,11 @@
         <v>263</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>33</v>
@@ -3634,11 +3686,11 @@
         <v>263</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="18" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>33</v>
@@ -3655,11 +3707,11 @@
         <v>263</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="18" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>33</v>
@@ -3668,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>22</v>
       </c>
@@ -3676,11 +3728,11 @@
         <v>263</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="18" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>33</v>
@@ -3697,11 +3749,11 @@
         <v>263</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>33</v>
@@ -3710,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>22</v>
       </c>
@@ -3718,11 +3770,11 @@
         <v>263</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>33</v>
@@ -3731,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>22</v>
       </c>
@@ -3739,11 +3791,11 @@
         <v>263</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>33</v>
@@ -3752,7 +3804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>22</v>
       </c>
@@ -3760,11 +3812,11 @@
         <v>263</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>33</v>
@@ -3773,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>22</v>
       </c>
@@ -3781,11 +3833,11 @@
         <v>263</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="18" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>33</v>
@@ -3794,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>22</v>
       </c>
@@ -3802,11 +3854,11 @@
         <v>263</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="18" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>33</v>
@@ -3815,7 +3867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>22</v>
       </c>
@@ -3823,11 +3875,11 @@
         <v>263</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>33</v>
@@ -3836,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>22</v>
       </c>
@@ -3844,11 +3896,11 @@
         <v>263</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>33</v>
@@ -3857,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>22</v>
       </c>
@@ -3865,11 +3917,11 @@
         <v>263</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>33</v>
@@ -3878,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>22</v>
       </c>
@@ -3886,11 +3938,11 @@
         <v>263</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="18" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>33</v>
@@ -3907,11 +3959,11 @@
         <v>263</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>33</v>
@@ -3920,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>22</v>
       </c>
@@ -3928,11 +3980,11 @@
         <v>263</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>33</v>
@@ -3941,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>22</v>
       </c>
@@ -3949,11 +4001,11 @@
         <v>263</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>33</v>
@@ -3962,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>22</v>
       </c>
@@ -3970,11 +4022,11 @@
         <v>263</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>33</v>
@@ -3983,7 +4035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>22</v>
       </c>
@@ -3991,11 +4043,11 @@
         <v>263</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>33</v>
@@ -4004,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>22</v>
       </c>
@@ -4012,11 +4064,11 @@
         <v>263</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>33</v>
@@ -4033,11 +4085,11 @@
         <v>263</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>33</v>
@@ -4046,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>22</v>
       </c>
@@ -4054,11 +4106,11 @@
         <v>263</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>33</v>
@@ -4067,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>22</v>
       </c>
@@ -4075,11 +4127,11 @@
         <v>263</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>33</v>
@@ -4088,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>22</v>
       </c>
@@ -4096,11 +4148,11 @@
         <v>263</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>33</v>
@@ -4109,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>22</v>
       </c>
@@ -4117,11 +4169,11 @@
         <v>263</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>33</v>
@@ -4130,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>22</v>
       </c>
@@ -4138,11 +4190,11 @@
         <v>263</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>33</v>
@@ -4159,11 +4211,11 @@
         <v>263</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>33</v>
@@ -4180,11 +4232,11 @@
         <v>263</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>33</v>
@@ -4193,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>22</v>
       </c>
@@ -4201,11 +4253,11 @@
         <v>263</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>33</v>
@@ -4214,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>22</v>
       </c>
@@ -4222,11 +4274,11 @@
         <v>263</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="18" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>33</v>
@@ -4235,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>22</v>
       </c>
@@ -4243,11 +4295,11 @@
         <v>263</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="18" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>33</v>
@@ -4264,11 +4316,11 @@
         <v>263</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="18" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>33</v>
@@ -4277,7 +4329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>22</v>
       </c>
@@ -4285,11 +4337,11 @@
         <v>263</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="18" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>33</v>
@@ -4298,7 +4350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>22</v>
       </c>
@@ -4306,184 +4358,186 @@
         <v>263</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>22</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>22</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>22</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>22</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>22</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>22</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>22</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="F114" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="F121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
         <v>30</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B122" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C122" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="10"/>
-      <c r="E115" s="8" t="s">
+      <c r="D122" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>31</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>31</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>31</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>31</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>31</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>31</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>31</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4495,56 +4549,56 @@
         <v>30</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
-        <v>40</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G124" s="8" t="s">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="3" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>4</v>
@@ -4552,41 +4606,41 @@
     </row>
     <row r="126" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="3" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>41</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>175</v>
+        <v>31</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>4</v>
@@ -4594,89 +4648,89 @@
     </row>
     <row r="128" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="3" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>41</v>
-      </c>
-      <c r="B131" s="6" t="s">
+    <row r="131" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>40</v>
+      </c>
+      <c r="B131" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C131" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D131" s="11"/>
-      <c r="E131" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C131" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>41</v>
       </c>
@@ -4684,20 +4738,20 @@
         <v>45</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>41</v>
       </c>
@@ -4705,17 +4759,17 @@
         <v>45</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -4726,17 +4780,17 @@
         <v>45</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="3" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4747,11 +4801,11 @@
         <v>45</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="3" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>11</v>
@@ -4760,7 +4814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>41</v>
       </c>
@@ -4768,11 +4822,11 @@
         <v>45</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>11</v>
@@ -4781,193 +4835,198 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
-        <v>50</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="D137" s="10"/>
-      <c r="E137" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
-        <v>51</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>41</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>41</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>8</v>
+        <v>199</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>41</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>41</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>41</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>50</v>
+      </c>
+      <c r="B144" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D140" s="11" t="s">
+      <c r="C144" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>52</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="E144" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
+        <v>51</v>
+      </c>
+      <c r="B145" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>52</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F142" t="s">
-        <v>8</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>52</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F143" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>52</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>52</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F145" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C145" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" s="16"/>
+      <c r="E145" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>52</v>
       </c>
@@ -4975,19 +5034,20 @@
         <v>435</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F146" t="s">
-        <v>33</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>52</v>
       </c>
@@ -4995,19 +5055,22 @@
         <v>435</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F147" t="s">
-        <v>33</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>52</v>
       </c>
@@ -5015,19 +5078,19 @@
         <v>435</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>52</v>
       </c>
@@ -5035,19 +5098,19 @@
         <v>435</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>52</v>
       </c>
@@ -5055,13 +5118,13 @@
         <v>435</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>4</v>
@@ -5075,19 +5138,19 @@
         <v>435</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>52</v>
       </c>
@@ -5095,205 +5158,198 @@
         <v>435</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
-        <v>53</v>
-      </c>
-      <c r="B153" s="15" t="s">
+      <c r="A153">
+        <v>52</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D153" s="16"/>
-      <c r="E153" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
-        <v>100</v>
-      </c>
-      <c r="B154" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D154" s="10"/>
-      <c r="E154" s="8" t="s">
+      <c r="C153" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>52</v>
       </c>
-      <c r="F154" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="11"/>
-      <c r="E155" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D156" s="11"/>
-      <c r="E156" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F156" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G158" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F158" t="s">
+        <v>33</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>53</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>100</v>
+      </c>
+      <c r="B161" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>101</v>
-      </c>
-      <c r="B160" s="3" t="s">
+      <c r="C161" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>101</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D161" s="11"/>
-      <c r="E161" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>162</v>
+      <c r="D161" s="10"/>
+      <c r="E161" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5304,14 +5360,14 @@
         <v>58</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>4</v>
@@ -5325,20 +5381,20 @@
         <v>58</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>101</v>
       </c>
@@ -5346,14 +5402,14 @@
         <v>58</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>4</v>
@@ -5367,20 +5423,20 @@
         <v>58</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>101</v>
       </c>
@@ -5388,77 +5444,77 @@
         <v>58</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F166" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
-        <v>110</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G167" s="8" t="s">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>101</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F168" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="3" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>4</v>
@@ -5466,59 +5522,59 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>11</v>
+        <v>161</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
@@ -5529,44 +5585,44 @@
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>111</v>
-      </c>
-      <c r="B174" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>110</v>
+      </c>
+      <c r="B174" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>162</v>
+      <c r="C174" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5577,17 +5633,17 @@
         <v>50</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="3" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5598,11 +5654,11 @@
         <v>50</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>11</v>
@@ -5611,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>111</v>
       </c>
@@ -5619,140 +5675,140 @@
         <v>50</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F177" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>111</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C178" s="23" t="s">
-        <v>176</v>
+      <c r="C178" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
-        <v>120</v>
-      </c>
-      <c r="B179" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G179" s="8" t="s">
+      <c r="A179">
+        <v>111</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="11"/>
+      <c r="E179" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>4</v>
@@ -5760,17 +5816,17 @@
     </row>
     <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>11</v>
@@ -5779,22 +5835,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>121</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>185</v>
+        <v>111</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="3" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>4</v>
@@ -5802,17 +5858,17 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="8" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>3</v>
@@ -5821,24 +5877,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D187" s="11"/>
       <c r="E187" s="3" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>4</v>
@@ -5846,62 +5900,62 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F188" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F189" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>11</v>
+        <v>167</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>4</v>
@@ -5909,69 +5963,68 @@
     </row>
     <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F191" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>200</v>
+      </c>
+      <c r="B193" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C192" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>201</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C193" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D193" s="10"/>
+      <c r="E193" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>201</v>
       </c>
@@ -5979,20 +6032,22 @@
         <v>70</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F194" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G194" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>201</v>
       </c>
@@ -6000,20 +6055,20 @@
         <v>70</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D195" s="12"/>
-      <c r="E195" s="5" t="s">
-        <v>318</v>
+        <v>60</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>201</v>
       </c>
@@ -6021,20 +6076,20 @@
         <v>70</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="5" t="s">
-        <v>319</v>
+        <v>48</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>201</v>
       </c>
@@ -6042,20 +6097,20 @@
         <v>70</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="D197" s="12"/>
-      <c r="E197" s="5" t="s">
-        <v>320</v>
+        <v>53</v>
+      </c>
+      <c r="D197" s="11"/>
+      <c r="E197" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>201</v>
       </c>
@@ -6063,20 +6118,20 @@
         <v>70</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="D198" s="12"/>
-      <c r="E198" s="5" t="s">
-        <v>321</v>
+        <v>207</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G198" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>201</v>
       </c>
@@ -6084,20 +6139,22 @@
         <v>70</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D199" s="12"/>
-      <c r="E199" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>201</v>
       </c>
@@ -6105,11 +6162,10 @@
         <v>70</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D200" s="12"/>
+        <v>426</v>
+      </c>
       <c r="E200" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>8</v>
@@ -6118,7 +6174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -6126,11 +6182,11 @@
         <v>70</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D201" s="12"/>
       <c r="E201" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>8</v>
@@ -6139,7 +6195,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6147,20 +6203,20 @@
         <v>70</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6168,20 +6224,20 @@
         <v>70</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201</v>
       </c>
@@ -6189,14 +6245,14 @@
         <v>70</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D204" s="12"/>
       <c r="E204" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>162</v>
@@ -6210,14 +6266,14 @@
         <v>70</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D205" s="12"/>
       <c r="E205" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>162</v>
@@ -6231,14 +6287,14 @@
         <v>70</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>162</v>
@@ -6252,20 +6308,20 @@
         <v>70</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D207" s="12"/>
       <c r="E207" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>201</v>
       </c>
@@ -6273,14 +6329,14 @@
         <v>70</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D208" s="12"/>
       <c r="E208" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>162</v>
@@ -6294,11 +6350,11 @@
         <v>70</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D209" s="12"/>
       <c r="E209" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>33</v>
@@ -6307,7 +6363,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201</v>
       </c>
@@ -6315,11 +6371,11 @@
         <v>70</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>33</v>
@@ -6336,11 +6392,11 @@
         <v>70</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>33</v>
@@ -6357,11 +6413,11 @@
         <v>70</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>33</v>
@@ -6370,7 +6426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201</v>
       </c>
@@ -6378,11 +6434,11 @@
         <v>70</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>33</v>
@@ -6391,7 +6447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201</v>
       </c>
@@ -6399,11 +6455,11 @@
         <v>70</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>33</v>
@@ -6412,7 +6468,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201</v>
       </c>
@@ -6420,11 +6476,11 @@
         <v>70</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>33</v>
@@ -6433,7 +6489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>201</v>
       </c>
@@ -6441,11 +6497,11 @@
         <v>70</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>33</v>
@@ -6454,7 +6510,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201</v>
       </c>
@@ -6462,11 +6518,11 @@
         <v>70</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>33</v>
@@ -6475,7 +6531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>201</v>
       </c>
@@ -6483,13 +6539,11 @@
         <v>70</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>437</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D218" s="12"/>
       <c r="E218" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>33</v>
@@ -6498,7 +6552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201</v>
       </c>
@@ -6506,20 +6560,20 @@
         <v>70</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>201</v>
       </c>
@@ -6527,14 +6581,14 @@
         <v>70</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>162</v>
@@ -6548,20 +6602,20 @@
         <v>70</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>201</v>
       </c>
@@ -6569,20 +6623,20 @@
         <v>70</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>201</v>
       </c>
@@ -6590,20 +6644,20 @@
         <v>70</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201</v>
       </c>
@@ -6611,11 +6665,11 @@
         <v>70</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>33</v>
@@ -6624,7 +6678,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>201</v>
       </c>
@@ -6632,11 +6686,13 @@
         <v>70</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D225" s="12"/>
+        <v>436</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="E225" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>33</v>
@@ -6653,20 +6709,20 @@
         <v>70</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>201</v>
       </c>
@@ -6674,11 +6730,11 @@
         <v>70</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>8</v>
@@ -6687,7 +6743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201</v>
       </c>
@@ -6695,11 +6751,11 @@
         <v>70</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>8</v>
@@ -6708,7 +6764,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>201</v>
       </c>
@@ -6716,11 +6772,11 @@
         <v>70</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>8</v>
@@ -6729,7 +6785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>201</v>
       </c>
@@ -6737,11 +6793,11 @@
         <v>70</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>8</v>
@@ -6750,7 +6806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>201</v>
       </c>
@@ -6758,14 +6814,14 @@
         <v>70</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>162</v>
@@ -6779,20 +6835,20 @@
         <v>70</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>201</v>
       </c>
@@ -6800,20 +6856,20 @@
         <v>70</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>201</v>
       </c>
@@ -6821,11 +6877,11 @@
         <v>70</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>8</v>
@@ -6834,7 +6890,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>201</v>
       </c>
@@ -6842,11 +6898,11 @@
         <v>70</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>8</v>
@@ -6855,7 +6911,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>201</v>
       </c>
@@ -6863,11 +6919,11 @@
         <v>70</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>8</v>
@@ -6876,7 +6932,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>201</v>
       </c>
@@ -6884,11 +6940,11 @@
         <v>70</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
@@ -6905,11 +6961,11 @@
         <v>70</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
@@ -6926,11 +6982,11 @@
         <v>70</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -6939,7 +6995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>201</v>
       </c>
@@ -6947,11 +7003,11 @@
         <v>70</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>8</v>
@@ -6960,7 +7016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201</v>
       </c>
@@ -6968,11 +7024,11 @@
         <v>70</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>8</v>
@@ -6981,7 +7037,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>201</v>
       </c>
@@ -6989,11 +7045,11 @@
         <v>70</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>8</v>
@@ -7010,11 +7066,11 @@
         <v>70</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>8</v>
@@ -7023,7 +7079,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>201</v>
       </c>
@@ -7031,11 +7087,11 @@
         <v>70</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="5" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>8</v>
@@ -7044,7 +7100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>201</v>
       </c>
@@ -7052,11 +7108,11 @@
         <v>70</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>8</v>
@@ -7065,7 +7121,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>201</v>
       </c>
@@ -7073,17 +7129,17 @@
         <v>70</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D246" s="11"/>
-      <c r="E246" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F246" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D246" s="12"/>
+      <c r="E246" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G246" s="3" t="s">
-        <v>4</v>
+      <c r="G246" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7094,20 +7150,20 @@
         <v>70</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D247" s="11"/>
-      <c r="E247" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F247" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D247" s="12"/>
+      <c r="E247" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G247" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>201</v>
       </c>
@@ -7115,17 +7171,17 @@
         <v>70</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D248" s="11"/>
-      <c r="E248" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>4</v>
+        <v>421</v>
+      </c>
+      <c r="D248" s="12"/>
+      <c r="E248" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7136,20 +7192,20 @@
         <v>70</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D249" s="11"/>
-      <c r="E249" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="D249" s="12"/>
+      <c r="E249" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>201</v>
       </c>
@@ -7157,20 +7213,20 @@
         <v>70</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D250" s="11"/>
-      <c r="E250" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="D250" s="12"/>
+      <c r="E250" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>201</v>
       </c>
@@ -7178,268 +7234,262 @@
         <v>70</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D251" s="11"/>
-      <c r="E251" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
-        <v>320</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="D251" s="12"/>
+      <c r="E251" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>201</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C252" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D252" s="12"/>
+      <c r="E252" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>321</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C253" s="23" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="3" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>322</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" s="23" t="s">
-        <v>179</v>
+        <v>201</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C254" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="3" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>168</v>
+        <v>439</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>322</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="21" t="s">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D257" s="11"/>
       <c r="E257" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D258" s="11"/>
       <c r="E258" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>322</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D259" s="11"/>
-      <c r="E259" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G259" s="3" t="s">
+      <c r="A259" s="7">
+        <v>310</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>322</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B260"/>
       <c r="C260" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D260" s="11"/>
-      <c r="E260" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G260" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D260" s="12"/>
+      <c r="E260" s="5"/>
+      <c r="F260"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>320</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="13" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>323</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C261" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>323</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>98</v>
+        <v>321</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>323</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>100</v>
+        <v>322</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>168</v>
@@ -7447,59 +7497,59 @@
     </row>
     <row r="264" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>323</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>48</v>
+        <v>322</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>11</v>
@@ -7508,129 +7558,127 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="7">
-        <v>330</v>
-      </c>
-      <c r="B268" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D268" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F268" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G268" s="8" t="s">
+    <row r="268" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>322</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>331</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C269" s="23" t="s">
-        <v>180</v>
+        <v>322</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" s="13" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>179</v>
+        <v>97</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>332</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C272" s="21" t="s">
-        <v>6</v>
+        <v>323</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>168</v>
@@ -7638,17 +7686,17 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>11</v>
@@ -7659,17 +7707,17 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>11</v>
@@ -7680,17 +7728,17 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="3" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>11</v>
@@ -7701,85 +7749,85 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>332</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D277" s="11" t="s">
+      <c r="A277" s="7">
+        <v>330</v>
+      </c>
+      <c r="B277" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D277" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E277" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G277" s="3" t="s">
+      <c r="E277" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G277" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C278" s="21" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>333</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>98</v>
+        <v>332</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>168</v>
@@ -7787,41 +7835,41 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>333</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C281" s="20" t="s">
-        <v>102</v>
+        <v>332</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>168</v>
@@ -7829,17 +7877,17 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>11</v>
@@ -7850,17 +7898,17 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="3" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>11</v>
@@ -7871,64 +7919,64 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="7">
-        <v>340</v>
-      </c>
-      <c r="B285" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D285" s="10" t="s">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>332</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>332</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D286" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E285" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F285" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G285" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>341</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C286" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>168</v>
@@ -7936,41 +7984,41 @@
     </row>
     <row r="287" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F287" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F287" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>168</v>
@@ -7978,17 +8026,17 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>11</v>
@@ -7999,17 +8047,17 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>11</v>
@@ -8020,17 +8068,17 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="3" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>11</v>
@@ -8041,17 +8089,17 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="3" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>11</v>
@@ -8060,82 +8108,84 @@
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>343</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C293" s="23" t="s">
-        <v>178</v>
+        <v>333</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>343</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C294" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D294" s="11"/>
-      <c r="E294" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G294" s="3" t="s">
+    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
+        <v>340</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G294" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>343</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C295" s="20" t="s">
-        <v>124</v>
+        <v>341</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>3</v>
@@ -8144,43 +8194,43 @@
         <v>168</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>345</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C297" s="23" t="s">
-        <v>177</v>
+        <v>343</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D298" s="11"/>
       <c r="E298" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>168</v>
@@ -8188,83 +8238,83 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F299" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F299" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>346</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C301" s="21" t="s">
-        <v>134</v>
+        <v>343</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D301" s="11"/>
       <c r="E301" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>347</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C302" s="20" t="s">
-        <v>136</v>
+        <v>343</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>168</v>
@@ -8272,19 +8322,19 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F303" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G303" s="3" t="s">
@@ -8293,62 +8343,62 @@
     </row>
     <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F304" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F304" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>347</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C305" s="20" t="s">
-        <v>53</v>
+        <v>344</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>347</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C306" s="20" t="s">
-        <v>57</v>
+        <v>345</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C306" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>168</v>
@@ -8356,19 +8406,19 @@
     </row>
     <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F307" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F307" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G307" s="3" t="s">
@@ -8376,65 +8426,63 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="7">
-        <v>350</v>
-      </c>
-      <c r="B308" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C308" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D308" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F308" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G308" s="8" t="s">
+      <c r="A308">
+        <v>345</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D308" s="11"/>
+      <c r="E308" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G308" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>351</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C309" s="23" t="s">
-        <v>179</v>
+        <v>345</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D309" s="11"/>
       <c r="E309" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>352</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>144</v>
+        <v>346</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C310" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F310" s="4" t="s">
-        <v>8</v>
+        <v>135</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>168</v>
@@ -8442,20 +8490,20 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>8</v>
+        <v>137</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>168</v>
@@ -8463,41 +8511,41 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>352</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C313" s="21" t="s">
-        <v>97</v>
+        <v>347</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C313" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F313" s="4" t="s">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>168</v>
@@ -8505,19 +8553,19 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D314" s="11"/>
       <c r="E314" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F314" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F314" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G314" s="3" t="s">
@@ -8526,142 +8574,306 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D315" s="11"/>
       <c r="E315" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F315" s="4" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D316" s="11"/>
       <c r="E316" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>352</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C317" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D317" s="11" t="s">
+      <c r="A317" s="7">
+        <v>350</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D317" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E317" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F317" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G317" s="3" t="s">
+      <c r="E317" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>352</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C318" s="20" t="s">
-        <v>57</v>
+        <v>351</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C318" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D318" s="11"/>
       <c r="E318" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G318" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C319" s="20"/>
+      <c r="A319">
+        <v>352</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D319" s="11"/>
+      <c r="E319" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C320" s="20"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="20"/>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="20"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="20"/>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="20"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="20"/>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="20"/>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="20"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>352</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C320" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D320" s="11"/>
+      <c r="E320" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>352</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D321" s="11"/>
+      <c r="E321" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>352</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D322" s="11"/>
+      <c r="E322" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>352</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C323" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D323" s="11"/>
+      <c r="E323" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>352</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D324" s="11"/>
+      <c r="E324" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>352</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C325" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="11"/>
+      <c r="E325" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>352</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C326" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>352</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D327" s="11"/>
+      <c r="E327" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C328" s="20"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C329" s="20"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C330" s="20"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C331" s="20"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C332" s="20"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C333" s="20"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C334" s="20"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C335" s="20"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C336" s="20"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
@@ -8721,10 +8933,31 @@
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="20"/>
     </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="20"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="20"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="20"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="20"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="20"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="20"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="20"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G357">
-    <sortCondition ref="A2:A357"/>
-    <sortCondition ref="C2:C357"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G362">
+    <sortCondition ref="A2:A362"/>
+    <sortCondition ref="C2:C362"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFA9EC-8CC7-46BB-A7BD-DEC493A279C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652803D7-84FB-4187-84A3-4525A797526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$342</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="438">
   <si>
     <t>opt</t>
   </si>
@@ -366,93 +366,12 @@
     <t>regular expression</t>
   </si>
   <si>
-    <t>tables</t>
-  </si>
-  <si>
-    <t>container for document tables</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>container for  document table</t>
-  </si>
-  <si>
-    <t>container for table rows</t>
-  </si>
-  <si>
-    <t>llxFirstRow</t>
-  </si>
-  <si>
-    <t>first row: x coordinate of the lower left corner</t>
-  </si>
-  <si>
-    <t>noColumns</t>
-  </si>
-  <si>
-    <t>number columns in table</t>
-  </si>
-  <si>
-    <t>noRows</t>
-  </si>
-  <si>
-    <t>number rows in table</t>
-  </si>
-  <si>
-    <t>page number first row</t>
-  </si>
-  <si>
-    <t>page number last row</t>
-  </si>
-  <si>
     <t>tableNo</t>
   </si>
   <si>
     <t>table number in document</t>
   </si>
   <si>
-    <t>urxFirstRow</t>
-  </si>
-  <si>
-    <t>first row: x coordinate of the upper right corner</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>container for table columns</t>
-  </si>
-  <si>
-    <t>llxFirstColumn</t>
-  </si>
-  <si>
-    <t>first column: x coordinate of the lower left corner</t>
-  </si>
-  <si>
-    <t>rowNo</t>
-  </si>
-  <si>
-    <t>number row in table</t>
-  </si>
-  <si>
-    <t>urxFirstColumn</t>
-  </si>
-  <si>
-    <t>first column: x coordinate of the upper right corner</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>container for table column</t>
-  </si>
-  <si>
-    <t>columnNo</t>
-  </si>
-  <si>
-    <t>number column in row</t>
-  </si>
-  <si>
     <t>toc</t>
   </si>
   <si>
@@ -516,9 +435,6 @@
     <t>list entry text</t>
   </si>
   <si>
-    <t>column text</t>
-  </si>
-  <si>
     <t>font type</t>
   </si>
   <si>
@@ -570,12 +486,6 @@
     <t>words</t>
   </si>
   <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
     <t>entries</t>
   </si>
   <si>
@@ -1423,6 +1333,24 @@
   </si>
   <si>
     <t>include the font data in the JSON file</t>
+  </si>
+  <si>
+    <t>rowNoTable</t>
+  </si>
+  <si>
+    <t>row number in table</t>
+  </si>
+  <si>
+    <t>cellNoRow</t>
+  </si>
+  <si>
+    <t>cell number in row</t>
+  </si>
+  <si>
+    <t>cellSpan</t>
+  </si>
+  <si>
+    <t>cel span</t>
   </si>
 </sst>
 </file>
@@ -1927,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G362"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A309" sqref="A309:A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,25 +1877,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -2022,17 +1950,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,17 +1971,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -2064,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -2087,19 +2015,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,19 +2038,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -2160,7 +2088,7 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
@@ -2180,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -2189,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -2212,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -2235,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,7 +2177,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -2258,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,7 +2200,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
@@ -2281,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,19 +2262,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2288,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>28</v>
@@ -2369,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2384,7 +2312,7 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
@@ -2401,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="3" t="s">
@@ -2422,16 +2350,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -2442,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>3</v>
@@ -2465,14 +2393,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="15" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>33</v>
@@ -2486,14 +2414,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="15" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>33</v>
@@ -2507,14 +2435,14 @@
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="15" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>33</v>
@@ -2528,14 +2456,14 @@
         <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="15" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>33</v>
@@ -2549,14 +2477,14 @@
         <v>21</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="15" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>33</v>
@@ -2570,14 +2498,14 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="15" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>33</v>
@@ -2591,14 +2519,14 @@
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="15" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>33</v>
@@ -2612,20 +2540,20 @@
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="15" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2633,17 +2561,17 @@
         <v>21</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="15" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>4</v>
@@ -2654,14 +2582,14 @@
         <v>22</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="15" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>11</v>
@@ -2675,14 +2603,14 @@
         <v>22</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="18" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>33</v>
@@ -2696,14 +2624,14 @@
         <v>22</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="18" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>11</v>
@@ -2717,14 +2645,14 @@
         <v>22</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="18" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>11</v>
@@ -2738,14 +2666,14 @@
         <v>22</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="18" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>11</v>
@@ -2759,14 +2687,14 @@
         <v>22</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="18" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>11</v>
@@ -2780,14 +2708,14 @@
         <v>22</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="18" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>33</v>
@@ -2801,14 +2729,14 @@
         <v>22</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="18" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>33</v>
@@ -2822,14 +2750,14 @@
         <v>22</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>11</v>
@@ -2843,14 +2771,14 @@
         <v>22</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="18" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>11</v>
@@ -2864,14 +2792,14 @@
         <v>22</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="18" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>33</v>
@@ -2885,14 +2813,14 @@
         <v>22</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="18" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>11</v>
@@ -2906,14 +2834,14 @@
         <v>22</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="18" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>11</v>
@@ -2927,14 +2855,14 @@
         <v>22</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="18" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>33</v>
@@ -2948,14 +2876,14 @@
         <v>22</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>33</v>
@@ -2969,14 +2897,14 @@
         <v>22</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="18" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>33</v>
@@ -2990,14 +2918,14 @@
         <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="18" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>33</v>
@@ -3011,14 +2939,14 @@
         <v>22</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="18" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>33</v>
@@ -3032,14 +2960,14 @@
         <v>22</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="18" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>33</v>
@@ -3053,14 +2981,14 @@
         <v>22</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>33</v>
@@ -3074,14 +3002,14 @@
         <v>22</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="18" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>33</v>
@@ -3095,14 +3023,14 @@
         <v>22</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="18" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>33</v>
@@ -3116,14 +3044,14 @@
         <v>22</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="18" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>33</v>
@@ -3137,14 +3065,14 @@
         <v>22</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="18" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>33</v>
@@ -3158,14 +3086,14 @@
         <v>22</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="18" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>33</v>
@@ -3179,14 +3107,14 @@
         <v>22</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="18" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>33</v>
@@ -3200,14 +3128,14 @@
         <v>22</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="18" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>33</v>
@@ -3221,14 +3149,14 @@
         <v>22</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="18" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>33</v>
@@ -3242,14 +3170,14 @@
         <v>22</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="18" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>33</v>
@@ -3263,14 +3191,14 @@
         <v>22</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="18" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>33</v>
@@ -3284,14 +3212,14 @@
         <v>22</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>33</v>
@@ -3305,14 +3233,14 @@
         <v>22</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="18" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>33</v>
@@ -3326,14 +3254,14 @@
         <v>22</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="18" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>33</v>
@@ -3347,14 +3275,14 @@
         <v>22</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="18" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>33</v>
@@ -3368,14 +3296,14 @@
         <v>22</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="18" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>33</v>
@@ -3389,14 +3317,14 @@
         <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="18" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>33</v>
@@ -3410,14 +3338,14 @@
         <v>22</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="18" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>33</v>
@@ -3431,14 +3359,14 @@
         <v>22</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="18" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>33</v>
@@ -3452,14 +3380,14 @@
         <v>22</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="18" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>33</v>
@@ -3473,14 +3401,14 @@
         <v>22</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="18" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>33</v>
@@ -3494,14 +3422,14 @@
         <v>22</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="18" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>33</v>
@@ -3515,14 +3443,14 @@
         <v>22</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="18" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>33</v>
@@ -3536,14 +3464,14 @@
         <v>22</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="18" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>33</v>
@@ -3557,14 +3485,14 @@
         <v>22</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="18" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>33</v>
@@ -3578,14 +3506,14 @@
         <v>22</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="18" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>33</v>
@@ -3599,14 +3527,14 @@
         <v>22</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="18" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>33</v>
@@ -3620,14 +3548,14 @@
         <v>22</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="18" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>33</v>
@@ -3641,14 +3569,14 @@
         <v>22</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="18" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>33</v>
@@ -3662,14 +3590,14 @@
         <v>22</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="18" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>33</v>
@@ -3683,14 +3611,14 @@
         <v>22</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="18" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>33</v>
@@ -3704,14 +3632,14 @@
         <v>22</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="18" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>33</v>
@@ -3725,14 +3653,14 @@
         <v>22</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="18" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>33</v>
@@ -3746,14 +3674,14 @@
         <v>22</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="18" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>33</v>
@@ -3767,14 +3695,14 @@
         <v>22</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="18" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>33</v>
@@ -3788,14 +3716,14 @@
         <v>22</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="18" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>33</v>
@@ -3809,14 +3737,14 @@
         <v>22</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="18" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>33</v>
@@ -3830,14 +3758,14 @@
         <v>22</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="18" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>33</v>
@@ -3851,14 +3779,14 @@
         <v>22</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="18" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>33</v>
@@ -3872,14 +3800,14 @@
         <v>22</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="18" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>33</v>
@@ -3893,14 +3821,14 @@
         <v>22</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="18" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>33</v>
@@ -3914,14 +3842,14 @@
         <v>22</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="18" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>33</v>
@@ -3935,14 +3863,14 @@
         <v>22</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="18" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>33</v>
@@ -3956,14 +3884,14 @@
         <v>22</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="18" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>33</v>
@@ -3977,14 +3905,14 @@
         <v>22</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="18" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>33</v>
@@ -3998,14 +3926,14 @@
         <v>22</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="18" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>33</v>
@@ -4019,14 +3947,14 @@
         <v>22</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="18" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>33</v>
@@ -4040,14 +3968,14 @@
         <v>22</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="18" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>33</v>
@@ -4061,14 +3989,14 @@
         <v>22</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="18" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>33</v>
@@ -4082,14 +4010,14 @@
         <v>22</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="18" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>33</v>
@@ -4103,14 +4031,14 @@
         <v>22</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="18" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>33</v>
@@ -4124,14 +4052,14 @@
         <v>22</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="18" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>33</v>
@@ -4145,14 +4073,14 @@
         <v>22</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="18" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>33</v>
@@ -4166,14 +4094,14 @@
         <v>22</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="18" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>33</v>
@@ -4187,14 +4115,14 @@
         <v>22</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="18" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>33</v>
@@ -4208,14 +4136,14 @@
         <v>22</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="18" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>33</v>
@@ -4229,14 +4157,14 @@
         <v>22</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="18" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>33</v>
@@ -4250,14 +4178,14 @@
         <v>22</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="18" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>33</v>
@@ -4271,14 +4199,14 @@
         <v>22</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="18" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>33</v>
@@ -4292,14 +4220,14 @@
         <v>22</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="18" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>33</v>
@@ -4313,14 +4241,14 @@
         <v>22</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="18" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>33</v>
@@ -4334,14 +4262,14 @@
         <v>22</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="18" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>33</v>
@@ -4355,14 +4283,14 @@
         <v>22</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="18" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>33</v>
@@ -4376,14 +4304,14 @@
         <v>22</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="18" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>33</v>
@@ -4397,14 +4325,14 @@
         <v>22</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="18" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>33</v>
@@ -4418,14 +4346,14 @@
         <v>22</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="18" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>33</v>
@@ -4439,14 +4367,14 @@
         <v>22</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="18" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>33</v>
@@ -4460,14 +4388,14 @@
         <v>22</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="18" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>33</v>
@@ -4481,14 +4409,14 @@
         <v>22</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="18" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>33</v>
@@ -4502,14 +4430,14 @@
         <v>22</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="18" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>33</v>
@@ -4529,7 +4457,7 @@
         <v>30</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>31</v>
@@ -4570,11 +4498,11 @@
         <v>30</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>11</v>
@@ -4679,7 +4607,7 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>8</v>
@@ -4738,11 +4666,11 @@
         <v>45</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>11</v>
@@ -4759,11 +4687,11 @@
         <v>45</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="3" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>11</v>
@@ -4780,7 +4708,7 @@
         <v>45</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="3" t="s">
@@ -4822,11 +4750,11 @@
         <v>45</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="3" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>11</v>
@@ -4843,11 +4771,11 @@
         <v>45</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="3" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>11</v>
@@ -4864,7 +4792,7 @@
         <v>45</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="3" t="s">
@@ -4885,17 +4813,17 @@
         <v>45</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4906,17 +4834,17 @@
         <v>45</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="3" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -4927,17 +4855,17 @@
         <v>45</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="3" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4948,11 +4876,11 @@
         <v>45</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="3" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>11</v>
@@ -4969,11 +4897,11 @@
         <v>45</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="3" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>11</v>
@@ -4987,16 +4915,16 @@
         <v>50</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>3</v>
@@ -5010,20 +4938,20 @@
         <v>51</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="15" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5031,14 +4959,14 @@
         <v>52</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>8</v>
@@ -5052,13 +4980,13 @@
         <v>52</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>10</v>
@@ -5075,13 +5003,13 @@
         <v>52</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="F148" t="s">
         <v>8</v>
@@ -5095,13 +5023,13 @@
         <v>52</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="F149" t="s">
         <v>8</v>
@@ -5115,13 +5043,13 @@
         <v>52</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F150" t="s">
         <v>8</v>
@@ -5135,13 +5063,13 @@
         <v>52</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
         <v>8</v>
@@ -5155,13 +5083,13 @@
         <v>52</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F152" t="s">
         <v>33</v>
@@ -5175,13 +5103,13 @@
         <v>52</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F153" t="s">
         <v>33</v>
@@ -5195,13 +5123,13 @@
         <v>52</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="F154" t="s">
         <v>33</v>
@@ -5215,13 +5143,13 @@
         <v>52</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="F155" t="s">
         <v>33</v>
@@ -5235,13 +5163,13 @@
         <v>52</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F156" t="s">
         <v>33</v>
@@ -5255,13 +5183,13 @@
         <v>52</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="F157" t="s">
         <v>33</v>
@@ -5275,13 +5203,13 @@
         <v>52</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F158" t="s">
         <v>33</v>
@@ -5295,13 +5223,13 @@
         <v>52</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -5315,17 +5243,17 @@
         <v>53</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="15" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G160" s="15" t="s">
         <v>4</v>
@@ -5360,13 +5288,13 @@
         <v>58</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>60</v>
+        <v>434</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F162" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
@@ -5381,13 +5309,13 @@
         <v>58</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>62</v>
+        <v>436</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F163" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F163" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="3" t="s">
@@ -5402,11 +5330,11 @@
         <v>58</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>11</v>
@@ -5415,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>101</v>
       </c>
@@ -5423,14 +5351,14 @@
         <v>58</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>4</v>
@@ -5444,13 +5372,13 @@
         <v>58</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F166" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
@@ -5465,20 +5393,20 @@
         <v>58</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>101</v>
       </c>
@@ -5486,20 +5414,20 @@
         <v>58</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="3" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>101</v>
       </c>
@@ -5507,14 +5435,14 @@
         <v>58</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>4</v>
@@ -5528,17 +5456,17 @@
         <v>58</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>8</v>
+        <v>433</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>439</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5549,20 +5477,20 @@
         <v>58</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>39</v>
+        <v>178</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>101</v>
       </c>
@@ -5570,20 +5498,20 @@
         <v>58</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F172" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>101</v>
       </c>
@@ -5591,56 +5519,56 @@
         <v>58</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="3" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
-        <v>110</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>4</v>
+      <c r="A174">
+        <v>101</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="3" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>4</v>
@@ -5648,17 +5576,17 @@
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>11</v>
@@ -5667,45 +5595,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F177" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>111</v>
-      </c>
-      <c r="B178" s="3" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>110</v>
+      </c>
+      <c r="B178" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C178" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D178" s="11"/>
-      <c r="E178" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" s="3" t="s">
+      <c r="C178" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5717,20 +5645,20 @@
         <v>50</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F179" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>111</v>
       </c>
@@ -5738,17 +5666,17 @@
         <v>50</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>194</v>
+        <v>436</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F180" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5759,17 +5687,17 @@
         <v>50</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5780,20 +5708,20 @@
         <v>50</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>111</v>
       </c>
@@ -5801,13 +5729,13 @@
         <v>50</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F183" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="3" t="s">
@@ -5822,11 +5750,11 @@
         <v>50</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="3" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>11</v>
@@ -5835,145 +5763,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>111</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C185" s="23" t="s">
-        <v>176</v>
+      <c r="C185" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
-        <v>120</v>
-      </c>
-      <c r="B186" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D186" s="10"/>
-      <c r="E186" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="8" t="s">
+      <c r="A186">
+        <v>111</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D186" s="11"/>
+      <c r="E186" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F189" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C190" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>11</v>
@@ -5984,17 +5912,17 @@
     </row>
     <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="3" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>11</v>
@@ -6003,65 +5931,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
-        <v>200</v>
-      </c>
-      <c r="B193" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D193" s="10"/>
-      <c r="E193" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F193" s="7" t="s">
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>111</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>120</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" s="10"/>
+      <c r="E194" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G193" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>201</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F195" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G195" s="3" t="s">
@@ -6070,19 +5996,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F196" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G196" s="3" t="s">
@@ -6091,111 +6017,110 @@
     </row>
     <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F197" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>11</v>
+        <v>139</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" s="11"/>
+      <c r="E199" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>121</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D200" s="11"/>
+      <c r="E200" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>200</v>
+      </c>
+      <c r="B201" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C199" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>201</v>
-      </c>
-      <c r="B200" s="3" t="s">
+      <c r="C201" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C200" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>201</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="10"/>
+      <c r="E201" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6203,20 +6128,20 @@
         <v>70</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D202" s="12"/>
-      <c r="E202" s="5" t="s">
-        <v>318</v>
+        <v>434</v>
+      </c>
+      <c r="D202" s="11"/>
+      <c r="E202" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6224,20 +6149,20 @@
         <v>70</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D203" s="12"/>
-      <c r="E203" s="5" t="s">
-        <v>319</v>
+        <v>436</v>
+      </c>
+      <c r="D203" s="11"/>
+      <c r="E203" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201</v>
       </c>
@@ -6245,20 +6170,22 @@
         <v>70</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="D204" s="12"/>
-      <c r="E204" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G204" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G204" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>201</v>
       </c>
@@ -6266,20 +6193,20 @@
         <v>70</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="D205" s="12"/>
-      <c r="E205" s="5" t="s">
-        <v>321</v>
+        <v>60</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>201</v>
       </c>
@@ -6287,17 +6214,17 @@
         <v>70</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D206" s="12"/>
-      <c r="E206" s="5" t="s">
-        <v>322</v>
+        <v>48</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6308,20 +6235,20 @@
         <v>70</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D207" s="12"/>
-      <c r="E207" s="5" t="s">
-        <v>323</v>
+        <v>53</v>
+      </c>
+      <c r="D207" s="11"/>
+      <c r="E207" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>201</v>
       </c>
@@ -6329,17 +6256,17 @@
         <v>70</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="D208" s="12"/>
-      <c r="E208" s="5" t="s">
-        <v>324</v>
+        <v>432</v>
+      </c>
+      <c r="D208" s="11"/>
+      <c r="E208" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6350,20 +6277,20 @@
         <v>70</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="D209" s="12"/>
-      <c r="E209" s="5" t="s">
-        <v>325</v>
+        <v>177</v>
+      </c>
+      <c r="D209" s="11"/>
+      <c r="E209" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201</v>
       </c>
@@ -6371,20 +6298,22 @@
         <v>70</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="D210" s="12"/>
-      <c r="E210" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>201</v>
       </c>
@@ -6392,17 +6321,17 @@
         <v>70</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6413,20 +6342,20 @@
         <v>70</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201</v>
       </c>
@@ -6434,20 +6363,20 @@
         <v>70</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201</v>
       </c>
@@ -6455,20 +6384,20 @@
         <v>70</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="5" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201</v>
       </c>
@@ -6476,17 +6405,17 @@
         <v>70</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6497,20 +6426,20 @@
         <v>70</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201</v>
       </c>
@@ -6518,17 +6447,17 @@
         <v>70</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6539,20 +6468,20 @@
         <v>70</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="5" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201</v>
       </c>
@@ -6560,20 +6489,20 @@
         <v>70</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>201</v>
       </c>
@@ -6581,20 +6510,20 @@
         <v>70</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>201</v>
       </c>
@@ -6602,20 +6531,20 @@
         <v>70</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>201</v>
       </c>
@@ -6623,17 +6552,17 @@
         <v>70</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6644,20 +6573,20 @@
         <v>70</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201</v>
       </c>
@@ -6665,20 +6594,20 @@
         <v>70</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>201</v>
       </c>
@@ -6686,22 +6615,20 @@
         <v>70</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>437</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D225" s="12"/>
       <c r="E225" s="5" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>201</v>
       </c>
@@ -6709,20 +6636,20 @@
         <v>70</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>201</v>
       </c>
@@ -6730,20 +6657,20 @@
         <v>70</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201</v>
       </c>
@@ -6751,20 +6678,20 @@
         <v>70</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>201</v>
       </c>
@@ -6772,20 +6699,20 @@
         <v>70</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>201</v>
       </c>
@@ -6793,17 +6720,17 @@
         <v>70</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6814,17 +6741,17 @@
         <v>70</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6835,17 +6762,17 @@
         <v>70</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6856,17 +6783,17 @@
         <v>70</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6877,17 +6804,17 @@
         <v>70</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="5" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6898,20 +6825,20 @@
         <v>70</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>201</v>
       </c>
@@ -6919,20 +6846,22 @@
         <v>70</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D236" s="12"/>
+        <v>406</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E236" s="5" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>201</v>
       </c>
@@ -6940,17 +6869,17 @@
         <v>70</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6961,17 +6890,17 @@
         <v>70</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6982,20 +6911,20 @@
         <v>70</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>201</v>
       </c>
@@ -7003,17 +6932,17 @@
         <v>70</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7024,20 +6953,20 @@
         <v>70</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>201</v>
       </c>
@@ -7045,17 +6974,17 @@
         <v>70</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="5" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7066,20 +6995,20 @@
         <v>70</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="5" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>201</v>
       </c>
@@ -7087,20 +7016,20 @@
         <v>70</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="5" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>201</v>
       </c>
@@ -7108,20 +7037,20 @@
         <v>70</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="5" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>201</v>
       </c>
@@ -7129,20 +7058,20 @@
         <v>70</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="5" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>201</v>
       </c>
@@ -7150,20 +7079,20 @@
         <v>70</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="5" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>201</v>
       </c>
@@ -7171,20 +7100,20 @@
         <v>70</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="D248" s="12"/>
       <c r="E248" s="5" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>201</v>
       </c>
@@ -7192,17 +7121,17 @@
         <v>70</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="D249" s="12"/>
       <c r="E249" s="5" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7213,20 +7142,20 @@
         <v>70</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>201</v>
       </c>
@@ -7234,20 +7163,20 @@
         <v>70</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="D251" s="12"/>
       <c r="E251" s="5" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>201</v>
       </c>
@@ -7255,20 +7184,20 @@
         <v>70</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="D252" s="12"/>
       <c r="E252" s="5" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>201</v>
       </c>
@@ -7276,20 +7205,20 @@
         <v>70</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F253" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D253" s="12"/>
+      <c r="E253" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F253" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G253" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G253" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>201</v>
       </c>
@@ -7297,20 +7226,20 @@
         <v>70</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D254" s="11"/>
-      <c r="E254" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F254" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D254" s="12"/>
+      <c r="E254" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F254" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G254" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G254" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>201</v>
       </c>
@@ -7318,20 +7247,20 @@
         <v>70</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D255" s="11"/>
-      <c r="E255" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="D255" s="12"/>
+      <c r="E255" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>201</v>
       </c>
@@ -7339,20 +7268,20 @@
         <v>70</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D256" s="11"/>
-      <c r="E256" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="D256" s="12"/>
+      <c r="E256" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>201</v>
       </c>
@@ -7360,17 +7289,17 @@
         <v>70</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D257" s="11"/>
-      <c r="E257" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>4</v>
+        <v>389</v>
+      </c>
+      <c r="D257" s="12"/>
+      <c r="E257" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7381,1499 +7310,1299 @@
         <v>70</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D258" s="11"/>
-      <c r="E258" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
-        <v>310</v>
-      </c>
-      <c r="B259" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" s="8" t="s">
-        <v>168</v>
+        <v>390</v>
+      </c>
+      <c r="D258" s="12"/>
+      <c r="E258" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>201</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D259" s="12"/>
+      <c r="E259" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>311</v>
-      </c>
-      <c r="B260"/>
+        <v>201</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C260" s="20" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="D260" s="12"/>
-      <c r="E260" s="5"/>
-      <c r="F260"/>
-      <c r="G260" s="5"/>
-    </row>
-    <row r="261" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
-        <v>320</v>
-      </c>
-      <c r="B261" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="E260" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>201</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D261" s="12"/>
+      <c r="E261" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>321</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D262" s="11"/>
-      <c r="E262" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D262" s="12"/>
+      <c r="E262" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>322</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C263" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D263" s="11"/>
-      <c r="E263" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>168</v>
+        <v>201</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D263" s="12"/>
+      <c r="E263" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>322</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C265" s="21" t="s">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>168</v>
+        <v>409</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" s="13" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>323</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C270" s="21" t="s">
-        <v>97</v>
+        <v>201</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="F270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>310</v>
+      </c>
+      <c r="B271" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F271" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G270" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>323</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D271" s="11"/>
-      <c r="E271" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>168</v>
+      <c r="G271" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>323</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B272"/>
       <c r="C272" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D272" s="11"/>
-      <c r="E272" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>323</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C273" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D273" s="11"/>
-      <c r="E273" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D272" s="12"/>
+      <c r="E272" s="5"/>
+      <c r="F272"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>320</v>
+      </c>
+      <c r="B273" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>323</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C274" s="20" t="s">
-        <v>48</v>
+        <v>321</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>323</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C275" s="20" t="s">
-        <v>53</v>
+        <v>322</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="7">
-        <v>330</v>
-      </c>
-      <c r="B277" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F277" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>322</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F277" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G277" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="G277" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>331</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C278" s="23" t="s">
-        <v>180</v>
+        <v>322</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>322</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G278" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>332</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>179</v>
+      <c r="C279" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>332</v>
-      </c>
-      <c r="B281" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C281" s="21" t="s">
-        <v>6</v>
+      <c r="C281" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>332</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>89</v>
+        <v>323</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D286" s="11" t="s">
-        <v>254</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>333</v>
-      </c>
-      <c r="B287" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C287" s="21" t="s">
-        <v>97</v>
+      <c r="C287" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>333</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D289" s="11"/>
-      <c r="E289" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
+        <v>330</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>333</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C290" s="20" t="s">
-        <v>102</v>
+        <v>331</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>333</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C291" s="20" t="s">
-        <v>48</v>
+        <v>332</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="3" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="3" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>333</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C293" s="20" t="s">
-        <v>57</v>
+        <v>332</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
-        <v>340</v>
-      </c>
-      <c r="B294" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C294" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D294" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G294" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>332</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D294" s="11"/>
+      <c r="E294" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>341</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C295" s="23" t="s">
-        <v>109</v>
+        <v>332</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>332</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G295" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>342</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C296" s="21" t="s">
-        <v>111</v>
+      <c r="C296" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D298" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E298" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>343</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C299" s="20" t="s">
-        <v>118</v>
+        <v>333</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C299" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D299" s="11"/>
       <c r="E299" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D301" s="11"/>
       <c r="E301" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>343</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>178</v>
+        <v>333</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>344</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C305" s="21" t="s">
-        <v>126</v>
+        <v>333</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F305" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="7">
+        <v>340</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F306" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G305" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>345</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C306" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D306" s="11"/>
-      <c r="E306" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G306" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>345</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C307" s="20" t="s">
-        <v>128</v>
+        <v>341</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C307" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D308" s="11"/>
       <c r="E308" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D309" s="11"/>
       <c r="E309" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>346</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C310" s="21" t="s">
-        <v>134</v>
+        <v>342</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F310" s="3" t="s">
-        <v>3</v>
+        <v>123</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>347</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C311" s="20" t="s">
-        <v>136</v>
+        <v>342</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C311" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F312" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F312" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D314" s="11"/>
       <c r="E314" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F314" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F314" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C315" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>342</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="D315" s="11"/>
-      <c r="E315" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>347</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C316" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="D316" s="11"/>
       <c r="E316" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>39</v>
+        <v>115</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
-        <v>350</v>
-      </c>
-      <c r="B317" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C317" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D317" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E317" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F317" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G317" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>351</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C318" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D318" s="11"/>
-      <c r="E318" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="C317" s="20"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C318" s="20"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>352</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C319" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D319" s="11"/>
-      <c r="E319" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G319" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="C319" s="20"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>352</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C320" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D320" s="11"/>
-      <c r="E320" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G320" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>352</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C321" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D321" s="11"/>
-      <c r="E321" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F321" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G321" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>352</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C322" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D322" s="11"/>
-      <c r="E322" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G322" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>352</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C323" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D323" s="11"/>
-      <c r="E323" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G323" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>352</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C324" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D324" s="11"/>
-      <c r="E324" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F324" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G324" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>352</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C325" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D325" s="11"/>
-      <c r="E325" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G325" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>352</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G326" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>352</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C327" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D327" s="11"/>
-      <c r="E327" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F327" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G327" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C320" s="20"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="20"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="20"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="20"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="20"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="20"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="20"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="20"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="20"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="20"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="20"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="20"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="20"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="20"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="20"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="20"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="20"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
@@ -8903,61 +8632,10 @@
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="20"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="20"/>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="20"/>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="20"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="20"/>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="20"/>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="20"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="20"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="20"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="20"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="20"/>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="20"/>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="20"/>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="20"/>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="20"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="20"/>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="20"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="20"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G362">
-    <sortCondition ref="A2:A362"/>
-    <sortCondition ref="C2:C362"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G345">
+    <sortCondition ref="A2:A345"/>
+    <sortCondition ref="C2:C345"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652803D7-84FB-4187-84A3-4525A797526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681AC414-DF1C-4F18-9990-47162EBA26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$346</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="438">
   <si>
     <t>opt</t>
   </si>
@@ -1335,22 +1335,22 @@
     <t>include the font data in the JSON file</t>
   </si>
   <si>
-    <t>rowNoTable</t>
-  </si>
-  <si>
     <t>row number in table</t>
   </si>
   <si>
-    <t>cellNoRow</t>
-  </si>
-  <si>
     <t>cell number in row</t>
   </si>
   <si>
-    <t>cellSpan</t>
-  </si>
-  <si>
     <t>cel span</t>
+  </si>
+  <si>
+    <t>tableCellNo</t>
+  </si>
+  <si>
+    <t>tableCellSpan</t>
+  </si>
+  <si>
+    <t>tableRowNo</t>
   </si>
 </sst>
 </file>
@@ -1855,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A309" sqref="A309:A316"/>
+      <selection pane="bottomRight" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5288,13 +5288,13 @@
         <v>58</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>434</v>
+        <v>60</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F162" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
@@ -5309,13 +5309,13 @@
         <v>58</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F163" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G163" s="3" t="s">
@@ -5330,11 +5330,11 @@
         <v>58</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>11</v>
@@ -5343,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>101</v>
       </c>
@@ -5351,14 +5351,14 @@
         <v>58</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>4</v>
@@ -5372,13 +5372,13 @@
         <v>58</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F166" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
@@ -5393,14 +5393,14 @@
         <v>58</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>4</v>
@@ -5414,13 +5414,13 @@
         <v>58</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
@@ -5435,17 +5435,17 @@
         <v>58</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="3" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5456,7 +5456,7 @@
         <v>58</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
@@ -5469,7 +5469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>101</v>
       </c>
@@ -5477,17 +5477,17 @@
         <v>58</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>177</v>
+        <v>436</v>
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="3" t="s">
-        <v>178</v>
+        <v>434</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,14 +5519,14 @@
         <v>58</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>4</v>
@@ -5540,20 +5540,20 @@
         <v>58</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>101</v>
       </c>
@@ -5561,17 +5561,17 @@
         <v>58</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5582,14 +5582,14 @@
         <v>58</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="3" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>4</v>
@@ -5603,62 +5603,62 @@
         <v>58</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>101</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="7">
+      <c r="F178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
         <v>110</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B179" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C179" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D178" s="10"/>
-      <c r="E178" s="8" t="s">
+      <c r="D179" s="10"/>
+      <c r="E179" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G178" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>111</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D179" s="11"/>
-      <c r="E179" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>111</v>
       </c>
@@ -5666,13 +5666,13 @@
         <v>50</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F180" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G180" s="3" t="s">
@@ -5687,11 +5687,11 @@
         <v>50</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
@@ -5700,7 +5700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>111</v>
       </c>
@@ -5708,20 +5708,20 @@
         <v>50</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F182" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>111</v>
       </c>
@@ -5729,20 +5729,20 @@
         <v>50</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F183" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F183" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>111</v>
       </c>
@@ -5750,11 +5750,11 @@
         <v>50</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>11</v>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>111</v>
       </c>
@@ -5771,20 +5771,20 @@
         <v>50</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="3" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>111</v>
       </c>
@@ -5792,20 +5792,20 @@
         <v>50</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>432</v>
+        <v>159</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F186" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>111</v>
       </c>
@@ -5813,20 +5813,20 @@
         <v>50</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>164</v>
+        <v>435</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F187" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>111</v>
       </c>
@@ -5834,17 +5834,17 @@
         <v>50</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F188" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>111</v>
       </c>
@@ -5876,17 +5876,17 @@
         <v>50</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>222</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5897,17 +5897,17 @@
         <v>50</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5918,11 +5918,11 @@
         <v>50</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>11</v>
@@ -5931,70 +5931,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>111</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C193" s="23" t="s">
-        <v>148</v>
+      <c r="C193" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>111</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="F194" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="G194" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
         <v>120</v>
       </c>
-      <c r="B194" s="22" t="s">
+      <c r="B195" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C195" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D194" s="10"/>
-      <c r="E194" s="8" t="s">
+      <c r="D195" s="10"/>
+      <c r="E195" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F195" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G194" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>121</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D195" s="11"/>
-      <c r="E195" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>121</v>
       </c>
@@ -6002,11 +6002,11 @@
         <v>138</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>11</v>
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>121</v>
       </c>
@@ -6023,11 +6023,11 @@
         <v>138</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>11</v>
@@ -6036,7 +6036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>121</v>
       </c>
@@ -6044,20 +6044,20 @@
         <v>138</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="3" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>121</v>
       </c>
@@ -6065,14 +6065,14 @@
         <v>138</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="3" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>4</v>
@@ -6086,58 +6086,58 @@
         <v>138</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>121</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D201" s="11"/>
+      <c r="E201" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
+      <c r="F201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B202" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C202" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="8" t="s">
+      <c r="D202" s="10"/>
+      <c r="E202" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F202" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D202" s="11"/>
-      <c r="E202" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" s="3" t="s">
+      <c r="G202" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6149,20 +6149,22 @@
         <v>70</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D203" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E203" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>201</v>
       </c>
@@ -6170,16 +6172,14 @@
         <v>70</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D204" s="11"/>
       <c r="E204" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>4</v>
@@ -6193,11 +6193,11 @@
         <v>70</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>11</v>
@@ -6206,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>201</v>
       </c>
@@ -6214,11 +6214,11 @@
         <v>70</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>11</v>
@@ -6235,17 +6235,17 @@
         <v>70</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="3" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -6256,20 +6256,22 @@
         <v>70</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D208" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E208" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>201</v>
       </c>
@@ -6277,20 +6279,20 @@
         <v>70</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D209" s="11"/>
-      <c r="E209" s="3" t="s">
-        <v>193</v>
+        <v>396</v>
+      </c>
+      <c r="D209" s="12"/>
+      <c r="E209" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201</v>
       </c>
@@ -6298,19 +6300,17 @@
         <v>70</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>4</v>
+        <v>346</v>
+      </c>
+      <c r="D210" s="12"/>
+      <c r="E210" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -6321,11 +6321,11 @@
         <v>70</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>8</v>
@@ -6334,7 +6334,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>201</v>
       </c>
@@ -6342,11 +6342,11 @@
         <v>70</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>8</v>
@@ -6355,7 +6355,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201</v>
       </c>
@@ -6363,11 +6363,11 @@
         <v>70</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>8</v>
@@ -6376,7 +6376,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201</v>
       </c>
@@ -6384,11 +6384,11 @@
         <v>70</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>8</v>
@@ -6397,7 +6397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201</v>
       </c>
@@ -6405,11 +6405,11 @@
         <v>70</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>8</v>
@@ -6426,11 +6426,11 @@
         <v>70</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>8</v>
@@ -6439,7 +6439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201</v>
       </c>
@@ -6447,11 +6447,11 @@
         <v>70</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>8</v>
@@ -6468,20 +6468,20 @@
         <v>70</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201</v>
       </c>
@@ -6489,14 +6489,14 @@
         <v>70</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>134</v>
@@ -6510,11 +6510,11 @@
         <v>70</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>33</v>
@@ -6531,11 +6531,11 @@
         <v>70</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>33</v>
@@ -6552,11 +6552,11 @@
         <v>70</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>33</v>
@@ -6565,7 +6565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>201</v>
       </c>
@@ -6573,11 +6573,11 @@
         <v>70</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>33</v>
@@ -6586,7 +6586,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201</v>
       </c>
@@ -6594,11 +6594,11 @@
         <v>70</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>33</v>
@@ -6615,11 +6615,11 @@
         <v>70</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>33</v>
@@ -6636,11 +6636,11 @@
         <v>70</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>33</v>
@@ -6657,11 +6657,11 @@
         <v>70</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>33</v>
@@ -6670,7 +6670,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201</v>
       </c>
@@ -6678,11 +6678,11 @@
         <v>70</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>33</v>
@@ -6699,11 +6699,11 @@
         <v>70</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>33</v>
@@ -6720,11 +6720,11 @@
         <v>70</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>33</v>
@@ -6741,11 +6741,11 @@
         <v>70</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>33</v>
@@ -6762,11 +6762,11 @@
         <v>70</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>33</v>
@@ -6775,7 +6775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>201</v>
       </c>
@@ -6783,11 +6783,11 @@
         <v>70</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>33</v>
@@ -6796,7 +6796,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>201</v>
       </c>
@@ -6804,11 +6804,13 @@
         <v>70</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D234" s="12"/>
+        <v>406</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E234" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>33</v>
@@ -6817,7 +6819,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>201</v>
       </c>
@@ -6825,20 +6827,20 @@
         <v>70</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>201</v>
       </c>
@@ -6846,16 +6848,14 @@
         <v>70</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>407</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D236" s="12"/>
       <c r="E236" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>134</v>
@@ -6869,11 +6869,11 @@
         <v>70</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
@@ -6882,7 +6882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>201</v>
       </c>
@@ -6890,11 +6890,11 @@
         <v>70</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
@@ -6903,7 +6903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>201</v>
       </c>
@@ -6911,11 +6911,11 @@
         <v>70</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -6924,7 +6924,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>201</v>
       </c>
@@ -6932,20 +6932,20 @@
         <v>70</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201</v>
       </c>
@@ -6953,14 +6953,14 @@
         <v>70</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>134</v>
@@ -6974,11 +6974,11 @@
         <v>70</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>33</v>
@@ -6995,20 +6995,20 @@
         <v>70</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>201</v>
       </c>
@@ -7016,20 +7016,20 @@
         <v>70</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>201</v>
       </c>
@@ -7037,11 +7037,11 @@
         <v>70</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>8</v>
@@ -7058,11 +7058,11 @@
         <v>70</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>8</v>
@@ -7079,11 +7079,11 @@
         <v>70</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>8</v>
@@ -7092,7 +7092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>201</v>
       </c>
@@ -7100,11 +7100,11 @@
         <v>70</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D248" s="12"/>
       <c r="E248" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>8</v>
@@ -7121,11 +7121,11 @@
         <v>70</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D249" s="12"/>
       <c r="E249" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>8</v>
@@ -7134,7 +7134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>201</v>
       </c>
@@ -7142,11 +7142,11 @@
         <v>70</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>8</v>
@@ -7163,11 +7163,11 @@
         <v>70</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D251" s="12"/>
       <c r="E251" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>8</v>
@@ -7176,7 +7176,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>201</v>
       </c>
@@ -7184,11 +7184,11 @@
         <v>70</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D252" s="12"/>
       <c r="E252" s="5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>8</v>
@@ -7205,11 +7205,11 @@
         <v>70</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D253" s="12"/>
       <c r="E253" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>8</v>
@@ -7218,7 +7218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>201</v>
       </c>
@@ -7226,11 +7226,11 @@
         <v>70</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>8</v>
@@ -7239,7 +7239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>201</v>
       </c>
@@ -7247,11 +7247,11 @@
         <v>70</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>8</v>
@@ -7260,7 +7260,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>201</v>
       </c>
@@ -7268,11 +7268,11 @@
         <v>70</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>8</v>
@@ -7289,11 +7289,11 @@
         <v>70</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="5" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>8</v>
@@ -7310,11 +7310,11 @@
         <v>70</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>8</v>
@@ -7331,11 +7331,11 @@
         <v>70</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="5" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>8</v>
@@ -7344,7 +7344,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>201</v>
       </c>
@@ -7352,11 +7352,11 @@
         <v>70</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="5" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>8</v>
@@ -7373,11 +7373,11 @@
         <v>70</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>8</v>
@@ -7386,7 +7386,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>201</v>
       </c>
@@ -7394,20 +7394,20 @@
         <v>70</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D262" s="12"/>
-      <c r="E262" s="5" t="s">
-        <v>399</v>
+        <v>435</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>201</v>
       </c>
@@ -7415,17 +7415,17 @@
         <v>70</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D263" s="12"/>
-      <c r="E263" s="5" t="s">
-        <v>334</v>
+        <v>436</v>
+      </c>
+      <c r="D263" s="11"/>
+      <c r="E263" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>134</v>
+        <v>11</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7457,14 +7457,14 @@
         <v>70</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>4</v>
@@ -7478,17 +7478,17 @@
         <v>70</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>409</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7499,17 +7499,17 @@
         <v>70</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7520,11 +7520,11 @@
         <v>70</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>11</v>
@@ -7541,11 +7541,11 @@
         <v>70</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>11</v>
@@ -7562,112 +7562,112 @@
         <v>70</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>201</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C271" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D271" s="11"/>
+      <c r="E271" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+      <c r="F271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
         <v>310</v>
       </c>
-      <c r="B271" s="22" t="s">
+      <c r="B272" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C272" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D271" s="10" t="s">
+      <c r="D272" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E271" s="8" t="s">
+      <c r="E272" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="F272" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G271" s="8" t="s">
+      <c r="G272" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="273" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>311</v>
       </c>
-      <c r="B272"/>
-      <c r="C272" s="20" t="s">
+      <c r="B273"/>
+      <c r="C273" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="D272" s="12"/>
-      <c r="E272" s="5"/>
-      <c r="F272"/>
-      <c r="G272" s="5"/>
-    </row>
-    <row r="273" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+      <c r="D273" s="12"/>
+      <c r="E273" s="5"/>
+      <c r="F273"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
         <v>320</v>
       </c>
-      <c r="B273" s="22" t="s">
+      <c r="B274" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="C274" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D274" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E273" s="8" t="s">
+      <c r="E274" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F273" s="7" t="s">
+      <c r="F274" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G273" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>321</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D274" s="11"/>
-      <c r="E274" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G274" s="3" t="s">
+      <c r="G274" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>6</v>
@@ -7676,64 +7676,64 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>322</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C276" s="20" t="s">
-        <v>87</v>
+      <c r="C276" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>322</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="21" t="s">
-        <v>6</v>
+      <c r="C277" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>322</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C278" s="20" t="s">
-        <v>89</v>
+      <c r="C278" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>140</v>
@@ -7747,11 +7747,11 @@
         <v>6</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>11</v>
@@ -7768,11 +7768,11 @@
         <v>6</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>11</v>
@@ -7789,11 +7789,11 @@
         <v>6</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>11</v>
@@ -7802,43 +7802,43 @@
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>323</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C282" s="21" t="s">
-        <v>97</v>
+        <v>322</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>323</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C283" s="20" t="s">
-        <v>98</v>
+      <c r="C283" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>140</v>
@@ -7852,11 +7852,11 @@
         <v>97</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>11</v>
@@ -7873,11 +7873,11 @@
         <v>97</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>11</v>
@@ -7894,11 +7894,11 @@
         <v>97</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>11</v>
@@ -7915,11 +7915,11 @@
         <v>97</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>11</v>
@@ -7936,76 +7936,76 @@
         <v>97</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+      <c r="A289">
+        <v>323</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D289" s="11"/>
+      <c r="E289" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="7">
         <v>330</v>
       </c>
-      <c r="B289" s="22" t="s">
+      <c r="B290" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C289" s="22" t="s">
+      <c r="C290" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D290" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E289" s="8" t="s">
+      <c r="E290" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F289" s="7" t="s">
+      <c r="F290" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G289" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>331</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C290" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D290" s="11"/>
-      <c r="E290" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G290" s="3" t="s">
+      <c r="G290" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>6</v>
@@ -8014,64 +8014,64 @@
         <v>140</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>332</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C292" s="20" t="s">
-        <v>87</v>
+      <c r="C292" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D292" s="11"/>
       <c r="E292" s="3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>332</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="21" t="s">
-        <v>6</v>
+      <c r="C293" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>332</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C294" s="20" t="s">
-        <v>89</v>
+      <c r="C294" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>140</v>
@@ -8085,11 +8085,11 @@
         <v>6</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>11</v>
@@ -8106,11 +8106,11 @@
         <v>6</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>11</v>
@@ -8127,11 +8127,11 @@
         <v>6</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>11</v>
@@ -8148,58 +8148,58 @@
         <v>6</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D298" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D298" s="11"/>
       <c r="E298" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>333</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C299" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D299" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E299" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>333</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C300" s="20" t="s">
-        <v>98</v>
+      <c r="C300" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>140</v>
@@ -8213,11 +8213,11 @@
         <v>97</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D301" s="11"/>
       <c r="E301" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>11</v>
@@ -8234,11 +8234,11 @@
         <v>97</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>11</v>
@@ -8255,11 +8255,11 @@
         <v>97</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>11</v>
@@ -8276,11 +8276,11 @@
         <v>97</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>11</v>
@@ -8297,79 +8297,79 @@
         <v>97</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="7">
+      <c r="A306">
+        <v>333</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D306" s="11"/>
+      <c r="E306" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="7">
         <v>340</v>
       </c>
-      <c r="B306" s="22" t="s">
+      <c r="B307" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C306" s="22" t="s">
+      <c r="C307" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D306" s="10" t="s">
+      <c r="D307" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E306" s="8" t="s">
+      <c r="E307" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F306" s="7" t="s">
+      <c r="F307" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G306" s="8" t="s">
+      <c r="G307" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A307">
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A308">
         <v>341</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B308" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C307" s="23" t="s">
+      <c r="C308" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="D307" s="11"/>
-      <c r="E307" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>342</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C308" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="D308" s="11"/>
       <c r="E308" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>140</v>
@@ -8383,11 +8383,11 @@
         <v>97</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D309" s="11"/>
       <c r="E309" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>8</v>
@@ -8404,11 +8404,11 @@
         <v>97</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>8</v>
@@ -8417,43 +8417,43 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>342</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C311" s="21" t="s">
-        <v>97</v>
+      <c r="C311" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>342</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C312" s="20" t="s">
-        <v>113</v>
+      <c r="C312" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>140</v>
@@ -8467,11 +8467,11 @@
         <v>97</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>11</v>
@@ -8488,11 +8488,11 @@
         <v>97</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D314" s="11"/>
       <c r="E314" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>11</v>
@@ -8509,16 +8509,14 @@
         <v>97</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D315" s="11"/>
       <c r="E315" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>140</v>
@@ -8532,11 +8530,13 @@
         <v>97</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D316" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D316" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E316" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>8</v>
@@ -8546,7 +8546,25 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C317" s="20"/>
+      <c r="A317">
+        <v>342</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D317" s="11"/>
+      <c r="E317" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C318" s="20"/>
@@ -8632,10 +8650,13 @@
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="20"/>
     </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="20"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G345">
-    <sortCondition ref="A2:A345"/>
-    <sortCondition ref="C2:C345"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G347">
+    <sortCondition ref="A2:A347"/>
+    <sortCondition ref="C2:C347"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681AC414-DF1C-4F18-9990-47162EBA26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF5BF5-96ED-4A27-BE14-731C252B3113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$348</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="440">
   <si>
     <t>opt</t>
   </si>
@@ -1351,6 +1351,12 @@
   </si>
   <si>
     <t>tableRowNo</t>
+  </si>
+  <si>
+    <t>word number in paragraph of first word in this line</t>
+  </si>
+  <si>
+    <t>wordNoParaFirst</t>
   </si>
 </sst>
 </file>
@@ -1855,13 +1861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C176" sqref="C176"/>
+      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5637,45 +5643,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>101</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D179" s="11"/>
+      <c r="E179" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
         <v>110</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B180" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C180" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="8" t="s">
+      <c r="D180" s="10"/>
+      <c r="E180" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F180" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G179" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>111</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D180" s="11"/>
-      <c r="E180" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5687,11 +5693,11 @@
         <v>50</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>11</v>
@@ -5700,7 +5706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>111</v>
       </c>
@@ -5708,20 +5714,20 @@
         <v>50</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F182" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>111</v>
       </c>
@@ -5729,20 +5735,20 @@
         <v>50</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F183" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>111</v>
       </c>
@@ -5750,11 +5756,11 @@
         <v>50</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>11</v>
@@ -5763,7 +5769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>111</v>
       </c>
@@ -5771,17 +5777,17 @@
         <v>50</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="3" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5792,11 +5798,11 @@
         <v>50</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>11</v>
@@ -5805,7 +5811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>111</v>
       </c>
@@ -5813,17 +5819,17 @@
         <v>50</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>435</v>
+        <v>159</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F187" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5834,11 +5840,11 @@
         <v>50</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>11</v>
@@ -5855,11 +5861,11 @@
         <v>50</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="3" t="s">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>11</v>
@@ -5876,11 +5882,11 @@
         <v>50</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>437</v>
+        <v>109</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="3" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>11</v>
@@ -5889,7 +5895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>111</v>
       </c>
@@ -5897,17 +5903,17 @@
         <v>50</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>222</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5918,17 +5924,17 @@
         <v>50</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5939,11 +5945,11 @@
         <v>50</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>11</v>
@@ -5952,70 +5958,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>111</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C194" s="23" t="s">
-        <v>148</v>
+      <c r="C194" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>111</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F195" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G194" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+      <c r="G195" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
         <v>120</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B196" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C196" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D195" s="10"/>
-      <c r="E195" s="8" t="s">
+      <c r="D196" s="10"/>
+      <c r="E196" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F196" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G195" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>121</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D196" s="11"/>
-      <c r="E196" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>121</v>
       </c>
@@ -6023,11 +6029,11 @@
         <v>138</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>11</v>
@@ -6036,7 +6042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>121</v>
       </c>
@@ -6044,11 +6050,11 @@
         <v>138</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>11</v>
@@ -6057,7 +6063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>121</v>
       </c>
@@ -6065,20 +6071,20 @@
         <v>138</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="3" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>121</v>
       </c>
@@ -6086,14 +6092,14 @@
         <v>138</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="3" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>4</v>
@@ -6107,60 +6113,58 @@
         <v>138</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>121</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D202" s="11"/>
+      <c r="E202" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+      <c r="F202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
         <v>200</v>
       </c>
-      <c r="B202" s="22" t="s">
+      <c r="B203" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C203" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D202" s="10"/>
-      <c r="E202" s="8" t="s">
+      <c r="D203" s="10"/>
+      <c r="E203" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F203" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G202" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>201</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="G203" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6172,20 +6176,22 @@
         <v>70</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D204" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E204" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>201</v>
       </c>
@@ -6193,11 +6199,11 @@
         <v>70</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>11</v>
@@ -6206,7 +6212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>201</v>
       </c>
@@ -6214,20 +6220,20 @@
         <v>70</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F206" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>201</v>
       </c>
@@ -6235,20 +6241,20 @@
         <v>70</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="3" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>201</v>
       </c>
@@ -6256,22 +6262,20 @@
         <v>70</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D208" s="11"/>
       <c r="E208" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>201</v>
       </c>
@@ -6279,20 +6283,20 @@
         <v>70</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D209" s="12"/>
-      <c r="E209" s="5" t="s">
-        <v>286</v>
+        <v>177</v>
+      </c>
+      <c r="D209" s="11"/>
+      <c r="E209" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>201</v>
       </c>
@@ -6300,17 +6304,19 @@
         <v>70</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="D210" s="12"/>
-      <c r="E210" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -6321,11 +6327,11 @@
         <v>70</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>8</v>
@@ -6334,7 +6340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>201</v>
       </c>
@@ -6342,11 +6348,11 @@
         <v>70</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>8</v>
@@ -6355,7 +6361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>201</v>
       </c>
@@ -6363,11 +6369,11 @@
         <v>70</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>8</v>
@@ -6376,7 +6382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201</v>
       </c>
@@ -6384,11 +6390,11 @@
         <v>70</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>8</v>
@@ -6397,7 +6403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>201</v>
       </c>
@@ -6405,11 +6411,11 @@
         <v>70</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>8</v>
@@ -6426,11 +6432,11 @@
         <v>70</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>8</v>
@@ -6439,7 +6445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>201</v>
       </c>
@@ -6447,11 +6453,11 @@
         <v>70</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>8</v>
@@ -6468,20 +6474,20 @@
         <v>70</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>201</v>
       </c>
@@ -6489,14 +6495,14 @@
         <v>70</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>134</v>
@@ -6510,11 +6516,11 @@
         <v>70</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>33</v>
@@ -6531,11 +6537,11 @@
         <v>70</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>33</v>
@@ -6552,11 +6558,11 @@
         <v>70</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>33</v>
@@ -6573,11 +6579,11 @@
         <v>70</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>33</v>
@@ -6586,7 +6592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>201</v>
       </c>
@@ -6594,11 +6600,11 @@
         <v>70</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>33</v>
@@ -6607,7 +6613,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>201</v>
       </c>
@@ -6615,11 +6621,11 @@
         <v>70</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>33</v>
@@ -6636,11 +6642,11 @@
         <v>70</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>33</v>
@@ -6657,11 +6663,11 @@
         <v>70</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D227" s="12"/>
       <c r="E227" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>33</v>
@@ -6670,7 +6676,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>201</v>
       </c>
@@ -6678,11 +6684,11 @@
         <v>70</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D228" s="12"/>
       <c r="E228" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>33</v>
@@ -6699,11 +6705,11 @@
         <v>70</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D229" s="12"/>
       <c r="E229" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>33</v>
@@ -6720,11 +6726,11 @@
         <v>70</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D230" s="12"/>
       <c r="E230" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>33</v>
@@ -6741,11 +6747,11 @@
         <v>70</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D231" s="12"/>
       <c r="E231" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>33</v>
@@ -6762,11 +6768,11 @@
         <v>70</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D232" s="12"/>
       <c r="E232" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>33</v>
@@ -6775,7 +6781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>201</v>
       </c>
@@ -6783,11 +6789,11 @@
         <v>70</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D233" s="12"/>
       <c r="E233" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>33</v>
@@ -6796,7 +6802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>201</v>
       </c>
@@ -6804,13 +6810,11 @@
         <v>70</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>407</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D234" s="12"/>
       <c r="E234" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>33</v>
@@ -6819,7 +6823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>201</v>
       </c>
@@ -6827,20 +6831,20 @@
         <v>70</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D235" s="12"/>
       <c r="E235" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>201</v>
       </c>
@@ -6848,14 +6852,16 @@
         <v>70</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D236" s="12"/>
+        <v>406</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="E236" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>134</v>
@@ -6869,11 +6875,11 @@
         <v>70</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>8</v>
@@ -6882,7 +6888,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>201</v>
       </c>
@@ -6890,11 +6896,11 @@
         <v>70</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>8</v>
@@ -6903,7 +6909,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>201</v>
       </c>
@@ -6911,11 +6917,11 @@
         <v>70</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D239" s="12"/>
       <c r="E239" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>8</v>
@@ -6924,7 +6930,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>201</v>
       </c>
@@ -6932,20 +6938,20 @@
         <v>70</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>201</v>
       </c>
@@ -6953,14 +6959,14 @@
         <v>70</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D241" s="12"/>
       <c r="E241" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>134</v>
@@ -6974,11 +6980,11 @@
         <v>70</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>33</v>
@@ -6995,20 +7001,20 @@
         <v>70</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>201</v>
       </c>
@@ -7016,20 +7022,20 @@
         <v>70</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>201</v>
       </c>
@@ -7037,11 +7043,11 @@
         <v>70</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>8</v>
@@ -7058,11 +7064,11 @@
         <v>70</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>8</v>
@@ -7079,11 +7085,11 @@
         <v>70</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>8</v>
@@ -7092,7 +7098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>201</v>
       </c>
@@ -7100,11 +7106,11 @@
         <v>70</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D248" s="12"/>
       <c r="E248" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>8</v>
@@ -7121,11 +7127,11 @@
         <v>70</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D249" s="12"/>
       <c r="E249" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>8</v>
@@ -7134,7 +7140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>201</v>
       </c>
@@ -7142,11 +7148,11 @@
         <v>70</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>8</v>
@@ -7163,11 +7169,11 @@
         <v>70</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D251" s="12"/>
       <c r="E251" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>8</v>
@@ -7176,7 +7182,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>201</v>
       </c>
@@ -7184,11 +7190,11 @@
         <v>70</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D252" s="12"/>
       <c r="E252" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>8</v>
@@ -7205,11 +7211,11 @@
         <v>70</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D253" s="12"/>
       <c r="E253" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>8</v>
@@ -7218,7 +7224,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>201</v>
       </c>
@@ -7226,11 +7232,11 @@
         <v>70</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>8</v>
@@ -7239,7 +7245,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>201</v>
       </c>
@@ -7247,11 +7253,11 @@
         <v>70</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>8</v>
@@ -7260,7 +7266,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>201</v>
       </c>
@@ -7268,11 +7274,11 @@
         <v>70</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>8</v>
@@ -7289,11 +7295,11 @@
         <v>70</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="5" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>8</v>
@@ -7310,11 +7316,11 @@
         <v>70</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D258" s="12"/>
       <c r="E258" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>8</v>
@@ -7331,11 +7337,11 @@
         <v>70</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="5" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>8</v>
@@ -7344,7 +7350,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>201</v>
       </c>
@@ -7352,11 +7358,11 @@
         <v>70</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="5" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>8</v>
@@ -7373,11 +7379,11 @@
         <v>70</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>8</v>
@@ -7386,7 +7392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>201</v>
       </c>
@@ -7394,20 +7400,20 @@
         <v>70</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="D262" s="11"/>
-      <c r="E262" s="3" t="s">
-        <v>433</v>
+        <v>394</v>
+      </c>
+      <c r="D262" s="12"/>
+      <c r="E262" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>201</v>
       </c>
@@ -7415,17 +7421,17 @@
         <v>70</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D263" s="11"/>
-      <c r="E263" s="3" t="s">
-        <v>434</v>
+        <v>395</v>
+      </c>
+      <c r="D263" s="12"/>
+      <c r="E263" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7436,11 +7442,11 @@
         <v>70</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>11</v>
@@ -7457,11 +7463,11 @@
         <v>70</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>11</v>
@@ -7478,14 +7484,14 @@
         <v>70</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>4</v>
@@ -7499,17 +7505,17 @@
         <v>70</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>409</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7520,14 +7526,14 @@
         <v>70</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>4</v>
@@ -7541,17 +7547,17 @@
         <v>70</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7562,11 +7568,11 @@
         <v>70</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>11</v>
@@ -7583,11 +7589,11 @@
         <v>70</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>11</v>
@@ -7597,56 +7603,62 @@
       </c>
     </row>
     <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
-        <v>310</v>
-      </c>
-      <c r="B272" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D272" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G272" s="8" t="s">
-        <v>140</v>
+      <c r="A272">
+        <v>201</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C272" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>311</v>
-      </c>
-      <c r="B273"/>
+        <v>201</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C273" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D273" s="12"/>
-      <c r="E273" s="5"/>
-      <c r="F273"/>
-      <c r="G273" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="D273" s="11"/>
+      <c r="E273" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="274" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D274" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>84</v>
+        <v>416</v>
       </c>
       <c r="F274" s="7" t="s">
         <v>3</v>
@@ -7655,85 +7667,79 @@
         <v>140</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275">
+        <v>311</v>
+      </c>
+      <c r="B275"/>
+      <c r="C275" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D275" s="12"/>
+      <c r="E275" s="5"/>
+      <c r="F275"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
+        <v>320</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>321</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B277" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C275" s="23" t="s">
+      <c r="C277" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="D275" s="11"/>
-      <c r="E275" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>322</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D276" s="11"/>
-      <c r="E276" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>322</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>322</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C278" s="21" t="s">
-        <v>6</v>
+      <c r="C278" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>140</v>
@@ -7747,35 +7753,35 @@
         <v>6</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>322</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C280" s="20" t="s">
-        <v>91</v>
+      <c r="C280" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>140</v>
@@ -7789,11 +7795,11 @@
         <v>6</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>11</v>
@@ -7810,11 +7816,11 @@
         <v>6</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>11</v>
@@ -7823,22 +7829,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>323</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C283" s="21" t="s">
-        <v>97</v>
+        <v>322</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>140</v>
@@ -7846,17 +7852,17 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>11</v>
@@ -7865,22 +7871,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>323</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C285" s="20" t="s">
-        <v>100</v>
+      <c r="C285" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>140</v>
@@ -7894,11 +7900,11 @@
         <v>97</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>11</v>
@@ -7915,11 +7921,11 @@
         <v>97</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="3" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>11</v>
@@ -7936,11 +7942,11 @@
         <v>97</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="3" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>11</v>
@@ -7957,100 +7963,100 @@
         <v>97</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="3" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="7">
-        <v>330</v>
-      </c>
-      <c r="B290" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D290" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E290" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G290" s="8" t="s">
+      <c r="A290">
+        <v>323</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D290" s="11"/>
+      <c r="E290" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G290" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>331</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C291" s="23" t="s">
-        <v>150</v>
+        <v>323</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D291" s="11"/>
       <c r="E291" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>332</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C292" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D292" s="11"/>
-      <c r="E292" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G292" s="3" t="s">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
+        <v>330</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G292" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>332</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C293" s="20" t="s">
-        <v>87</v>
+        <v>331</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D293" s="11"/>
       <c r="E293" s="3" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>140</v>
@@ -8063,15 +8069,15 @@
       <c r="B294" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C294" s="21" t="s">
-        <v>6</v>
+      <c r="C294" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>140</v>
@@ -8085,35 +8091,35 @@
         <v>6</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>332</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C296" s="20" t="s">
-        <v>91</v>
+      <c r="C296" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D296" s="11"/>
       <c r="E296" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>140</v>
@@ -8127,11 +8133,11 @@
         <v>6</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>11</v>
@@ -8148,11 +8154,11 @@
         <v>6</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D298" s="11"/>
       <c r="E298" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>11</v>
@@ -8169,37 +8175,35 @@
         <v>6</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D299" s="11"/>
       <c r="E299" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>333</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C300" s="21" t="s">
-        <v>97</v>
+        <v>332</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>140</v>
@@ -8207,41 +8211,43 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D301" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E301" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>333</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C302" s="20" t="s">
-        <v>100</v>
+      <c r="C302" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>140</v>
@@ -8255,11 +8261,11 @@
         <v>97</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D303" s="11"/>
       <c r="E303" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>11</v>
@@ -8276,11 +8282,11 @@
         <v>97</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D304" s="11"/>
       <c r="E304" s="3" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>11</v>
@@ -8297,11 +8303,11 @@
         <v>97</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>11</v>
@@ -8318,100 +8324,100 @@
         <v>97</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="3" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="7">
-        <v>340</v>
-      </c>
-      <c r="B307" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D307" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E307" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F307" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G307" s="8" t="s">
+      <c r="A307">
+        <v>333</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D307" s="11"/>
+      <c r="E307" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G307" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>341</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C308" s="23" t="s">
-        <v>149</v>
+        <v>333</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D308" s="11"/>
       <c r="E308" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>342</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C309" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D309" s="11"/>
-      <c r="E309" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F309" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G309" s="3" t="s">
+      <c r="A309" s="7">
+        <v>340</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G309" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>342</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>119</v>
+        <v>341</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C310" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>140</v>
@@ -8425,11 +8431,11 @@
         <v>97</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>8</v>
@@ -8438,22 +8444,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>342</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C312" s="21" t="s">
-        <v>97</v>
+      <c r="C312" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>140</v>
@@ -8467,35 +8473,35 @@
         <v>97</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D313" s="11"/>
       <c r="E313" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>342</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C314" s="20" t="s">
-        <v>62</v>
+      <c r="C314" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D314" s="11"/>
       <c r="E314" s="3" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>140</v>
@@ -8509,11 +8515,11 @@
         <v>97</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D315" s="11"/>
       <c r="E315" s="3" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>11</v>
@@ -8530,16 +8536,14 @@
         <v>97</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D316" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D316" s="11"/>
       <c r="E316" s="3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>140</v>
@@ -8553,24 +8557,62 @@
         <v>97</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D317" s="11"/>
       <c r="E317" s="3" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C318" s="20"/>
+      <c r="A318">
+        <v>342</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C319" s="20"/>
+      <c r="A319">
+        <v>342</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D319" s="11"/>
+      <c r="E319" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C320" s="20"/>
@@ -8653,10 +8695,16 @@
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="20"/>
     </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="20"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="20"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G347">
-    <sortCondition ref="A2:A347"/>
-    <sortCondition ref="C2:C347"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G349">
+    <sortCondition ref="A2:A349"/>
+    <sortCondition ref="C2:C349"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3ECA5F-217D-4E54-9D44-AD18316CD620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D99BEE-5B7D-403D-A36D-7469184FD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$344</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="430">
   <si>
     <t>opt</t>
   </si>
@@ -1801,13 +1801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E353" sqref="E353"/>
+      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,24 +5565,24 @@
       <c r="A177">
         <v>71</v>
       </c>
-      <c r="B177" s="20" t="s">
+      <c r="B177" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>141</v>
+      <c r="C177" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>71</v>
       </c>
@@ -5590,11 +5590,11 @@
         <v>44</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="3" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>10</v>
@@ -5611,11 +5611,11 @@
         <v>44</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>10</v>
@@ -5632,41 +5632,41 @@
         <v>44</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>71</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C181" s="20" t="s">
-        <v>140</v>
+      <c r="C181" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="3" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>71</v>
       </c>
@@ -5674,20 +5674,20 @@
         <v>44</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>71</v>
       </c>
@@ -5695,56 +5695,56 @@
         <v>44</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>71</v>
-      </c>
-      <c r="B185" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B185" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>146</v>
+      <c r="C185" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="3" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>3</v>
@@ -5752,23 +5752,23 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>71</v>
-      </c>
-      <c r="B186" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>148</v>
+      <c r="C186" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>111</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>111</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>201</v>
       </c>
@@ -7036,20 +7036,20 @@
         <v>69</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D247" s="10"/>
       <c r="E247" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>201</v>
       </c>
@@ -7057,11 +7057,11 @@
         <v>69</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>10</v>
@@ -7078,20 +7078,20 @@
         <v>69</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="D249" s="10"/>
       <c r="E249" s="3" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>201</v>
       </c>
@@ -7099,19 +7099,17 @@
         <v>69</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D250" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>38</v>
+        <v>186</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7122,20 +7120,22 @@
         <v>69</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D251" s="11"/>
-      <c r="E251" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>201</v>
       </c>
@@ -7143,11 +7143,11 @@
         <v>69</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D252" s="11"/>
       <c r="E252" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>7</v>
@@ -7156,7 +7156,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>201</v>
       </c>
@@ -7164,11 +7164,11 @@
         <v>69</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>7</v>
@@ -7185,11 +7185,11 @@
         <v>69</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>7</v>
@@ -7198,7 +7198,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>201</v>
       </c>
@@ -7206,11 +7206,11 @@
         <v>69</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>7</v>
@@ -7219,7 +7219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>201</v>
       </c>
@@ -7227,11 +7227,11 @@
         <v>69</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>7</v>
@@ -7248,11 +7248,11 @@
         <v>69</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D257" s="11"/>
       <c r="E257" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>7</v>
@@ -7269,11 +7269,11 @@
         <v>69</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D258" s="11"/>
       <c r="E258" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>7</v>
@@ -7282,7 +7282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>201</v>
       </c>
@@ -7290,11 +7290,11 @@
         <v>69</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D259" s="11"/>
       <c r="E259" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>7</v>
@@ -7303,7 +7303,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>201</v>
       </c>
@@ -7311,14 +7311,14 @@
         <v>69</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D260" s="11"/>
       <c r="E260" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>128</v>
@@ -7332,11 +7332,11 @@
         <v>69</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>32</v>
@@ -7353,11 +7353,11 @@
         <v>69</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D262" s="11"/>
       <c r="E262" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>32</v>
@@ -7374,11 +7374,11 @@
         <v>69</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>32</v>
@@ -7395,11 +7395,11 @@
         <v>69</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D264" s="11"/>
       <c r="E264" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>32</v>
@@ -7416,11 +7416,11 @@
         <v>69</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>32</v>
@@ -7429,7 +7429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>201</v>
       </c>
@@ -7437,11 +7437,11 @@
         <v>69</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>32</v>
@@ -7450,7 +7450,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>201</v>
       </c>
@@ -7458,11 +7458,11 @@
         <v>69</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>32</v>
@@ -7471,7 +7471,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>201</v>
       </c>
@@ -7479,11 +7479,11 @@
         <v>69</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>32</v>
@@ -7492,7 +7492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>201</v>
       </c>
@@ -7500,11 +7500,11 @@
         <v>69</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>32</v>
@@ -7521,11 +7521,11 @@
         <v>69</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>32</v>
@@ -7542,11 +7542,11 @@
         <v>69</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>32</v>
@@ -7563,11 +7563,11 @@
         <v>69</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>32</v>
@@ -7584,11 +7584,11 @@
         <v>69</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>32</v>
@@ -7605,11 +7605,11 @@
         <v>69</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>32</v>
@@ -7618,7 +7618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>201</v>
       </c>
@@ -7626,11 +7626,11 @@
         <v>69</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>32</v>
@@ -7639,7 +7639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>201</v>
       </c>
@@ -7647,13 +7647,11 @@
         <v>69</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>394</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D276" s="11"/>
       <c r="E276" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>32</v>
@@ -7662,7 +7660,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>201</v>
       </c>
@@ -7670,19 +7668,22 @@
         <v>69</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>357</v>
+        <v>393</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G277" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>201</v>
       </c>
@@ -7690,10 +7691,10 @@
         <v>69</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>7</v>
@@ -7702,7 +7703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>201</v>
       </c>
@@ -7710,10 +7711,10 @@
         <v>69</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>7</v>
@@ -7722,7 +7723,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>201</v>
       </c>
@@ -7730,10 +7731,10 @@
         <v>69</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>7</v>
@@ -7742,7 +7743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>201</v>
       </c>
@@ -7750,10 +7751,10 @@
         <v>69</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>7</v>
@@ -7762,7 +7763,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>201</v>
       </c>
@@ -7770,13 +7771,13 @@
         <v>69</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>128</v>
@@ -7790,10 +7791,10 @@
         <v>69</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>32</v>
@@ -7810,10 +7811,10 @@
         <v>69</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>32</v>
@@ -7830,19 +7831,19 @@
         <v>69</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>201</v>
       </c>
@@ -7850,10 +7851,10 @@
         <v>69</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>7</v>
@@ -7862,7 +7863,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>201</v>
       </c>
@@ -7870,10 +7871,10 @@
         <v>69</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>7</v>
@@ -7882,7 +7883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>201</v>
       </c>
@@ -7890,10 +7891,10 @@
         <v>69</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>7</v>
@@ -7902,7 +7903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>201</v>
       </c>
@@ -7910,10 +7911,10 @@
         <v>69</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>7</v>
@@ -7922,7 +7923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>201</v>
       </c>
@@ -7930,10 +7931,10 @@
         <v>69</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>7</v>
@@ -7942,7 +7943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>201</v>
       </c>
@@ -7950,10 +7951,10 @@
         <v>69</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>7</v>
@@ -7962,7 +7963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>201</v>
       </c>
@@ -7970,10 +7971,10 @@
         <v>69</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>7</v>
@@ -7982,7 +7983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>201</v>
       </c>
@@ -7990,10 +7991,10 @@
         <v>69</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>7</v>
@@ -8002,7 +8003,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>201</v>
       </c>
@@ -8010,10 +8011,10 @@
         <v>69</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>7</v>
@@ -8022,7 +8023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>201</v>
       </c>
@@ -8030,10 +8031,10 @@
         <v>69</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>7</v>
@@ -8050,10 +8051,10 @@
         <v>69</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>7</v>
@@ -8062,7 +8063,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>201</v>
       </c>
@@ -8070,10 +8071,10 @@
         <v>69</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>7</v>
@@ -8082,7 +8083,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>201</v>
       </c>
@@ -8090,10 +8091,10 @@
         <v>69</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>7</v>
@@ -8102,7 +8103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>201</v>
       </c>
@@ -8110,10 +8111,10 @@
         <v>69</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>7</v>
@@ -8122,7 +8123,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>201</v>
       </c>
@@ -8130,10 +8131,10 @@
         <v>69</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>7</v>
@@ -8142,7 +8143,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>201</v>
       </c>
@@ -8150,10 +8151,10 @@
         <v>69</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>7</v>
@@ -8170,10 +8171,10 @@
         <v>69</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>7</v>
@@ -8190,10 +8191,10 @@
         <v>69</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>7</v>
@@ -8202,7 +8203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>201</v>
       </c>
@@ -8210,17 +8211,16 @@
         <v>69</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D304" s="10"/>
-      <c r="E304" s="3" t="s">
-        <v>417</v>
+        <v>382</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G304" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8231,11 +8231,11 @@
         <v>69</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D305" s="10"/>
       <c r="E305" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>10</v>
@@ -8252,11 +8252,11 @@
         <v>69</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>103</v>
+        <v>420</v>
       </c>
       <c r="D306" s="10"/>
       <c r="E306" s="3" t="s">
-        <v>104</v>
+        <v>418</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>10</v>
@@ -8273,11 +8273,11 @@
         <v>69</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>421</v>
+        <v>103</v>
       </c>
       <c r="D307" s="10"/>
       <c r="E307" s="3" t="s">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>10</v>
@@ -8294,14 +8294,14 @@
         <v>69</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>7</v>
+        <v>416</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>3</v>
@@ -8315,17 +8315,17 @@
         <v>69</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D309" s="10"/>
       <c r="E309" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -8336,20 +8336,20 @@
         <v>69</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D310" s="10"/>
       <c r="E310" s="3" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>201</v>
       </c>
@@ -8357,14 +8357,14 @@
         <v>69</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D311" s="10"/>
       <c r="E311" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>3</v>
@@ -8378,11 +8378,11 @@
         <v>69</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D312" s="10"/>
       <c r="E312" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>10</v>
@@ -8399,24 +8399,60 @@
         <v>69</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>201</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D314" s="10"/>
+      <c r="E314" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>201</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C315" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D315" s="10"/>
+      <c r="E315" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F313" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C314" s="19"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C315" s="19"/>
+      <c r="F315" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C316" s="19"/>
@@ -8499,10 +8535,16 @@
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="19"/>
     </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="19"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="19"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G352">
-    <sortCondition ref="A2:A352"/>
-    <sortCondition ref="C2:C352"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G345">
+    <sortCondition ref="A2:A345"/>
+    <sortCondition ref="C2:C345"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D99BEE-5B7D-403D-A36D-7469184FD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5584DBD-C785-42A5-9469-5460A760D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$357</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="458">
   <si>
     <t>opt</t>
   </si>
@@ -1327,13 +1327,97 @@
   </si>
   <si>
     <t>container for numbered list</t>
+  </si>
+  <si>
+    <t>number of lines in page</t>
+  </si>
+  <si>
+    <t>number of words in page</t>
+  </si>
+  <si>
+    <t>number of paragraphs in page</t>
+  </si>
+  <si>
+    <t>noLinesPage</t>
+  </si>
+  <si>
+    <t>noParasPage</t>
+  </si>
+  <si>
+    <t>noWordsPage</t>
+  </si>
+  <si>
+    <t>noLinesPara</t>
+  </si>
+  <si>
+    <t>number of lines in paragraph</t>
+  </si>
+  <si>
+    <t>noWordsLine</t>
+  </si>
+  <si>
+    <t>noWordsPara</t>
+  </si>
+  <si>
+    <t>number of words in paragraph</t>
+  </si>
+  <si>
+    <t>number of words in line</t>
+  </si>
+  <si>
+    <t>noLinesHeading</t>
+  </si>
+  <si>
+    <t>number heading lines</t>
+  </si>
+  <si>
+    <t>noLinesListBullet</t>
+  </si>
+  <si>
+    <t>number bulleted list lines</t>
+  </si>
+  <si>
+    <t>noLinesListNumber</t>
+  </si>
+  <si>
+    <t>number numbered list lines</t>
+  </si>
+  <si>
+    <t>noLinesTable</t>
+  </si>
+  <si>
+    <t>number table lines</t>
+  </si>
+  <si>
+    <t>noFooters</t>
+  </si>
+  <si>
+    <t>noHeaders</t>
+  </si>
+  <si>
+    <t>number headers per page</t>
+  </si>
+  <si>
+    <t>number footers per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x</t>
+  </si>
+  <si>
+    <t>jsonInclSentences</t>
+  </si>
+  <si>
+    <t>include the sentences in the JSON file</t>
+  </si>
+  <si>
+    <t>setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,8 +1483,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1418,6 +1509,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1428,11 +1524,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1486,9 +1583,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1801,13 +1902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
+      <selection pane="bottomRight" activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1919,7 @@
     <col min="4" max="4" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,17 +2085,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>450</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>453</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
@@ -2028,19 +2131,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,13 +2152,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>10</v>
@@ -2074,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
@@ -2097,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
@@ -2120,20 +2221,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>444</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2141,20 +2244,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>446</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2162,19 +2267,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>394</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>10</v>
@@ -2208,144 +2313,148 @@
         <v>1</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>220</v>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>211</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="C20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>425</v>
+      <c r="C21" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="3" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="C22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
+        <v>130</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>424</v>
+        <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>218</v>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -2355,17 +2464,17 @@
       <c r="A25">
         <v>19</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>392</v>
+      <c r="C25" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>211</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>391</v>
@@ -2375,191 +2484,195 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B32" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="G32" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>21</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="B33" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>21</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>22</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>22</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>22</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>22</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>409</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="14" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>3</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <v>22</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>406</v>
+        <v>21</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>399</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>3</v>
@@ -2573,17 +2686,17 @@
         <v>220</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="14" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2594,17 +2707,17 @@
         <v>220</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
-        <v>241</v>
+        <v>404</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>415</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2615,20 +2728,20 @@
         <v>220</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
-        <v>242</v>
+        <v>407</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>22</v>
       </c>
@@ -2636,17 +2749,17 @@
         <v>220</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="s">
-        <v>243</v>
+        <v>408</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2657,17 +2770,17 @@
         <v>220</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17" t="s">
-        <v>244</v>
+        <v>409</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>412</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2678,20 +2791,20 @@
         <v>220</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="s">
-        <v>245</v>
+        <v>406</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>22</v>
       </c>
@@ -2699,20 +2812,20 @@
         <v>220</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17" t="s">
-        <v>246</v>
+        <v>455</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>22</v>
       </c>
@@ -2720,17 +2833,17 @@
         <v>220</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
-        <v>246</v>
+        <v>221</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2741,17 +2854,17 @@
         <v>220</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="17" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2762,20 +2875,20 @@
         <v>220</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>22</v>
       </c>
@@ -2783,17 +2896,17 @@
         <v>220</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2804,17 +2917,17 @@
         <v>220</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="17" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2825,20 +2938,20 @@
         <v>220</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>22</v>
       </c>
@@ -2846,20 +2959,20 @@
         <v>220</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>22</v>
       </c>
@@ -2867,20 +2980,20 @@
         <v>220</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>22</v>
       </c>
@@ -2888,20 +3001,20 @@
         <v>220</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>22</v>
       </c>
@@ -2909,17 +3022,17 @@
         <v>220</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2930,17 +3043,17 @@
         <v>220</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2951,20 +3064,20 @@
         <v>220</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="17" t="s">
         <v>250</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>22</v>
       </c>
@@ -2972,20 +3085,20 @@
         <v>220</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>388</v>
+        <v>233</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>22</v>
       </c>
@@ -2993,17 +3106,17 @@
         <v>220</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3014,20 +3127,20 @@
         <v>220</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="17" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>22</v>
       </c>
@@ -3035,17 +3148,17 @@
         <v>220</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="17" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3056,17 +3169,17 @@
         <v>220</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3077,17 +3190,17 @@
         <v>220</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3098,20 +3211,20 @@
         <v>220</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>22</v>
       </c>
@@ -3119,20 +3232,20 @@
         <v>220</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>22</v>
       </c>
@@ -3140,17 +3253,17 @@
         <v>220</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="17" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3161,17 +3274,17 @@
         <v>220</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3182,20 +3295,20 @@
         <v>220</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>22</v>
       </c>
@@ -3203,17 +3316,17 @@
         <v>220</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3224,17 +3337,17 @@
         <v>220</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3245,20 +3358,20 @@
         <v>220</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="17" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>22</v>
       </c>
@@ -3266,20 +3379,20 @@
         <v>220</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>22</v>
       </c>
@@ -3287,17 +3400,17 @@
         <v>220</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="17" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3308,20 +3421,20 @@
         <v>220</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="17" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>22</v>
       </c>
@@ -3329,17 +3442,17 @@
         <v>220</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="17" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3350,20 +3463,20 @@
         <v>220</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="17" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>22</v>
       </c>
@@ -3371,20 +3484,20 @@
         <v>220</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="17" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>22</v>
       </c>
@@ -3392,17 +3505,17 @@
         <v>220</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3413,20 +3526,20 @@
         <v>220</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>22</v>
       </c>
@@ -3434,17 +3547,17 @@
         <v>220</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3455,20 +3568,20 @@
         <v>220</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>22</v>
       </c>
@@ -3476,20 +3589,20 @@
         <v>220</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>22</v>
       </c>
@@ -3497,20 +3610,20 @@
         <v>220</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>22</v>
       </c>
@@ -3518,20 +3631,20 @@
         <v>220</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>22</v>
       </c>
@@ -3539,20 +3652,20 @@
         <v>220</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>22</v>
       </c>
@@ -3560,17 +3673,17 @@
         <v>220</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3581,17 +3694,17 @@
         <v>220</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3602,17 +3715,17 @@
         <v>220</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3623,20 +3736,20 @@
         <v>220</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>22</v>
       </c>
@@ -3644,17 +3757,17 @@
         <v>220</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3665,20 +3778,20 @@
         <v>220</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>22</v>
       </c>
@@ -3686,17 +3799,17 @@
         <v>220</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3707,17 +3820,17 @@
         <v>220</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3728,17 +3841,17 @@
         <v>220</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3749,17 +3862,17 @@
         <v>220</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3770,20 +3883,20 @@
         <v>220</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>22</v>
       </c>
@@ -3791,17 +3904,17 @@
         <v>220</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3812,20 +3925,20 @@
         <v>220</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>22</v>
       </c>
@@ -3833,20 +3946,20 @@
         <v>220</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>22</v>
       </c>
@@ -3854,20 +3967,20 @@
         <v>220</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>22</v>
       </c>
@@ -3875,20 +3988,20 @@
         <v>220</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>22</v>
       </c>
@@ -3896,20 +4009,20 @@
         <v>220</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="17" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>22</v>
       </c>
@@ -3917,20 +4030,20 @@
         <v>220</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>22</v>
       </c>
@@ -3938,20 +4051,20 @@
         <v>220</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>22</v>
       </c>
@@ -3959,20 +4072,20 @@
         <v>220</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>22</v>
       </c>
@@ -3980,20 +4093,20 @@
         <v>220</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>22</v>
       </c>
@@ -4001,17 +4114,17 @@
         <v>220</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4022,20 +4135,20 @@
         <v>220</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>22</v>
       </c>
@@ -4043,20 +4156,20 @@
         <v>220</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>22</v>
       </c>
@@ -4064,20 +4177,20 @@
         <v>220</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>22</v>
       </c>
@@ -4085,20 +4198,20 @@
         <v>220</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>22</v>
       </c>
@@ -4106,20 +4219,20 @@
         <v>220</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>22</v>
       </c>
@@ -4127,17 +4240,17 @@
         <v>220</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4148,20 +4261,20 @@
         <v>220</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>22</v>
       </c>
@@ -4169,20 +4282,20 @@
         <v>220</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>22</v>
       </c>
@@ -4190,20 +4303,20 @@
         <v>220</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>22</v>
       </c>
@@ -4211,20 +4324,20 @@
         <v>220</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>22</v>
       </c>
@@ -4232,20 +4345,20 @@
         <v>220</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>22</v>
       </c>
@@ -4253,17 +4366,17 @@
         <v>220</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4274,17 +4387,17 @@
         <v>220</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4295,20 +4408,20 @@
         <v>220</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>22</v>
       </c>
@@ -4316,20 +4429,20 @@
         <v>220</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="17" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>22</v>
       </c>
@@ -4337,20 +4450,20 @@
         <v>220</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="17" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>22</v>
       </c>
@@ -4358,17 +4471,17 @@
         <v>220</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="17" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4379,20 +4492,20 @@
         <v>220</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>22</v>
       </c>
@@ -4400,20 +4513,20 @@
         <v>220</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="17" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="F122" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>22</v>
       </c>
@@ -4421,186 +4534,186 @@
         <v>220</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>22</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>22</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>22</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126" s="16"/>
+      <c r="E126" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
+        <v>22</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" s="16"/>
+      <c r="E127" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
+        <v>22</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
+        <v>22</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D129" s="16"/>
+      <c r="E129" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>22</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="E130" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="F123" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+      <c r="F130" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
         <v>30</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B131" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C131" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D131" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F131" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>31</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>31</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>31</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>31</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>31</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>31</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="10"/>
-      <c r="E130" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>31</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4612,207 +4725,205 @@
         <v>29</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
-        <v>40</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>134</v>
+      <c r="A133">
+        <v>31</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="3" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="3" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="3" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="F136" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>31</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
-        <v>41</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>134</v>
+      <c r="G137" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>42</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>143</v>
+        <v>31</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>43</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="3" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>40</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>43</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="3" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>134</v>
@@ -4820,20 +4931,20 @@
     </row>
     <row r="142" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>134</v>
@@ -4841,19 +4952,17 @@
     </row>
     <row r="143" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D143" s="10"/>
       <c r="E143" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>7</v>
@@ -4863,83 +4972,83 @@
       </c>
     </row>
     <row r="144" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="6">
+        <v>41</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>43</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B146" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
-        <v>50</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>51</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>84</v>
+      <c r="C146" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>10</v>
@@ -4950,17 +5059,17 @@
     </row>
     <row r="148" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>10</v>
@@ -4969,19 +5078,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>10</v>
@@ -4990,85 +5099,89 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D150" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E150" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>52</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>53</v>
+    <row r="152" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>50</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F152" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>134</v>
@@ -5076,17 +5189,17 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>10</v>
@@ -5095,19 +5208,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>10</v>
@@ -5118,17 +5231,17 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>10</v>
@@ -5139,17 +5252,17 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>10</v>
@@ -5160,64 +5273,62 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>53</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="3" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
-        <v>60</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F159" s="6" t="s">
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>53</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G159" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>134</v>
@@ -5225,17 +5336,17 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>10</v>
@@ -5246,17 +5357,17 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>10</v>
@@ -5267,17 +5378,17 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>10</v>
@@ -5288,17 +5399,17 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>10</v>
@@ -5309,19 +5420,17 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D165" s="10"/>
       <c r="E165" s="3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>7</v>
@@ -5331,42 +5440,44 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>62</v>
+      <c r="A166" s="6">
+        <v>60</v>
       </c>
       <c r="B166" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D166" s="10"/>
-      <c r="E166" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F166" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>61</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>63</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>93</v>
+      <c r="C167" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>134</v>
@@ -5374,17 +5485,17 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>10</v>
@@ -5395,17 +5506,17 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>10</v>
@@ -5416,17 +5527,17 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>10</v>
@@ -5437,17 +5548,17 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>10</v>
@@ -5458,20 +5569,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E172" s="3" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>134</v>
@@ -5479,191 +5592,191 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>63</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="3" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
-        <v>70</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F174" s="6" t="s">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>63</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>3</v>
+      <c r="G174" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="3" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="3" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="3" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>71</v>
-      </c>
-      <c r="B181" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>70</v>
+      </c>
+      <c r="B181" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C181" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>128</v>
+      <c r="C181" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,11 +5787,11 @@
         <v>44</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>10</v>
@@ -5695,11 +5808,11 @@
         <v>44</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>10</v>
@@ -5710,41 +5823,41 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>79</v>
-      </c>
-      <c r="B184" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C184" s="20" t="s">
-        <v>141</v>
+      <c r="C184" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>5</v>
+        <v>430</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>79</v>
-      </c>
-      <c r="B185" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C185" s="20" t="s">
-        <v>140</v>
+      <c r="C185" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="3" t="s">
-        <v>46</v>
+        <v>432</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>3</v>
@@ -5752,254 +5865,259 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>79</v>
-      </c>
-      <c r="B186" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="20" t="s">
-        <v>129</v>
+      <c r="C186" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>5</v>
+        <v>431</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="6">
-        <v>80</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
-        <v>81</v>
-      </c>
-      <c r="B188" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D188" s="15"/>
-      <c r="E188" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F188" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G188" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>71</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D187" s="10"/>
+      <c r="E187" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>71</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D188" s="10"/>
+      <c r="E188" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D189" s="10"/>
       <c r="E189" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>7</v>
+        <v>169</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D190" s="10"/>
       <c r="E190" s="3" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F191" t="s">
-        <v>7</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>3</v>
+        <v>152</v>
+      </c>
+      <c r="D191" s="10"/>
+      <c r="E191" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F192" t="s">
-        <v>7</v>
-      </c>
-      <c r="G192" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D192" s="10"/>
+      <c r="E192" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F193" t="s">
-        <v>7</v>
-      </c>
-      <c r="G193" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" s="10"/>
+      <c r="E193" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>82</v>
-      </c>
-      <c r="B194" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D194" s="10"/>
+      <c r="E194" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>79</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D195" s="10"/>
+      <c r="E195" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>80</v>
+      </c>
+      <c r="B196" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F194" t="s">
-        <v>7</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>82</v>
-      </c>
-      <c r="B195" s="3" t="s">
+      <c r="C196" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C195" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F195" t="s">
-        <v>32</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>82</v>
-      </c>
-      <c r="B196" s="3" t="s">
+      <c r="D196" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="13">
+        <v>81</v>
+      </c>
+      <c r="B197" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C196" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F196" t="s">
-        <v>32</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>82</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F197" t="s">
-        <v>32</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C197" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D197" s="15"/>
+      <c r="E197" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>82</v>
       </c>
@@ -6007,16 +6125,17 @@
         <v>392</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F198" t="s">
-        <v>32</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>3</v>
+        <v>188</v>
+      </c>
+      <c r="D198" s="10"/>
+      <c r="E198" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6027,250 +6146,244 @@
         <v>392</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F199" t="s">
-        <v>32</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="13">
-        <v>83</v>
-      </c>
-      <c r="B200" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C200" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="D200" s="15"/>
-      <c r="E200" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>3</v>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>82</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F200" t="s">
+        <v>7</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="6">
-        <v>100</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D201" s="9"/>
-      <c r="E201" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>3</v>
+      <c r="A201">
+        <v>82</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D202" s="10"/>
-      <c r="E202" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F202" t="s">
+        <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F203" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>82</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>82</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>82</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F206" t="s">
+        <v>32</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>82</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F207" t="s">
+        <v>32</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>82</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="13">
+        <v>83</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D209" s="15"/>
+      <c r="E209" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>100</v>
+      </c>
+      <c r="B210" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C203" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D203" s="10"/>
-      <c r="E203" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>101</v>
-      </c>
-      <c r="B204" s="3" t="s">
+      <c r="C210" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C204" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D204" s="10"/>
-      <c r="E204" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>101</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D205" s="10"/>
-      <c r="E205" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>101</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C206" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D206" s="10"/>
-      <c r="E206" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>101</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" s="10"/>
-      <c r="E207" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>101</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D208" s="10"/>
-      <c r="E208" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>101</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D209" s="10"/>
-      <c r="E209" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>101</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D210" s="10"/>
-      <c r="E210" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="9"/>
+      <c r="E210" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>101</v>
       </c>
@@ -6278,20 +6391,20 @@
         <v>57</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>420</v>
+        <v>59</v>
       </c>
       <c r="D211" s="10"/>
       <c r="E211" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F211" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>101</v>
       </c>
@@ -6299,20 +6412,20 @@
         <v>57</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D212" s="10"/>
       <c r="E212" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F212" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>101</v>
       </c>
@@ -6320,20 +6433,20 @@
         <v>57</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>421</v>
+        <v>63</v>
       </c>
       <c r="D213" s="10"/>
       <c r="E213" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F213" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>101</v>
       </c>
@@ -6341,20 +6454,20 @@
         <v>57</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D214" s="10"/>
       <c r="E214" s="3" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>101</v>
       </c>
@@ -6362,20 +6475,20 @@
         <v>57</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="D215" s="10"/>
       <c r="E215" s="3" t="s">
-        <v>127</v>
+        <v>441</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>101</v>
       </c>
@@ -6383,20 +6496,20 @@
         <v>57</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D216" s="10"/>
       <c r="E216" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>101</v>
       </c>
@@ -6404,20 +6517,20 @@
         <v>57</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D217" s="10"/>
       <c r="E217" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F217" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>101</v>
       </c>
@@ -6425,11 +6538,11 @@
         <v>57</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D218" s="10"/>
       <c r="E218" s="3" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>10</v>
@@ -6446,76 +6559,76 @@
         <v>57</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="D219" s="10"/>
       <c r="E219" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F219" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6">
-        <v>110</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D220" s="9"/>
-      <c r="E220" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>101</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D220" s="10"/>
+      <c r="E220" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F221" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F221" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F222" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="3" t="s">
@@ -6524,17 +6637,17 @@
     </row>
     <row r="223" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="D223" s="10"/>
       <c r="E223" s="3" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>10</v>
@@ -6543,22 +6656,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="3" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>3</v>
@@ -6566,131 +6679,131 @@
     </row>
     <row r="225" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="3" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="D228" s="10"/>
       <c r="E228" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F228" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F228" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F229" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>111</v>
-      </c>
-      <c r="B230" s="3" t="s">
+    <row r="230" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>110</v>
+      </c>
+      <c r="B230" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C230" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D230" s="10"/>
-      <c r="E230" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C230" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" s="9"/>
+      <c r="E230" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>111</v>
       </c>
@@ -6698,20 +6811,20 @@
         <v>49</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>421</v>
+        <v>150</v>
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F231" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>111</v>
       </c>
@@ -6719,20 +6832,20 @@
         <v>49</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>111</v>
       </c>
@@ -6740,11 +6853,11 @@
         <v>49</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>146</v>
+        <v>436</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="3" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>10</v>
@@ -6753,7 +6866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>111</v>
       </c>
@@ -6761,11 +6874,11 @@
         <v>49</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>148</v>
+        <v>439</v>
       </c>
       <c r="D234" s="10"/>
       <c r="E234" s="3" t="s">
-        <v>156</v>
+        <v>440</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>10</v>
@@ -6774,61 +6887,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>111</v>
       </c>
-      <c r="B235" s="20" t="s">
+      <c r="B235" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C235" s="20" t="s">
-        <v>142</v>
+      <c r="C235" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6">
-        <v>120</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D236" s="9"/>
-      <c r="E236" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>111</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" s="10"/>
+      <c r="E236" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="3" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>10</v>
@@ -6837,105 +6950,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="3" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="D240" s="10"/>
       <c r="E240" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>7</v>
+        <v>417</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>146</v>
+        <v>420</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F241" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F242" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F242" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="3" t="s">
@@ -6943,83 +7056,81 @@
       </c>
     </row>
     <row r="243" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6">
-        <v>200</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C243" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D243" s="9"/>
-      <c r="E243" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>111</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D243" s="10"/>
+      <c r="E243" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D244" s="10"/>
       <c r="E244" s="3" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F245" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F245" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="D246" s="10"/>
       <c r="E246" s="3" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>10</v>
@@ -7028,219 +7139,219 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>201</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C247" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D247" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E247" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>38</v>
+        <v>131</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>201</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>47</v>
+        <v>119</v>
+      </c>
+      <c r="B248" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>201</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C249" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D249" s="10"/>
-      <c r="E249" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="3" t="s">
+    <row r="249" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>120</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C249" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D249" s="9"/>
+      <c r="E249" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C250" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F250" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F250" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D251" s="10"/>
+      <c r="E251" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>121</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D252" s="10"/>
+      <c r="E252" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>121</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D253" s="10"/>
+      <c r="E253" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>121</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D254" s="10"/>
+      <c r="E254" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>121</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D255" s="10"/>
+      <c r="E255" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>200</v>
+      </c>
+      <c r="B256" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C251" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>201</v>
-      </c>
-      <c r="B252" s="3" t="s">
+      <c r="C256" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C252" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D252" s="11"/>
-      <c r="E252" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>201</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>201</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D254" s="11"/>
-      <c r="E254" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G254" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>201</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C255" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D255" s="11"/>
-      <c r="E255" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>201</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D256" s="11"/>
-      <c r="E256" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D256" s="9"/>
+      <c r="E256" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>201</v>
       </c>
@@ -7248,20 +7359,22 @@
         <v>69</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D257" s="11"/>
-      <c r="E257" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F257" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F257" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G257" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G257" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>201</v>
       </c>
@@ -7269,20 +7382,20 @@
         <v>69</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D258" s="11"/>
-      <c r="E258" s="5" t="s">
-        <v>279</v>
+        <v>59</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G258" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>201</v>
       </c>
@@ -7290,20 +7403,20 @@
         <v>69</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D259" s="11"/>
-      <c r="E259" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D259" s="10"/>
+      <c r="E259" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>201</v>
       </c>
@@ -7311,20 +7424,20 @@
         <v>69</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D260" s="11"/>
-      <c r="E260" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G260" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D260" s="10"/>
+      <c r="E260" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>201</v>
       </c>
@@ -7332,17 +7445,17 @@
         <v>69</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="5" t="s">
-        <v>282</v>
+        <v>47</v>
+      </c>
+      <c r="D261" s="10"/>
+      <c r="E261" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G261" s="5" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7353,17 +7466,17 @@
         <v>69</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="D262" s="11"/>
-      <c r="E262" s="5" t="s">
-        <v>283</v>
+        <v>52</v>
+      </c>
+      <c r="D262" s="10"/>
+      <c r="E262" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7374,20 +7487,20 @@
         <v>69</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D263" s="11"/>
-      <c r="E263" s="5" t="s">
-        <v>284</v>
+        <v>170</v>
+      </c>
+      <c r="D263" s="10"/>
+      <c r="E263" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G263" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>201</v>
       </c>
@@ -7395,20 +7508,22 @@
         <v>69</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D264" s="11"/>
-      <c r="E264" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>201</v>
       </c>
@@ -7416,14 +7531,14 @@
         <v>69</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="D265" s="11"/>
       <c r="E265" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>128</v>
@@ -7437,14 +7552,14 @@
         <v>69</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="5" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>128</v>
@@ -7458,20 +7573,20 @@
         <v>69</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>201</v>
       </c>
@@ -7479,20 +7594,20 @@
         <v>69</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>201</v>
       </c>
@@ -7500,14 +7615,14 @@
         <v>69</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>128</v>
@@ -7521,14 +7636,14 @@
         <v>69</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>128</v>
@@ -7542,14 +7657,14 @@
         <v>69</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>128</v>
@@ -7563,20 +7678,20 @@
         <v>69</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>201</v>
       </c>
@@ -7584,14 +7699,14 @@
         <v>69</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G273" s="5" t="s">
         <v>128</v>
@@ -7605,11 +7720,11 @@
         <v>69</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="5" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>32</v>
@@ -7626,11 +7741,11 @@
         <v>69</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="5" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>32</v>
@@ -7639,7 +7754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>201</v>
       </c>
@@ -7647,11 +7762,11 @@
         <v>69</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>32</v>
@@ -7660,7 +7775,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>201</v>
       </c>
@@ -7668,13 +7783,11 @@
         <v>69</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D277" s="11" t="s">
-        <v>394</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D277" s="11"/>
       <c r="E277" s="5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>32</v>
@@ -7683,7 +7796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>201</v>
       </c>
@@ -7691,19 +7804,20 @@
         <v>69</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>357</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D278" s="11"/>
       <c r="E278" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>201</v>
       </c>
@@ -7711,19 +7825,20 @@
         <v>69</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D279" s="11"/>
       <c r="E279" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>201</v>
       </c>
@@ -7731,19 +7846,20 @@
         <v>69</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>359</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D280" s="11"/>
       <c r="E280" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>201</v>
       </c>
@@ -7751,19 +7867,20 @@
         <v>69</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>360</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D281" s="11"/>
       <c r="E281" s="5" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>201</v>
       </c>
@@ -7771,19 +7888,20 @@
         <v>69</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>361</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D282" s="11"/>
       <c r="E282" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>201</v>
       </c>
@@ -7791,10 +7909,11 @@
         <v>69</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>362</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D283" s="11"/>
       <c r="E283" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>32</v>
@@ -7803,7 +7922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>201</v>
       </c>
@@ -7811,10 +7930,11 @@
         <v>69</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>363</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="D284" s="11"/>
       <c r="E284" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>32</v>
@@ -7823,7 +7943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>201</v>
       </c>
@@ -7831,10 +7951,11 @@
         <v>69</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>395</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D285" s="11"/>
       <c r="E285" s="5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>32</v>
@@ -7843,7 +7964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>201</v>
       </c>
@@ -7851,19 +7972,20 @@
         <v>69</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>364</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="D286" s="11"/>
       <c r="E286" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>201</v>
       </c>
@@ -7871,19 +7993,20 @@
         <v>69</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>365</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D287" s="11"/>
       <c r="E287" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>201</v>
       </c>
@@ -7891,19 +8014,20 @@
         <v>69</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>366</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="D288" s="11"/>
       <c r="E288" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G288" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>201</v>
       </c>
@@ -7911,19 +8035,20 @@
         <v>69</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>367</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D289" s="11"/>
       <c r="E289" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>201</v>
       </c>
@@ -7931,13 +8056,16 @@
         <v>69</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>368</v>
+        <v>393</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>128</v>
@@ -7951,10 +8079,10 @@
         <v>69</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>7</v>
@@ -7971,10 +8099,10 @@
         <v>69</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>7</v>
@@ -7983,7 +8111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>201</v>
       </c>
@@ -7991,10 +8119,10 @@
         <v>69</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>7</v>
@@ -8003,7 +8131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>201</v>
       </c>
@@ -8011,10 +8139,10 @@
         <v>69</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>7</v>
@@ -8023,7 +8151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>201</v>
       </c>
@@ -8031,10 +8159,10 @@
         <v>69</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>7</v>
@@ -8043,7 +8171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>201</v>
       </c>
@@ -8051,19 +8179,19 @@
         <v>69</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>201</v>
       </c>
@@ -8071,13 +8199,13 @@
         <v>69</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>128</v>
@@ -8091,19 +8219,19 @@
         <v>69</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G298" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>201</v>
       </c>
@@ -8111,10 +8239,10 @@
         <v>69</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>7</v>
@@ -8123,7 +8251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>201</v>
       </c>
@@ -8131,10 +8259,10 @@
         <v>69</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>7</v>
@@ -8143,7 +8271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>201</v>
       </c>
@@ -8151,10 +8279,10 @@
         <v>69</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>7</v>
@@ -8163,7 +8291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>201</v>
       </c>
@@ -8171,10 +8299,10 @@
         <v>69</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>7</v>
@@ -8183,7 +8311,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>201</v>
       </c>
@@ -8191,10 +8319,10 @@
         <v>69</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>7</v>
@@ -8211,10 +8339,10 @@
         <v>69</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>7</v>
@@ -8223,7 +8351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>201</v>
       </c>
@@ -8231,20 +8359,19 @@
         <v>69</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D305" s="10"/>
-      <c r="E305" s="3" t="s">
-        <v>417</v>
+        <v>370</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>201</v>
       </c>
@@ -8252,20 +8379,19 @@
         <v>69</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D306" s="10"/>
-      <c r="E306" s="3" t="s">
-        <v>418</v>
+        <v>371</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>201</v>
       </c>
@@ -8273,20 +8399,19 @@
         <v>69</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D307" s="10"/>
-      <c r="E307" s="3" t="s">
-        <v>104</v>
+        <v>372</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>201</v>
       </c>
@@ -8294,20 +8419,19 @@
         <v>69</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="D308" s="10"/>
-      <c r="E308" s="3" t="s">
-        <v>416</v>
+        <v>373</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>201</v>
       </c>
@@ -8315,20 +8439,19 @@
         <v>69</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D309" s="10"/>
-      <c r="E309" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F309" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F309" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G309" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G309" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>201</v>
       </c>
@@ -8336,17 +8459,16 @@
         <v>69</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D310" s="10"/>
-      <c r="E310" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F310" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F310" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G310" s="3" t="s">
-        <v>396</v>
+      <c r="G310" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8357,17 +8479,16 @@
         <v>69</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D311" s="10"/>
-      <c r="E311" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G311" s="3" t="s">
-        <v>3</v>
+        <v>376</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8378,20 +8499,19 @@
         <v>69</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D312" s="10"/>
-      <c r="E312" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G312" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>201</v>
       </c>
@@ -8399,17 +8519,16 @@
         <v>69</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D313" s="10"/>
-      <c r="E313" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F313" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>3</v>
+        <v>378</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -8420,20 +8539,19 @@
         <v>69</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D314" s="10"/>
-      <c r="E314" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F314" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G314" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>201</v>
       </c>
@@ -8441,80 +8559,311 @@
         <v>69</v>
       </c>
       <c r="C315" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>201</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>201</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>201</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D318" s="10"/>
+      <c r="E318" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>201</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D319" s="10"/>
+      <c r="E319" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>201</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D320" s="10"/>
+      <c r="E320" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>201</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D321" s="10"/>
+      <c r="E321" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>201</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D322" s="10"/>
+      <c r="E322" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>201</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D323" s="10"/>
+      <c r="E323" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>201</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D324" s="10"/>
+      <c r="E324" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>201</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D325" s="10"/>
+      <c r="E325" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>201</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" s="10"/>
+      <c r="E326" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>201</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D327" s="10"/>
+      <c r="E327" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>201</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D315" s="10"/>
-      <c r="E315" s="3" t="s">
+      <c r="D328" s="10"/>
+      <c r="E328" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F315" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C316" s="19"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C317" s="19"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C318" s="19"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C319" s="19"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C320" s="19"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="19"/>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="19"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="19"/>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="19"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="19"/>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="19"/>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="19"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="19"/>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F328" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C329" s="19"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C330" s="19"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C331" s="19"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C332" s="19"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C333" s="19"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C334" s="19"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C335" s="19"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C336" s="19"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
@@ -8541,10 +8890,49 @@
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="19"/>
     </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="19"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="19"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="19"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="19"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="19"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="19"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="19"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="19"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="19"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="19"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="19"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="19"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="19"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G345">
-    <sortCondition ref="A2:A345"/>
-    <sortCondition ref="C2:C345"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G357">
+    <sortCondition ref="A2:A357"/>
+    <sortCondition ref="C2:C357"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/resources/data/DCR-CORE Processing Results.xlsx
+++ b/resources/data/DCR-CORE Processing Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\dcr-core\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5584DBD-C785-42A5-9469-5460A760D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6574C8F5-F5DA-4030-A6A4-DA1E633D3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A867BFB1-D755-49CD-B3E2-0B4C7756B93E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$357</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$358</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="459">
   <si>
     <t>opt</t>
   </si>
@@ -354,12 +354,6 @@
     <t>table number in document</t>
   </si>
   <si>
-    <t>toc</t>
-  </si>
-  <si>
-    <t>container for toc</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -372,27 +366,6 @@
     <t>heading</t>
   </si>
   <si>
-    <t>ctxtLine1</t>
-  </si>
-  <si>
-    <t>ctxtLine3</t>
-  </si>
-  <si>
-    <t>ctxtLine2</t>
-  </si>
-  <si>
-    <t>container for heading entries</t>
-  </si>
-  <si>
-    <t>1. context line</t>
-  </si>
-  <si>
-    <t>2. context line</t>
-  </si>
-  <si>
-    <t>3. context line</t>
-  </si>
-  <si>
     <t>container for heading entry</t>
   </si>
   <si>
@@ -1411,6 +1384,36 @@
   </si>
   <si>
     <t>setup</t>
+  </si>
+  <si>
+    <t>ctxLine1</t>
+  </si>
+  <si>
+    <t>context line 1</t>
+  </si>
+  <si>
+    <t>ctxLine2</t>
+  </si>
+  <si>
+    <t>context line 2</t>
+  </si>
+  <si>
+    <t>context line 3</t>
+  </si>
+  <si>
+    <t>ctxLine3</t>
+  </si>
+  <si>
+    <t>listBullet</t>
+  </si>
+  <si>
+    <t>listNumber</t>
+  </si>
+  <si>
+    <t>entryBullet</t>
+  </si>
+  <si>
+    <t>entryNumber</t>
   </si>
 </sst>
 </file>
@@ -1902,20 +1905,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C03C698-356E-4945-9844-768647DA2DBE}">
-  <dimension ref="A1:G357"/>
+  <dimension ref="A1:G358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I248" sqref="I248"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
@@ -1924,25 +1927,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
@@ -1974,17 +1977,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,17 +1998,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2016,19 +2019,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,19 +2042,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2062,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -2085,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2108,19 +2111,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,7 +2138,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
@@ -2155,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -2164,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
@@ -2187,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2198,19 +2201,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,19 +2224,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,19 +2247,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,19 +2270,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
@@ -2302,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -2325,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -2348,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,19 +2404,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2427,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -2436,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2451,7 +2454,7 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>10</v>
@@ -2468,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>3</v>
@@ -2491,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2514,11 +2517,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>5</v>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="3" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -2577,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="3" t="s">
@@ -2598,16 +2601,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3</v>
@@ -2618,19 +2621,19 @@
         <v>20</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>3</v>
@@ -2641,20 +2644,20 @@
         <v>21</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="14" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2662,17 +2665,17 @@
         <v>21</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>3</v>
@@ -2683,20 +2686,20 @@
         <v>22</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="14" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2704,20 +2707,20 @@
         <v>22</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2725,20 +2728,20 @@
         <v>22</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2746,20 +2749,20 @@
         <v>22</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2767,20 +2770,20 @@
         <v>22</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="14" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2788,20 +2791,20 @@
         <v>22</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2809,20 +2812,20 @@
         <v>22</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="14" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2830,20 +2833,20 @@
         <v>22</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2851,20 +2854,20 @@
         <v>22</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="17" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2872,20 +2875,20 @@
         <v>22</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="17" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,20 +2896,20 @@
         <v>22</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="17" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2914,20 +2917,20 @@
         <v>22</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="17" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2935,20 +2938,20 @@
         <v>22</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="17" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2956,20 +2959,20 @@
         <v>22</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2977,20 +2980,20 @@
         <v>22</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2998,20 +3001,20 @@
         <v>22</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3019,20 +3022,20 @@
         <v>22</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="17" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3040,20 +3043,20 @@
         <v>22</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3061,20 +3064,20 @@
         <v>22</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="17" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3082,20 +3085,20 @@
         <v>22</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="17" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3103,20 +3106,20 @@
         <v>22</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="17" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3124,20 +3127,20 @@
         <v>22</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="17" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3145,20 +3148,20 @@
         <v>22</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="17" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3166,20 +3169,20 @@
         <v>22</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="17" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3187,20 +3190,20 @@
         <v>22</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3208,20 +3211,20 @@
         <v>22</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="17" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3229,20 +3232,20 @@
         <v>22</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="17" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3250,20 +3253,20 @@
         <v>22</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="17" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3271,20 +3274,20 @@
         <v>22</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="17" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3292,20 +3295,20 @@
         <v>22</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="17" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3313,20 +3316,20 @@
         <v>22</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3334,20 +3337,20 @@
         <v>22</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="17" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3355,20 +3358,20 @@
         <v>22</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3376,20 +3379,20 @@
         <v>22</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3397,20 +3400,20 @@
         <v>22</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="17" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3418,20 +3421,20 @@
         <v>22</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3439,20 +3442,20 @@
         <v>22</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3460,20 +3463,20 @@
         <v>22</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3481,20 +3484,20 @@
         <v>22</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3502,20 +3505,20 @@
         <v>22</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="17" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3523,20 +3526,20 @@
         <v>22</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="17" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3544,20 +3547,20 @@
         <v>22</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3565,20 +3568,20 @@
         <v>22</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,20 +3589,20 @@
         <v>22</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3607,20 +3610,20 @@
         <v>22</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,20 +3631,20 @@
         <v>22</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,20 +3652,20 @@
         <v>22</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3670,20 +3673,20 @@
         <v>22</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3691,20 +3694,20 @@
         <v>22</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="17" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3712,20 +3715,20 @@
         <v>22</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="17" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3733,20 +3736,20 @@
         <v>22</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3754,20 +3757,20 @@
         <v>22</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="17" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3775,20 +3778,20 @@
         <v>22</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="17" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3796,20 +3799,20 @@
         <v>22</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="17" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3817,20 +3820,20 @@
         <v>22</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D89" s="16"/>
       <c r="E89" s="17" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3838,20 +3841,20 @@
         <v>22</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="17" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3859,20 +3862,20 @@
         <v>22</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="17" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3880,20 +3883,20 @@
         <v>22</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="17" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3901,20 +3904,20 @@
         <v>22</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="17" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3922,20 +3925,20 @@
         <v>22</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="17" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,20 +3946,20 @@
         <v>22</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="17" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3964,20 +3967,20 @@
         <v>22</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="17" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3985,20 +3988,20 @@
         <v>22</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="17" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4006,20 +4009,20 @@
         <v>22</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="17" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4027,20 +4030,20 @@
         <v>22</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="17" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4048,20 +4051,20 @@
         <v>22</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="17" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4069,20 +4072,20 @@
         <v>22</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="17" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4090,20 +4093,20 @@
         <v>22</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="17" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4111,20 +4114,20 @@
         <v>22</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4132,20 +4135,20 @@
         <v>22</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="17" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4153,20 +4156,20 @@
         <v>22</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4174,20 +4177,20 @@
         <v>22</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4195,20 +4198,20 @@
         <v>22</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="17" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4216,20 +4219,20 @@
         <v>22</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="17" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4237,20 +4240,20 @@
         <v>22</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="17" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4258,20 +4261,20 @@
         <v>22</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4279,20 +4282,20 @@
         <v>22</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4300,20 +4303,20 @@
         <v>22</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4321,20 +4324,20 @@
         <v>22</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4342,20 +4345,20 @@
         <v>22</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4363,20 +4366,20 @@
         <v>22</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4384,20 +4387,20 @@
         <v>22</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4405,20 +4408,20 @@
         <v>22</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4426,20 +4429,20 @@
         <v>22</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4447,20 +4450,20 @@
         <v>22</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="17" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4468,20 +4471,20 @@
         <v>22</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4489,20 +4492,20 @@
         <v>22</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4510,20 +4513,20 @@
         <v>22</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F122" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4531,20 +4534,20 @@
         <v>22</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4552,20 +4555,20 @@
         <v>22</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F124" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4573,20 +4576,20 @@
         <v>22</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="17" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F125" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4594,20 +4597,20 @@
         <v>22</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="17" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F126" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4615,20 +4618,20 @@
         <v>22</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4636,20 +4639,20 @@
         <v>22</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4657,20 +4660,20 @@
         <v>22</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="17" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4678,20 +4681,20 @@
         <v>22</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="17" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F130" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4705,13 +4708,13 @@
         <v>29</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>3</v>
@@ -4746,11 +4749,11 @@
         <v>29</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>10</v>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>7</v>
@@ -4890,22 +4893,22 @@
         <v>40</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4913,20 +4916,20 @@
         <v>41</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="3" t="s">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4934,20 +4937,20 @@
         <v>41</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>113</v>
+        <v>451</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="3" t="s">
-        <v>116</v>
+        <v>452</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4955,236 +4958,234 @@
         <v>41</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="3" t="s">
-        <v>117</v>
+        <v>453</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+      <c r="A144">
         <v>41</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C144" s="20" t="s">
+      <c r="B144" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E144" s="7" t="s">
+      <c r="D144" s="10"/>
+      <c r="E144" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>42</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>143</v>
+        <v>41</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="3" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>43</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>93</v>
+        <v>41</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="3" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="3" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D149" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E149" s="3" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D150" s="10"/>
       <c r="E150" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>43</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D151" s="10"/>
-      <c r="E151" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F151" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>50</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>51</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
-        <v>50</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>51</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5192,41 +5193,41 @@
         <v>51</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>51</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,83 +5235,83 @@
         <v>51</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>51</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>53</v>
       </c>
-      <c r="B159" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>93</v>
+      <c r="B159" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="3" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5318,20 +5319,20 @@
         <v>53</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5339,20 +5340,20 @@
         <v>53</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5360,20 +5361,20 @@
         <v>53</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="3" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5381,20 +5382,20 @@
         <v>53</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5402,64 +5403,64 @@
         <v>53</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>53</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D165" s="10"/>
-      <c r="E165" s="3" t="s">
+      <c r="A165" s="6">
+        <v>60</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F165" s="4" t="s">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>61</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="6">
-        <v>60</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>134</v>
+      <c r="G166" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,20 +5468,20 @@
         <v>61</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5488,20 +5489,20 @@
         <v>61</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,20 +5510,20 @@
         <v>61</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5530,20 +5531,20 @@
         <v>61</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,85 +5552,85 @@
         <v>61</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D171" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E171" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>61</v>
-      </c>
-      <c r="B172" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G172" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>5</v>
+        <v>458</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>63</v>
       </c>
-      <c r="B174" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>93</v>
+      <c r="B174" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="3" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5637,20 +5638,20 @@
         <v>63</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,20 +5659,20 @@
         <v>63</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,20 +5680,20 @@
         <v>63</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5700,20 +5701,20 @@
         <v>63</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D178" s="10"/>
       <c r="E178" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,61 +5722,61 @@
         <v>63</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>93</v>
+        <v>458</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>63</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>134</v>
+      <c r="A180" s="6">
+        <v>70</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
-        <v>70</v>
-      </c>
-      <c r="B181" s="20" t="s">
+      <c r="A181">
+        <v>71</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C181" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D181" s="9"/>
-      <c r="E181" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G181" s="7" t="s">
+      <c r="C181" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5787,11 +5788,11 @@
         <v>44</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>10</v>
@@ -5808,11 +5809,11 @@
         <v>44</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="3" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>10</v>
@@ -5821,7 +5822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>71</v>
       </c>
@@ -5829,11 +5830,11 @@
         <v>44</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>10</v>
@@ -5842,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>71</v>
       </c>
@@ -5850,11 +5851,11 @@
         <v>44</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>10</v>
@@ -5871,11 +5872,11 @@
         <v>44</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>435</v>
+        <v>47</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
-        <v>431</v>
+        <v>48</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>10</v>
@@ -5884,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>71</v>
       </c>
@@ -5892,11 +5893,11 @@
         <v>44</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>10</v>
@@ -5913,11 +5914,11 @@
         <v>44</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>10</v>
@@ -5934,17 +5935,17 @@
         <v>44</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D189" s="10"/>
       <c r="E189" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5955,20 +5956,20 @@
         <v>44</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D190" s="10"/>
       <c r="E190" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>71</v>
       </c>
@@ -5976,17 +5977,17 @@
         <v>44</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,11 +5998,11 @@
         <v>44</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>10</v>
@@ -6012,20 +6013,20 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>71</v>
-      </c>
-      <c r="B193" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C193" s="19" t="s">
-        <v>148</v>
+      <c r="C193" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>3</v>
@@ -6039,13 +6040,13 @@
         <v>44</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D194" s="10"/>
       <c r="E194" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F194" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G194" s="3" t="s">
@@ -6053,89 +6054,91 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>79</v>
-      </c>
-      <c r="B195" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D195" s="10"/>
-      <c r="E195" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G195" s="3" t="s">
+      <c r="A195" s="6">
+        <v>80</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
-        <v>80</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D196" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="A196" s="13">
+        <v>81</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D196" s="15"/>
+      <c r="E196" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="G196" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="13">
-        <v>81</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C197" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="D197" s="15"/>
-      <c r="E197" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G197" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F196" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>82</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D197" s="10"/>
+      <c r="E197" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>82</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D198" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E198" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6143,22 +6146,19 @@
         <v>82</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>10</v>
+        <v>181</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F199" t="s">
+        <v>7</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,19 +6166,19 @@
         <v>82</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F200" t="s">
         <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6186,19 +6186,19 @@
         <v>82</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F201" t="s">
         <v>7</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6206,39 +6206,39 @@
         <v>82</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F202" t="s">
         <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>82</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F203" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6246,19 +6246,19 @@
         <v>82</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F204" t="s">
         <v>32</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6266,19 +6266,19 @@
         <v>82</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F205" t="s">
         <v>32</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6286,101 +6286,104 @@
         <v>82</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F206" t="s">
         <v>32</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>82</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F207" t="s">
+        <v>32</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
+        <v>83</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D208" s="15"/>
+      <c r="E208" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F207" t="s">
-        <v>32</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>82</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F208" t="s">
-        <v>32</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="13">
-        <v>83</v>
-      </c>
-      <c r="B209" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="D209" s="15"/>
-      <c r="E209" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G209" s="14" t="s">
+      <c r="F208" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="G208" s="14" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>100</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="6">
-        <v>100</v>
-      </c>
-      <c r="B210" s="20" t="s">
+      <c r="A210">
+        <v>101</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C210" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D210" s="9"/>
-      <c r="E210" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>3</v>
+      <c r="C210" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6475,11 +6478,11 @@
         <v>57</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D215" s="10"/>
       <c r="E215" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>10</v>
@@ -6488,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>101</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>101</v>
       </c>
@@ -6559,17 +6562,17 @@
         <v>57</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D219" s="10"/>
       <c r="E219" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6580,11 +6583,11 @@
         <v>57</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>10</v>
@@ -6601,11 +6604,11 @@
         <v>57</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>10</v>
@@ -6643,11 +6646,11 @@
         <v>57</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D223" s="10"/>
       <c r="E223" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>10</v>
@@ -6668,7 +6671,7 @@
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>7</v>
@@ -6689,13 +6692,13 @@
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6727,11 +6730,11 @@
         <v>57</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>10</v>
@@ -6748,11 +6751,11 @@
         <v>57</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D228" s="10"/>
       <c r="E228" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>10</v>
@@ -6769,11 +6772,11 @@
         <v>57</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>10</v>
@@ -6797,7 +6800,7 @@
         <v>50</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G230" s="7" t="s">
         <v>3</v>
@@ -6811,11 +6814,11 @@
         <v>49</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>10</v>
@@ -6832,11 +6835,11 @@
         <v>49</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>10</v>
@@ -6853,11 +6856,11 @@
         <v>49</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>10</v>
@@ -6874,11 +6877,11 @@
         <v>49</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D234" s="10"/>
       <c r="E234" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>10</v>
@@ -6950,7 +6953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>111</v>
       </c>
@@ -6958,17 +6961,17 @@
         <v>49</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6979,17 +6982,17 @@
         <v>49</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7000,11 +7003,11 @@
         <v>49</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D240" s="10"/>
       <c r="E240" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>10</v>
@@ -7021,11 +7024,11 @@
         <v>49</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>10</v>
@@ -7063,11 +7066,11 @@
         <v>49</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D243" s="10"/>
       <c r="E243" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>10</v>
@@ -7088,13 +7091,13 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7105,11 +7108,11 @@
         <v>49</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>10</v>
@@ -7126,11 +7129,11 @@
         <v>49</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D246" s="10"/>
       <c r="E246" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>10</v>
@@ -7147,19 +7150,19 @@
         <v>49</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7170,7 +7173,7 @@
         <v>49</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
@@ -7188,20 +7191,20 @@
         <v>120</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7209,20 +7212,20 @@
         <v>121</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7230,20 +7233,20 @@
         <v>121</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D251" s="10"/>
       <c r="E251" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7251,20 +7254,20 @@
         <v>121</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D252" s="10"/>
       <c r="E252" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7272,20 +7275,20 @@
         <v>121</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C253" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7293,20 +7296,20 @@
         <v>121</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D254" s="10"/>
       <c r="E254" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7314,20 +7317,20 @@
         <v>121</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7345,7 +7348,7 @@
         <v>70</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G256" s="7" t="s">
         <v>3</v>
@@ -7362,7 +7365,7 @@
         <v>29</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>35</v>
@@ -7382,17 +7385,19 @@
         <v>69</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D258" s="10"/>
+        <v>105</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E258" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F258" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F258" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7403,20 +7408,20 @@
         <v>69</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D259" s="10"/>
       <c r="E259" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F259" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F259" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>201</v>
       </c>
@@ -7424,20 +7429,20 @@
         <v>69</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D260" s="10"/>
       <c r="E260" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>201</v>
       </c>
@@ -7445,20 +7450,20 @@
         <v>69</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D261" s="10"/>
       <c r="E261" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>201</v>
       </c>
@@ -7466,11 +7471,11 @@
         <v>69</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>10</v>
@@ -7487,20 +7492,20 @@
         <v>69</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="3" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>201</v>
       </c>
@@ -7508,19 +7513,17 @@
         <v>69</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D264" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D264" s="10"/>
       <c r="E264" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>38</v>
+        <v>177</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7531,20 +7534,22 @@
         <v>69</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D265" s="11"/>
-      <c r="E265" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>201</v>
       </c>
@@ -7552,20 +7557,20 @@
         <v>69</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="D266" s="11"/>
       <c r="E266" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>201</v>
       </c>
@@ -7573,17 +7578,17 @@
         <v>69</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D267" s="11"/>
       <c r="E267" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7594,20 +7599,20 @@
         <v>69</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D268" s="11"/>
       <c r="E268" s="5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>201</v>
       </c>
@@ -7615,20 +7620,20 @@
         <v>69</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>201</v>
       </c>
@@ -7636,17 +7641,17 @@
         <v>69</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D270" s="11"/>
       <c r="E270" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7657,17 +7662,17 @@
         <v>69</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D271" s="11"/>
       <c r="E271" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7678,20 +7683,20 @@
         <v>69</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D272" s="11"/>
       <c r="E272" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>201</v>
       </c>
@@ -7699,20 +7704,20 @@
         <v>69</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D273" s="11"/>
       <c r="E273" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>201</v>
       </c>
@@ -7720,17 +7725,17 @@
         <v>69</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D274" s="11"/>
       <c r="E274" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7741,17 +7746,17 @@
         <v>69</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D275" s="11"/>
       <c r="E275" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7762,17 +7767,17 @@
         <v>69</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D276" s="11"/>
       <c r="E276" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7783,17 +7788,17 @@
         <v>69</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7804,17 +7809,17 @@
         <v>69</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D278" s="11"/>
       <c r="E278" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7825,20 +7830,20 @@
         <v>69</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D279" s="11"/>
       <c r="E279" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>201</v>
       </c>
@@ -7846,20 +7851,20 @@
         <v>69</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D280" s="11"/>
       <c r="E280" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>201</v>
       </c>
@@ -7867,20 +7872,20 @@
         <v>69</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D281" s="11"/>
       <c r="E281" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>201</v>
       </c>
@@ -7888,20 +7893,20 @@
         <v>69</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D282" s="11"/>
       <c r="E282" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>201</v>
       </c>
@@ -7909,17 +7914,17 @@
         <v>69</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D283" s="11"/>
       <c r="E283" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7930,17 +7935,17 @@
         <v>69</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D284" s="11"/>
       <c r="E284" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7951,17 +7956,17 @@
         <v>69</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7972,17 +7977,17 @@
         <v>69</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D286" s="11"/>
       <c r="E286" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7993,17 +7998,17 @@
         <v>69</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D287" s="11"/>
       <c r="E287" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8014,20 +8019,20 @@
         <v>69</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>201</v>
       </c>
@@ -8035,17 +8040,17 @@
         <v>69</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D289" s="11"/>
       <c r="E289" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8056,22 +8061,20 @@
         <v>69</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>394</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D290" s="11"/>
       <c r="E290" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>201</v>
       </c>
@@ -8079,19 +8082,22 @@
         <v>69</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>357</v>
+        <v>384</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>201</v>
       </c>
@@ -8099,19 +8105,19 @@
         <v>69</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>201</v>
       </c>
@@ -8119,19 +8125,19 @@
         <v>69</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>201</v>
       </c>
@@ -8139,19 +8145,19 @@
         <v>69</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>201</v>
       </c>
@@ -8159,19 +8165,19 @@
         <v>69</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>201</v>
       </c>
@@ -8179,16 +8185,16 @@
         <v>69</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8199,16 +8205,16 @@
         <v>69</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8219,16 +8225,16 @@
         <v>69</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8239,19 +8245,19 @@
         <v>69</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>201</v>
       </c>
@@ -8259,19 +8265,19 @@
         <v>69</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>201</v>
       </c>
@@ -8279,19 +8285,19 @@
         <v>69</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>201</v>
       </c>
@@ -8299,19 +8305,19 @@
         <v>69</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>201</v>
       </c>
@@ -8319,19 +8325,19 @@
         <v>69</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>201</v>
       </c>
@@ -8339,19 +8345,19 @@
         <v>69</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>201</v>
       </c>
@@ -8359,19 +8365,19 @@
         <v>69</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>201</v>
       </c>
@@ -8379,19 +8385,19 @@
         <v>69</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>201</v>
       </c>
@@ -8399,19 +8405,19 @@
         <v>69</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>201</v>
       </c>
@@ -8419,19 +8425,19 @@
         <v>69</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>201</v>
       </c>
@@ -8439,16 +8445,16 @@
         <v>69</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -8459,19 +8465,19 @@
         <v>69</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>201</v>
       </c>
@@ -8479,19 +8485,19 @@
         <v>69</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>201</v>
       </c>
@@ -8499,19 +8505,19 @@
         <v>69</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>201</v>
       </c>
@@ -8519,19 +8525,19 @@
         <v>69</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>201</v>
       </c>
@@ -8539,19 +8545,19 @@
         <v>69</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>201</v>
       </c>
@@ -8559,16 +8565,16 @@
         <v>69</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8579,16 +8585,16 @@
         <v>69</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8599,19 +8605,19 @@
         <v>69</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>201</v>
       </c>
@@ -8619,17 +8625,16 @@
         <v>69</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D318" s="10"/>
-      <c r="E318" s="3" t="s">
-        <v>417</v>
+        <v>373</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -8640,11 +8645,11 @@
         <v>69</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D319" s="10"/>
       <c r="E319" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>10</v>
@@ -8661,11 +8666,11 @@
         <v>69</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="D320" s="10"/>
       <c r="E320" s="3" t="s">
-        <v>104</v>
+        <v>409</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>10</v>
@@ -8682,11 +8687,11 @@
         <v>69</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>421</v>
+        <v>103</v>
       </c>
       <c r="D321" s="10"/>
       <c r="E321" s="3" t="s">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>10</v>
@@ -8703,14 +8708,14 @@
         <v>69</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>56</v>
+        <v>412</v>
       </c>
       <c r="D322" s="10"/>
       <c r="E322" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>7</v>
+        <v>407</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>3</v>
@@ -8724,20 +8729,20 @@
         <v>69</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D323" s="10"/>
       <c r="E323" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>201</v>
       </c>
@@ -8745,20 +8750,20 @@
         <v>69</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D324" s="10"/>
       <c r="E324" s="3" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>201</v>
       </c>
@@ -8766,14 +8771,14 @@
         <v>69</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>3</v>
@@ -8787,11 +8792,11 @@
         <v>69</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F326" s="4" t="s">
         <v>10</v>
@@ -8808,11 +8813,11 @@
         <v>69</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D327" s="10"/>
       <c r="E327" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>10</v>
@@ -8829,11 +8834,11 @@
         <v>69</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D328" s="10"/>
       <c r="E328" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F328" s="4" t="s">
         <v>10</v>
@@ -8843,7 +8848,25 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C329" s="19"/>
+      <c r="A329">
+        <v>201</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D329" s="10"/>
+      <c r="E329" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C330" s="19"/>
@@ -8929,10 +8952,13 @@
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="19"/>
     </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="19"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G357">
-    <sortCondition ref="A2:A357"/>
-    <sortCondition ref="C2:C357"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G358">
+    <sortCondition ref="A2:A358"/>
+    <sortCondition ref="C2:C358"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
